--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820" tabRatio="723"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="http" sheetId="1" r:id="rId1"/>
@@ -25,62 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>http常见请求头,响应头</t>
-  </si>
-  <si>
-    <t>请求头：
-Accept-Charset
-Accept
-Accept-Language
-Accept-Encoding
-Cookie
-Host
-Origin
-Referer：当前页面的来源页面的地址</t>
-  </si>
-  <si>
-    <t>实体头：
-Content-Length
-Content-Encoding
-Content-Language</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>响应头：
-Allow:枚举资源所支持的http方法集合
-Etag
-Expires:指定过期日期
-Server
-Vary：它的值是请求头的名称，可以是一个或者多个，告诉缓存服务器，当客户端</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第二次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求同一个资源时，请求头和Vary中列出的请求头的值也一样时，才可以读缓存，否则要从原始服务器中请求资源
-Set-Cookie</t>
-    </r>
   </si>
   <si>
     <t>通用头：
@@ -91,83 +38,6 @@
   </si>
   <si>
     <t>http1.x有什么特点？优点/缺点都有哪些？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特点：
-1 基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>响应-请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">模式
-2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：对于发送过的请求或响应都不做持久化处理
-3 通过headers使得http</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可扩展</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，只要客户端和服务端达成语义一致，非常容易拓展。
-</t>
-    </r>
-  </si>
-  <si>
-    <t>缺点：
-1.使用明文传输，不安全
-2.头部携带大量且重复的信息
-3.队头阻塞带来高延迟问题（队头阻塞：客户端一次性发送多个请求，如果前一个请求遇到了阻塞，那么后面的请求即使处理完了也要等前面的请求先处理才会返回到客户端，响应的顺序和请求顺序一致）
-4.只能由客户端发起请求</t>
   </si>
   <si>
     <t>https的加密解密过程</t>
@@ -204,16 +74,6 @@
     <t>常见http状态码</t>
   </si>
   <si>
-    <t>200:OK
-201:Created 通常作为POST请求的响应码
-204:请求已经响应成功，但是客户端不需要离开当前页，通常使用在PUT请求
-301:重定向
-304:从缓存读取
-401:没有权限
-404:没有找到资源
-415:不支持的媒体类型</t>
-  </si>
-  <si>
     <t>http的内容协商机制</t>
   </si>
   <si>
@@ -223,16 +83,7 @@
     <t>断点续传的原理</t>
   </si>
   <si>
-    <t>Content-Security-Policy响应头有什么作用</t>
-  </si>
-  <si>
-    <t>缓存服务器要自己搭建吗？</t>
-  </si>
-  <si>
     <t>websocker有什么特点，如何通讯的？</t>
-  </si>
-  <si>
-    <t>os</t>
   </si>
   <si>
     <t>http建立连接的三次握手</t>
@@ -409,8 +260,7 @@
     <t>对this关键字的理解</t>
   </si>
   <si>
-    <t xml:space="preserve">-let关键字有什么优点？</t>
+    <t>_x000D_let关键字有什么优点？</t>
   </si>
   <si>
     <t>使用new和Object.create创建的对象有什么区别</t>
@@ -465,19 +315,381 @@
   </si>
   <si>
     <t>深度优先和广度优先的区别？写个简单的例子</t>
+  </si>
+  <si>
+    <r>
+      <t>特点：
+1 基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响应-请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">模式
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：对于发送过的请求或响应都不做持久化处理
+3 通过headers使得http</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可扩展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，只要客户端和服务端达成语义一致，非常容易拓展。
+</t>
+    </r>
+  </si>
+  <si>
+    <t>实体头：
+Content-Length
+Content-Encoding
+Content-Language
+Content-Type ：实体头部用于指示资源的MIME类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪些消息头是为缓存服务器设置的？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用域链是什么？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包是什么</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包有什么缺点？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包的作用及应用场景？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头：
+Accept-Charset
+Accept：MIME
+Accept-Language
+Accept-Encoding
+Cookie
+Host
+Origin
+Referer：当前页面的来源页面的地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点：
+1.使用明文传输，不安全
+2.头部携带大量且重复的信息
+3.队头阻塞带来高延迟问题（队头阻塞：客户端一次性发送多个请求，如果前一个请求遇到了阻塞，那么后面的请求即使处理完了也要等前面的请求先处理才会返回到客户端，响应的顺序和请求顺序一致）
+4.只能由客户端发起请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定义：一个url请求常常代表若干个不同的资源，而服务器根据请求头的信息，选择合适的资源且返回，这个机制叫做HTTP的内容协商机制。
+协商头包括：Accent/Accept-Charset/Accept-Language/Accept-Encoding
+有三种方式可以决定服务器返回哪个资源给客户端：
+1.客户端驱动
+ 客户端发起请求，服务器发送可选项列表，客户端作出选择后在发送第二次请求。
+    优点：比较容易实现；
+    缺点：增加了时延，至少要发送两次请求，第一次请求获取资源列表，第二次获取选择的副本；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何实现？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.服务器驱动
+服务器检查客户端的请求首部集并决定提供哪个版本的页面。
+    优点：比客户端驱动的协商要快。HTTP提供了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，允许服务器近似匹配，还提供了vary首部供服务器告知下游的设备（如代理服务器）如何对请求估值；
+    缺点：首部集不匹配，服务器要做猜测；
+3.透明协商
+ 某个中间设备（通常是缓存代理）代表客户端进行协商。使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现
+    优点：免除了web服务器的协商开销，比客户端驱动的协商要快；
+    缺点：HTTP并没有提供相应的规范；</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件请求头有哪些？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE chunked</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200:OK
+201:Created 通常作为POST请求的响应码
+204:请求已经响应成功，但是客户端不需要离开当前页，通常使用在PUT请求
+206：断点续传成功
+301:重定向
+304:从缓存读取
+400：Bad Request 表示语法无效，服务器无法理解该请求，一般是参数不对
+401:没有权限
+404:没有找到资源
+415:不支持的媒体类型
+500：服务器错误</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点续传一般在文件下载的情况使用，通过使用HTTP的Accept-Range、Range、If-Range、Range-Content等头部实现。步骤如下：
+1.客户端请求一个资源
+2.服务器返回资源信息，头部包含：Content-Length和Accept-Range告诉客户端，资源的长度和接收断点续传。
+3.客户端如果下载中段了，需要接着下载，那么发请求，头部包含：If-Range和Range，If-Range可以是Last-Modify的值或者是Etag的值，Range是bytes的起始范围
+4.服务端验证如果资源没有过期，即If-Range满足条件，那么从请求头Range指定的范围返回资源，状态码为206；如果If-Range不满足，那么从头开始返回资源，状态码为200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Security-Policy响应头有什么作用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>响应头：
+Allow:枚举资源所支持的http方法集合
+Etag
+Expires:指定过期日期
+Server
+Vary：它的值是请求头的名称，可以是一个或者多个，告诉缓存服务器，当客户端</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求同一个资源时，请求头和Vary中列出的请求头的值也一样时，才可以读缓存，否则要从原始服务器中请求资源。常常用在内容协商机制。常用的值：Accept-Language、User-Agent、Cookie。
+Set-Cookie</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5有哪些新特性</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebWorker</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Security-Policy: default-src 'self'
+限制所有外部资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta http-equiv="Content-Security-Policy" content="script-src 'self'; object-src 'none'; style-src cdn.example.org third-party.org; child-src https:"&gt;
+脚本：只信任当前域名
+&lt;object&gt;标签：不信任任何URL，即不加载任何资源
+样式表：只信任cdn.example.org和third-party.org
+框架（frame）：必须使用HTTPS协议加载
+其他资源：没有限制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么内联的脚本和样式不安全</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>'unsafe-inline'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>：允许执行页面内嵌的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;lt;script&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>标签和事件监听函数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">简称CSP，用来防止跨站脚本攻击（XSS-Cross Site Scripting）.开发者配置网站的哪些外部资源可以加载和执行，实质就是给网站配置白名单。也可以通过meta标签实现。
+注意：
+（1）script-src和object-src是必设的，除非设置了default-src。
+因为攻击者只要能注入脚本，其他限制都可以规避。而object-src必设是因为 Flash 里面可以执行外部脚本。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（2）script-src不能使用unsafe-inline关键字（除非伴随一个nonce值），也不能允许设置data:URL。
+下面是两个恶意攻击的例子。
+&lt;img src="x" onerror="evil()"&gt;
+&lt;script src="data:text/javascript,evil()"&gt;&lt;/script&gt;
+（3）必须特别注意 JSONP 的回调函数。
+&lt;script
+src="/path/jsonp?callback=alert(document.domain)//"&gt;
+&lt;/script&gt;</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨站脚本攻击？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,157 +702,6 @@
       <color theme="1"/>
       <name val="圆体-简"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF444444"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -659,30 +720,69 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,198 +791,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -890,255 +804,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,71 +826,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFC00"/>
+      <color rgb="FFFFFC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1481,1504 +1112,2077 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.6428571428571" customWidth="1"/>
-    <col min="2" max="2" width="59.2232142857143" customWidth="1"/>
-    <col min="3" max="3" width="34.6696428571429" customWidth="1"/>
-    <col min="4" max="4" width="47.6160714285714" customWidth="1"/>
-    <col min="5" max="5" width="45.6875" customWidth="1"/>
+    <col min="1" max="1" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="74.875" customWidth="1"/>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="194" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="207.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="138">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="155.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="176" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="86.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="176" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="88" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="189.75">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="310.5">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="189.75">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="276">
+      <c r="A10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="159" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="51.75">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="53" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25">
+      <c r="A20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25">
+      <c r="A21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="17.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="17.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="17.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="17.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="17.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="17.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" ht="17.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="17.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" ht="17.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="https://www.cnblogs.com/dhsz/p/7016283.html" tooltip="https://www.cnblogs.com/dhsz/p/7016283.html"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://www.byvoid.com/zhs/blog/http-keep-alive-header" tooltip="https://www.byvoid.com/zhs/blog/http-keep-alive-header"/>
+    <hyperlink ref="B17" r:id="rId1" tooltip="https://www.byvoid.com/zhs/blog/http-keep-alive-header"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M169"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.5714285714286" style="2" customWidth="1"/>
-    <col min="2" max="2" width="85.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="46.0714285714286" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.4285714285714" style="2" customWidth="1"/>
-    <col min="8" max="8" width="57.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="21.1428571428571" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.1428571428571" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="85.25" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="57.375" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="128.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="159" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="49" spans="1:13">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="39.75">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="106" spans="1:13">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="85.5">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
+    <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
+    <row r="7" spans="1:13" s="1" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
+    <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
+    <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:13">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:13" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:13">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:13" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
       <c r="J12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:13" s="1" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
       <c r="J13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="G14" s="3"/>
       <c r="J14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
+    <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="3"/>
       <c r="D15" s="3"/>
       <c r="G15" s="3"/>
       <c r="J15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:13">
+    <row r="16" spans="1:13" s="1" customFormat="1">
       <c r="A16" s="3"/>
       <c r="D16" s="3"/>
       <c r="G16" s="3"/>
       <c r="J16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+    <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="3"/>
       <c r="D17" s="3"/>
       <c r="G17" s="3"/>
       <c r="J17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
+    <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18" s="3"/>
       <c r="D18" s="3"/>
       <c r="G18" s="3"/>
       <c r="J18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:13">
+    <row r="19" spans="1:13" s="1" customFormat="1">
       <c r="A19" s="3"/>
       <c r="D19" s="3"/>
       <c r="G19" s="3"/>
       <c r="J19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:13">
+    <row r="20" spans="1:13" s="1" customFormat="1">
       <c r="A20" s="3"/>
       <c r="D20" s="3"/>
       <c r="G20" s="3"/>
       <c r="J20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:13">
+    <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="3"/>
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
       <c r="J21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:13">
+    <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22" s="3"/>
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
       <c r="J22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:13">
+    <row r="23" spans="1:13" s="1" customFormat="1">
       <c r="A23" s="3"/>
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
       <c r="J23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:13">
+    <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24" s="3"/>
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
       <c r="J24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:13">
+    <row r="25" spans="1:13" s="1" customFormat="1">
       <c r="A25" s="3"/>
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
       <c r="J25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:13">
+    <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="3"/>
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
       <c r="J26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:13">
+    <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="3"/>
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
       <c r="J27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:13">
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="3"/>
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
       <c r="J28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:13">
+    <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="3"/>
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
       <c r="J29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:13">
+    <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="3"/>
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
       <c r="J30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:13">
+    <row r="31" spans="1:13" s="1" customFormat="1">
       <c r="A31" s="3"/>
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
       <c r="J31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:13">
+    <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="3"/>
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
       <c r="J32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:13">
+    <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="3"/>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
       <c r="J33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:13">
+    <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="3"/>
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
       <c r="J34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:13">
+    <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="3"/>
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
       <c r="J35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:13">
+    <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="3"/>
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
       <c r="J36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:13">
+    <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="3"/>
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
       <c r="J37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:13">
+    <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="3"/>
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
       <c r="J38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:13">
+    <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="3"/>
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
       <c r="J39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:13">
+    <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="3"/>
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
       <c r="J40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:13">
+    <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="3"/>
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
       <c r="J41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:13">
+    <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="3"/>
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
       <c r="J42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:13">
+    <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="3"/>
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
       <c r="J43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:13">
+    <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="3"/>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:13">
+    <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="3"/>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:13">
+    <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="3"/>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
       <c r="J46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:13">
+    <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="3"/>
       <c r="D47" s="3"/>
       <c r="G47" s="3"/>
       <c r="J47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:13">
+    <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="3"/>
       <c r="D48" s="3"/>
       <c r="G48" s="3"/>
       <c r="J48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:13">
+    <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="3"/>
       <c r="D49" s="3"/>
       <c r="G49" s="3"/>
       <c r="J49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:13">
+    <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="3"/>
       <c r="D50" s="3"/>
       <c r="G50" s="3"/>
       <c r="J50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:13">
+    <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="3"/>
       <c r="D51" s="3"/>
       <c r="G51" s="3"/>
       <c r="J51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:13">
+    <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="3"/>
       <c r="D52" s="3"/>
       <c r="G52" s="3"/>
       <c r="J52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:13">
+    <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="3"/>
       <c r="D53" s="3"/>
       <c r="G53" s="3"/>
       <c r="J53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:13">
+    <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="3"/>
       <c r="D54" s="3"/>
       <c r="G54" s="3"/>
       <c r="J54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:13">
+    <row r="55" spans="1:13" s="1" customFormat="1">
       <c r="A55" s="3"/>
       <c r="D55" s="3"/>
       <c r="G55" s="3"/>
       <c r="J55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:13">
+    <row r="56" spans="1:13" s="1" customFormat="1">
       <c r="A56" s="3"/>
       <c r="D56" s="3"/>
       <c r="G56" s="3"/>
       <c r="J56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:13">
+    <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57" s="3"/>
       <c r="D57" s="3"/>
       <c r="G57" s="3"/>
       <c r="J57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:13">
+    <row r="58" spans="1:13" s="1" customFormat="1">
       <c r="A58" s="3"/>
       <c r="D58" s="3"/>
       <c r="G58" s="3"/>
       <c r="J58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:13">
+    <row r="59" spans="1:13" s="1" customFormat="1">
       <c r="A59" s="3"/>
       <c r="D59" s="3"/>
       <c r="G59" s="3"/>
       <c r="J59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:13">
+    <row r="60" spans="1:13" s="1" customFormat="1">
       <c r="A60" s="3"/>
       <c r="D60" s="3"/>
       <c r="G60" s="3"/>
       <c r="J60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:13">
+    <row r="61" spans="1:13" s="1" customFormat="1">
       <c r="A61" s="3"/>
       <c r="D61" s="3"/>
       <c r="G61" s="3"/>
       <c r="J61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:13">
+    <row r="62" spans="1:13" s="1" customFormat="1">
       <c r="A62" s="3"/>
       <c r="D62" s="3"/>
       <c r="G62" s="3"/>
       <c r="J62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:13">
+    <row r="63" spans="1:13" s="1" customFormat="1">
       <c r="A63" s="3"/>
       <c r="D63" s="3"/>
       <c r="G63" s="3"/>
       <c r="J63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:13">
+    <row r="64" spans="1:13" s="1" customFormat="1">
       <c r="A64" s="3"/>
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="J64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:13">
+    <row r="65" spans="1:13" s="1" customFormat="1">
       <c r="A65" s="3"/>
       <c r="D65" s="3"/>
       <c r="G65" s="3"/>
       <c r="J65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:13">
+    <row r="66" spans="1:13" s="1" customFormat="1">
       <c r="A66" s="3"/>
       <c r="D66" s="3"/>
       <c r="G66" s="3"/>
       <c r="J66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:13">
+    <row r="67" spans="1:13" s="1" customFormat="1">
       <c r="A67" s="3"/>
       <c r="D67" s="3"/>
       <c r="G67" s="3"/>
       <c r="J67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:13">
+    <row r="68" spans="1:13" s="1" customFormat="1">
       <c r="A68" s="3"/>
       <c r="D68" s="3"/>
       <c r="G68" s="3"/>
       <c r="J68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:13">
+    <row r="69" spans="1:13" s="1" customFormat="1">
       <c r="A69" s="3"/>
       <c r="D69" s="3"/>
       <c r="G69" s="3"/>
       <c r="J69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:13">
+    <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70" s="3"/>
       <c r="D70" s="3"/>
       <c r="G70" s="3"/>
       <c r="J70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:13">
+    <row r="71" spans="1:13" s="1" customFormat="1">
       <c r="A71" s="3"/>
       <c r="D71" s="3"/>
       <c r="G71" s="3"/>
       <c r="J71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:13">
+    <row r="72" spans="1:13" s="1" customFormat="1">
       <c r="A72" s="3"/>
       <c r="D72" s="3"/>
       <c r="G72" s="3"/>
       <c r="J72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:13">
+    <row r="73" spans="1:13" s="1" customFormat="1">
       <c r="A73" s="3"/>
       <c r="D73" s="3"/>
       <c r="G73" s="3"/>
       <c r="J73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:13">
+    <row r="74" spans="1:13" s="1" customFormat="1">
       <c r="A74" s="3"/>
       <c r="D74" s="3"/>
       <c r="G74" s="3"/>
       <c r="J74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:13">
+    <row r="75" spans="1:13" s="1" customFormat="1">
       <c r="A75" s="3"/>
       <c r="D75" s="3"/>
       <c r="G75" s="3"/>
       <c r="J75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:13">
+    <row r="76" spans="1:13" s="1" customFormat="1">
       <c r="A76" s="3"/>
       <c r="D76" s="3"/>
       <c r="G76" s="3"/>
       <c r="J76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" s="1" customFormat="1" spans="1:13">
+    <row r="77" spans="1:13" s="1" customFormat="1">
       <c r="A77" s="3"/>
       <c r="D77" s="3"/>
       <c r="G77" s="3"/>
       <c r="J77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:13">
+    <row r="78" spans="1:13" s="1" customFormat="1">
       <c r="A78" s="3"/>
       <c r="D78" s="3"/>
       <c r="G78" s="3"/>
       <c r="J78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:13">
+    <row r="79" spans="1:13" s="1" customFormat="1">
       <c r="A79" s="3"/>
       <c r="D79" s="3"/>
       <c r="G79" s="3"/>
       <c r="J79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:13">
+    <row r="80" spans="1:13" s="1" customFormat="1">
       <c r="A80" s="3"/>
       <c r="D80" s="3"/>
       <c r="G80" s="3"/>
       <c r="J80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:13">
+    <row r="81" spans="1:13" s="1" customFormat="1">
       <c r="A81" s="3"/>
       <c r="D81" s="3"/>
       <c r="G81" s="3"/>
       <c r="J81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:13">
+    <row r="82" spans="1:13" s="1" customFormat="1">
       <c r="A82" s="3"/>
       <c r="D82" s="3"/>
       <c r="G82" s="3"/>
       <c r="J82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:13">
+    <row r="83" spans="1:13" s="1" customFormat="1">
       <c r="A83" s="3"/>
       <c r="D83" s="3"/>
       <c r="G83" s="3"/>
       <c r="J83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="1:13">
+    <row r="84" spans="1:13" s="1" customFormat="1">
       <c r="A84" s="3"/>
       <c r="D84" s="3"/>
       <c r="G84" s="3"/>
       <c r="J84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:13">
+    <row r="85" spans="1:13" s="1" customFormat="1">
       <c r="A85" s="3"/>
       <c r="D85" s="3"/>
       <c r="G85" s="3"/>
       <c r="J85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:13">
+    <row r="86" spans="1:13" s="1" customFormat="1">
       <c r="A86" s="3"/>
       <c r="D86" s="3"/>
       <c r="G86" s="3"/>
       <c r="J86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="1:13">
+    <row r="87" spans="1:13" s="1" customFormat="1">
       <c r="A87" s="3"/>
       <c r="D87" s="3"/>
       <c r="G87" s="3"/>
       <c r="J87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:13">
+    <row r="88" spans="1:13" s="1" customFormat="1">
       <c r="A88" s="3"/>
       <c r="D88" s="3"/>
       <c r="G88" s="3"/>
       <c r="J88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:13">
+    <row r="89" spans="1:13" s="1" customFormat="1">
       <c r="A89" s="3"/>
       <c r="D89" s="3"/>
       <c r="G89" s="3"/>
       <c r="J89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:13">
+    <row r="90" spans="1:13" s="1" customFormat="1">
       <c r="A90" s="3"/>
       <c r="D90" s="3"/>
       <c r="G90" s="3"/>
       <c r="J90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:13">
+    <row r="91" spans="1:13" s="1" customFormat="1">
       <c r="A91" s="3"/>
       <c r="D91" s="3"/>
       <c r="G91" s="3"/>
       <c r="J91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:13">
+    <row r="92" spans="1:13" s="1" customFormat="1">
       <c r="A92" s="3"/>
       <c r="D92" s="3"/>
       <c r="G92" s="3"/>
       <c r="J92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:13">
+    <row r="93" spans="1:13" s="1" customFormat="1">
       <c r="A93" s="3"/>
       <c r="D93" s="3"/>
       <c r="G93" s="3"/>
       <c r="J93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" s="1" customFormat="1" spans="1:13">
+    <row r="94" spans="1:13" s="1" customFormat="1">
       <c r="A94" s="3"/>
       <c r="D94" s="3"/>
       <c r="G94" s="3"/>
       <c r="J94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" s="1" customFormat="1" spans="1:13">
+    <row r="95" spans="1:13" s="1" customFormat="1">
       <c r="A95" s="3"/>
       <c r="D95" s="3"/>
       <c r="G95" s="3"/>
       <c r="J95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" s="1" customFormat="1" spans="1:13">
+    <row r="96" spans="1:13" s="1" customFormat="1">
       <c r="A96" s="3"/>
       <c r="D96" s="3"/>
       <c r="G96" s="3"/>
       <c r="J96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" s="1" customFormat="1" spans="1:13">
+    <row r="97" spans="1:13" s="1" customFormat="1">
       <c r="A97" s="3"/>
       <c r="D97" s="3"/>
       <c r="G97" s="3"/>
       <c r="J97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" s="1" customFormat="1" spans="1:13">
+    <row r="98" spans="1:13" s="1" customFormat="1">
       <c r="A98" s="3"/>
       <c r="D98" s="3"/>
       <c r="G98" s="3"/>
       <c r="J98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" s="1" customFormat="1" spans="1:13">
+    <row r="99" spans="1:13" s="1" customFormat="1">
       <c r="A99" s="3"/>
       <c r="D99" s="3"/>
       <c r="G99" s="3"/>
       <c r="J99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" s="1" customFormat="1" spans="1:13">
+    <row r="100" spans="1:13" s="1" customFormat="1">
       <c r="A100" s="3"/>
       <c r="D100" s="3"/>
       <c r="G100" s="3"/>
       <c r="J100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" s="1" customFormat="1" spans="1:13">
+    <row r="101" spans="1:13" s="1" customFormat="1">
       <c r="A101" s="3"/>
       <c r="D101" s="3"/>
       <c r="G101" s="3"/>
       <c r="J101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" s="1" customFormat="1" spans="1:13">
+    <row r="102" spans="1:13" s="1" customFormat="1">
       <c r="A102" s="3"/>
       <c r="D102" s="3"/>
       <c r="G102" s="3"/>
       <c r="J102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:13">
+    <row r="103" spans="1:13" s="1" customFormat="1">
       <c r="A103" s="3"/>
       <c r="D103" s="3"/>
       <c r="G103" s="3"/>
       <c r="J103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" s="1" customFormat="1" spans="1:13">
+    <row r="104" spans="1:13" s="1" customFormat="1">
       <c r="A104" s="3"/>
       <c r="D104" s="3"/>
       <c r="G104" s="3"/>
       <c r="J104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" s="1" customFormat="1" spans="1:13">
+    <row r="105" spans="1:13" s="1" customFormat="1">
       <c r="A105" s="3"/>
       <c r="D105" s="3"/>
       <c r="G105" s="3"/>
       <c r="J105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:13">
+    <row r="106" spans="1:13" s="1" customFormat="1">
       <c r="A106" s="3"/>
       <c r="D106" s="3"/>
       <c r="G106" s="3"/>
       <c r="J106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" s="1" customFormat="1" spans="1:13">
+    <row r="107" spans="1:13" s="1" customFormat="1">
       <c r="A107" s="3"/>
       <c r="D107" s="3"/>
       <c r="G107" s="3"/>
       <c r="J107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" s="1" customFormat="1" spans="1:13">
+    <row r="108" spans="1:13" s="1" customFormat="1">
       <c r="A108" s="3"/>
       <c r="D108" s="3"/>
       <c r="G108" s="3"/>
       <c r="J108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" s="1" customFormat="1" spans="1:13">
+    <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="3"/>
       <c r="D109" s="3"/>
       <c r="G109" s="3"/>
       <c r="J109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" s="1" customFormat="1" spans="1:13">
+    <row r="110" spans="1:13" s="1" customFormat="1">
       <c r="A110" s="3"/>
       <c r="D110" s="3"/>
       <c r="G110" s="3"/>
       <c r="J110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" s="1" customFormat="1" spans="1:13">
+    <row r="111" spans="1:13" s="1" customFormat="1">
       <c r="A111" s="3"/>
       <c r="D111" s="3"/>
       <c r="G111" s="3"/>
       <c r="J111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="1:13">
+    <row r="112" spans="1:13" s="1" customFormat="1">
       <c r="A112" s="3"/>
       <c r="D112" s="3"/>
       <c r="G112" s="3"/>
       <c r="J112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" s="1" customFormat="1" spans="1:13">
+    <row r="113" spans="1:13" s="1" customFormat="1">
       <c r="A113" s="3"/>
       <c r="D113" s="3"/>
       <c r="G113" s="3"/>
       <c r="J113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" s="1" customFormat="1" spans="1:13">
+    <row r="114" spans="1:13" s="1" customFormat="1">
       <c r="A114" s="3"/>
       <c r="D114" s="3"/>
       <c r="G114" s="3"/>
       <c r="J114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" s="1" customFormat="1" spans="1:13">
+    <row r="115" spans="1:13" s="1" customFormat="1">
       <c r="A115" s="3"/>
       <c r="D115" s="3"/>
       <c r="G115" s="3"/>
       <c r="J115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" s="1" customFormat="1" spans="1:13">
+    <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="3"/>
       <c r="D116" s="3"/>
       <c r="G116" s="3"/>
       <c r="J116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" s="1" customFormat="1" spans="1:13">
+    <row r="117" spans="1:13" s="1" customFormat="1">
       <c r="A117" s="3"/>
       <c r="D117" s="3"/>
       <c r="G117" s="3"/>
       <c r="J117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" s="1" customFormat="1" spans="1:13">
+    <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="3"/>
       <c r="D118" s="3"/>
       <c r="G118" s="3"/>
       <c r="J118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" s="1" customFormat="1" spans="1:13">
+    <row r="119" spans="1:13" s="1" customFormat="1">
       <c r="A119" s="3"/>
       <c r="D119" s="3"/>
       <c r="G119" s="3"/>
       <c r="J119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" s="1" customFormat="1" spans="1:13">
+    <row r="120" spans="1:13" s="1" customFormat="1">
       <c r="A120" s="3"/>
       <c r="D120" s="3"/>
       <c r="G120" s="3"/>
       <c r="J120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" s="1" customFormat="1" spans="1:13">
+    <row r="121" spans="1:13" s="1" customFormat="1">
       <c r="A121" s="3"/>
       <c r="D121" s="3"/>
       <c r="G121" s="3"/>
       <c r="J121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" s="1" customFormat="1" spans="1:13">
+    <row r="122" spans="1:13" s="1" customFormat="1">
       <c r="A122" s="3"/>
       <c r="D122" s="3"/>
       <c r="G122" s="3"/>
       <c r="J122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" s="1" customFormat="1" spans="1:13">
+    <row r="123" spans="1:13" s="1" customFormat="1">
       <c r="A123" s="3"/>
       <c r="D123" s="3"/>
       <c r="G123" s="3"/>
       <c r="J123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" s="1" customFormat="1" spans="1:13">
+    <row r="124" spans="1:13" s="1" customFormat="1">
       <c r="A124" s="3"/>
       <c r="D124" s="3"/>
       <c r="G124" s="3"/>
       <c r="J124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" s="1" customFormat="1" spans="1:13">
+    <row r="125" spans="1:13" s="1" customFormat="1">
       <c r="A125" s="3"/>
       <c r="D125" s="3"/>
       <c r="G125" s="3"/>
       <c r="J125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" s="1" customFormat="1" spans="1:13">
+    <row r="126" spans="1:13" s="1" customFormat="1">
       <c r="A126" s="3"/>
       <c r="D126" s="3"/>
       <c r="G126" s="3"/>
       <c r="J126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" s="1" customFormat="1" spans="1:13">
+    <row r="127" spans="1:13" s="1" customFormat="1">
       <c r="A127" s="3"/>
       <c r="D127" s="3"/>
       <c r="G127" s="3"/>
       <c r="J127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" s="1" customFormat="1" spans="1:13">
+    <row r="128" spans="1:13" s="1" customFormat="1">
       <c r="A128" s="3"/>
       <c r="D128" s="3"/>
       <c r="G128" s="3"/>
       <c r="J128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" s="1" customFormat="1" spans="1:13">
+    <row r="129" spans="1:13" s="1" customFormat="1">
       <c r="A129" s="3"/>
       <c r="D129" s="3"/>
       <c r="G129" s="3"/>
       <c r="J129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" s="1" customFormat="1" spans="1:13">
+    <row r="130" spans="1:13" s="1" customFormat="1">
       <c r="A130" s="3"/>
       <c r="D130" s="3"/>
       <c r="G130" s="3"/>
       <c r="J130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" s="1" customFormat="1" spans="1:13">
+    <row r="131" spans="1:13" s="1" customFormat="1">
       <c r="A131" s="3"/>
       <c r="D131" s="3"/>
       <c r="G131" s="3"/>
       <c r="J131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" s="1" customFormat="1" spans="1:13">
+    <row r="132" spans="1:13" s="1" customFormat="1">
       <c r="A132" s="3"/>
       <c r="D132" s="3"/>
       <c r="G132" s="3"/>
       <c r="J132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" s="1" customFormat="1" spans="1:13">
+    <row r="133" spans="1:13" s="1" customFormat="1">
       <c r="A133" s="3"/>
       <c r="D133" s="3"/>
       <c r="G133" s="3"/>
       <c r="J133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" s="1" customFormat="1" spans="1:13">
+    <row r="134" spans="1:13" s="1" customFormat="1">
       <c r="A134" s="3"/>
       <c r="D134" s="3"/>
       <c r="G134" s="3"/>
       <c r="J134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" s="1" customFormat="1" spans="1:13">
+    <row r="135" spans="1:13" s="1" customFormat="1">
       <c r="A135" s="3"/>
       <c r="D135" s="3"/>
       <c r="G135" s="3"/>
       <c r="J135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" s="1" customFormat="1" spans="1:13">
+    <row r="136" spans="1:13" s="1" customFormat="1">
       <c r="A136" s="3"/>
       <c r="D136" s="3"/>
       <c r="G136" s="3"/>
       <c r="J136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" s="1" customFormat="1" spans="1:13">
+    <row r="137" spans="1:13" s="1" customFormat="1">
       <c r="A137" s="3"/>
       <c r="D137" s="3"/>
       <c r="G137" s="3"/>
       <c r="J137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" s="1" customFormat="1" spans="1:13">
+    <row r="138" spans="1:13" s="1" customFormat="1">
       <c r="A138" s="3"/>
       <c r="D138" s="3"/>
       <c r="G138" s="3"/>
       <c r="J138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" s="1" customFormat="1" spans="1:13">
+    <row r="139" spans="1:13" s="1" customFormat="1">
       <c r="A139" s="3"/>
       <c r="D139" s="3"/>
       <c r="G139" s="3"/>
       <c r="J139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" s="1" customFormat="1" spans="1:13">
+    <row r="140" spans="1:13" s="1" customFormat="1">
       <c r="A140" s="3"/>
       <c r="D140" s="3"/>
       <c r="G140" s="3"/>
       <c r="J140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" s="1" customFormat="1" spans="1:13">
+    <row r="141" spans="1:13" s="1" customFormat="1">
       <c r="A141" s="3"/>
       <c r="D141" s="3"/>
       <c r="G141" s="3"/>
       <c r="J141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" s="1" customFormat="1" spans="1:13">
+    <row r="142" spans="1:13" s="1" customFormat="1">
       <c r="A142" s="3"/>
       <c r="D142" s="3"/>
       <c r="G142" s="3"/>
       <c r="J142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" s="1" customFormat="1" spans="1:13">
+    <row r="143" spans="1:13" s="1" customFormat="1">
       <c r="A143" s="3"/>
       <c r="D143" s="3"/>
       <c r="G143" s="3"/>
       <c r="J143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" s="1" customFormat="1" spans="1:13">
+    <row r="144" spans="1:13" s="1" customFormat="1">
       <c r="A144" s="3"/>
       <c r="D144" s="3"/>
       <c r="G144" s="3"/>
       <c r="J144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" s="1" customFormat="1" spans="1:13">
+    <row r="145" spans="1:13" s="1" customFormat="1">
       <c r="A145" s="3"/>
       <c r="D145" s="3"/>
       <c r="G145" s="3"/>
       <c r="J145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" s="1" customFormat="1" spans="1:13">
+    <row r="146" spans="1:13" s="1" customFormat="1">
       <c r="A146" s="3"/>
       <c r="D146" s="3"/>
       <c r="G146" s="3"/>
       <c r="J146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" s="1" customFormat="1" spans="1:13">
+    <row r="147" spans="1:13" s="1" customFormat="1">
       <c r="A147" s="3"/>
       <c r="D147" s="3"/>
       <c r="G147" s="3"/>
       <c r="J147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" s="1" customFormat="1" spans="1:13">
+    <row r="148" spans="1:13" s="1" customFormat="1">
       <c r="A148" s="3"/>
       <c r="D148" s="3"/>
       <c r="G148" s="3"/>
       <c r="J148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" s="1" customFormat="1" spans="1:13">
+    <row r="149" spans="1:13" s="1" customFormat="1">
       <c r="A149" s="3"/>
       <c r="D149" s="3"/>
       <c r="G149" s="3"/>
       <c r="J149" s="3"/>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" s="1" customFormat="1" spans="1:13">
+    <row r="150" spans="1:13" s="1" customFormat="1">
       <c r="A150" s="3"/>
       <c r="D150" s="3"/>
       <c r="G150" s="3"/>
       <c r="J150" s="3"/>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" s="1" customFormat="1" spans="1:13">
+    <row r="151" spans="1:13" s="1" customFormat="1">
       <c r="A151" s="3"/>
       <c r="D151" s="3"/>
       <c r="G151" s="3"/>
       <c r="J151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" s="1" customFormat="1" spans="1:13">
+    <row r="152" spans="1:13" s="1" customFormat="1">
       <c r="A152" s="3"/>
       <c r="D152" s="3"/>
       <c r="G152" s="3"/>
       <c r="J152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" s="1" customFormat="1" spans="1:13">
+    <row r="153" spans="1:13" s="1" customFormat="1">
       <c r="A153" s="3"/>
       <c r="D153" s="3"/>
       <c r="G153" s="3"/>
       <c r="J153" s="3"/>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" s="1" customFormat="1" spans="1:13">
+    <row r="154" spans="1:13" s="1" customFormat="1">
       <c r="A154" s="3"/>
       <c r="D154" s="3"/>
       <c r="G154" s="3"/>
       <c r="J154" s="3"/>
       <c r="M154" s="3"/>
     </row>
-    <row r="155" s="1" customFormat="1" spans="1:13">
+    <row r="155" spans="1:13" s="1" customFormat="1">
       <c r="A155" s="3"/>
       <c r="D155" s="3"/>
       <c r="G155" s="3"/>
       <c r="J155" s="3"/>
       <c r="M155" s="3"/>
     </row>
-    <row r="156" s="1" customFormat="1" spans="1:13">
+    <row r="156" spans="1:13" s="1" customFormat="1">
       <c r="A156" s="3"/>
       <c r="D156" s="3"/>
       <c r="G156" s="3"/>
       <c r="J156" s="3"/>
       <c r="M156" s="3"/>
     </row>
-    <row r="157" s="1" customFormat="1" spans="1:13">
+    <row r="157" spans="1:13" s="1" customFormat="1">
       <c r="A157" s="3"/>
       <c r="D157" s="3"/>
       <c r="G157" s="3"/>
       <c r="J157" s="3"/>
       <c r="M157" s="3"/>
     </row>
-    <row r="158" s="1" customFormat="1" spans="1:13">
+    <row r="158" spans="1:13" s="1" customFormat="1">
       <c r="A158" s="3"/>
       <c r="D158" s="3"/>
       <c r="G158" s="3"/>
       <c r="J158" s="3"/>
       <c r="M158" s="3"/>
     </row>
-    <row r="159" s="1" customFormat="1" spans="1:13">
+    <row r="159" spans="1:13" s="1" customFormat="1">
       <c r="A159" s="3"/>
       <c r="D159" s="3"/>
       <c r="G159" s="3"/>
       <c r="J159" s="3"/>
       <c r="M159" s="3"/>
     </row>
-    <row r="160" s="1" customFormat="1" spans="1:13">
+    <row r="160" spans="1:13" s="1" customFormat="1">
       <c r="A160" s="3"/>
       <c r="D160" s="3"/>
       <c r="G160" s="3"/>
       <c r="J160" s="3"/>
       <c r="M160" s="3"/>
     </row>
-    <row r="161" s="1" customFormat="1" spans="1:13">
+    <row r="161" spans="1:13" s="1" customFormat="1">
       <c r="A161" s="3"/>
       <c r="D161" s="3"/>
       <c r="G161" s="3"/>
       <c r="J161" s="3"/>
       <c r="M161" s="3"/>
     </row>
-    <row r="162" s="1" customFormat="1" spans="1:13">
+    <row r="162" spans="1:13" s="1" customFormat="1">
       <c r="A162" s="3"/>
       <c r="D162" s="3"/>
       <c r="G162" s="3"/>
       <c r="J162" s="3"/>
       <c r="M162" s="3"/>
     </row>
-    <row r="163" s="1" customFormat="1" spans="1:13">
+    <row r="163" spans="1:13" s="1" customFormat="1">
       <c r="A163" s="3"/>
       <c r="D163" s="3"/>
       <c r="G163" s="3"/>
       <c r="J163" s="3"/>
       <c r="M163" s="3"/>
     </row>
-    <row r="164" s="1" customFormat="1" spans="1:13">
+    <row r="164" spans="1:13" s="1" customFormat="1">
       <c r="A164" s="3"/>
       <c r="D164" s="3"/>
       <c r="G164" s="3"/>
       <c r="J164" s="3"/>
       <c r="M164" s="3"/>
     </row>
-    <row r="165" s="1" customFormat="1" spans="1:13">
+    <row r="165" spans="1:13" s="1" customFormat="1">
       <c r="A165" s="3"/>
       <c r="D165" s="3"/>
       <c r="G165" s="3"/>
       <c r="J165" s="3"/>
       <c r="M165" s="3"/>
     </row>
-    <row r="166" s="1" customFormat="1" spans="1:13">
+    <row r="166" spans="1:13" s="1" customFormat="1">
       <c r="A166" s="3"/>
       <c r="D166" s="3"/>
       <c r="G166" s="3"/>
       <c r="J166" s="3"/>
       <c r="M166" s="3"/>
     </row>
-    <row r="167" s="1" customFormat="1" spans="1:13">
+    <row r="167" spans="1:13" s="1" customFormat="1">
       <c r="A167" s="3"/>
       <c r="D167" s="3"/>
       <c r="G167" s="3"/>
       <c r="J167" s="3"/>
       <c r="M167" s="3"/>
     </row>
-    <row r="168" s="1" customFormat="1" spans="1:13">
+    <row r="168" spans="1:13" s="1" customFormat="1">
       <c r="A168" s="3"/>
       <c r="D168" s="3"/>
       <c r="G168" s="3"/>
       <c r="J168" s="3"/>
       <c r="M168" s="3"/>
     </row>
-    <row r="169" s="1" customFormat="1" spans="1:13">
+    <row r="169" spans="1:13" s="1" customFormat="1">
       <c r="A169" s="3"/>
       <c r="D169" s="3"/>
       <c r="G169" s="3"/>
@@ -2986,159 +3190,162 @@
       <c r="M169" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.6428571428571" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11780" tabRatio="723"/>
+    <workbookView windowWidth="28800" windowHeight="11680" tabRatio="723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>响应头：
 Allow:枚举资源所支持的http方法集合
 Etag
@@ -97,6 +103,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>通用头：
 Cache-Control
 Connection
@@ -399,6 +411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>WebSocket是html5推出的协议。
 1建立连接后，既可以由客户端发起请求，也可以由服务器发起请求，客户端和服务器是对等的。
 2是一种持久化的协议，建立连接后就可以一直通讯了
@@ -440,6 +458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>TCP协议是面向连接的，可靠的，基于字节流的运输层协议，是全双工通信模式
 1.客户端发送FIN断开报文时，告诉客户端发送消息完毕，但是客户端还可以接受消息
 2.服务端收到FIN报文，返回ACK报文，告诉客户端它已经知道客户端发送完了消息，但是</t>
@@ -494,6 +518,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">HTTP/1.1 200 OK 
 Content-Type: text/plain 
 </t>
@@ -502,6 +531,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Transfer-Encoding: chunked
@@ -511,6 +541,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -527,6 +558,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Expires: Wed, 21 Oct 2015 07:28:00 GMT\r\n</t>
@@ -535,6 +567,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -565,6 +598,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>If-Modified-Since：日期，用来判断缓存是否可用，
 If-None-Match：Etag值，用来判断缓存是否可用If-Match</t>
     </r>
@@ -679,6 +719,12 @@
   </si>
   <si>
     <t>只有幂等的请求才可以管线化，该技术并普及使用</t>
+  </si>
+  <si>
+    <t>跨域问题有哪些解决方式？</t>
+  </si>
+  <si>
+    <t>CSP中的nonce是什么？</t>
   </si>
   <si>
     <t>js</t>
@@ -776,6 +822,19 @@
     <t>ajax是什么</t>
   </si>
   <si>
+    <t>ajax是一种异步的JavaScript and Xml，是一种客户端的web技术。ajax的核心是使用XMLHttpRequest对象与服务器交互。
+let xhr = new XMLHttpRequest()
+xhr.responseType = ‘json’//
+xhr.onload = () =&gt; {
+ if(xhr.status == 200){
+  //返回成功
+  console.log(response);// responseText
+ }
+}
+xhr.open(method, url, async); //默认异步
+xhr.send();//null,FormData,Blob,ArrayBuffer</t>
+  </si>
+  <si>
     <t>如何创建一个Symbol？</t>
   </si>
   <si>
@@ -833,11 +892,103 @@
     <t>对this关键字的理解</t>
   </si>
   <si>
+    <r>
+      <t>this 就是你 call 一个函数时，传入的 context,换一句话说: this就是执行环境context.分5种情况：
+1.直接调用函数：foo(),this是全局对象，window/global
+2.方法调用：this是调用这个方法的对象
+3.构造函数调用：new Foo(),this指向构造函数创建的对象
+4.call/apply调用：this指向第一个参数.如果第一个参数是undefined或者null,在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非严格模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下this是window对象，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严格模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this则是undefined/null
+5.箭头函数的this是在定义时就确定了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>use strict'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    let fun = () =&gt; {
+        console.log(this);  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//箭头函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+    fun.apply(null);//window
+    fun.call(undefined);//window
+    let fun1 = function() {
+        console.log(this);
+    }
+    fun1.apply(null); //null
+    fun1.call(undefined); //undefined</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> let关键字有什么优点？</t>
   </si>
   <si>
     <t>使用new和Object.create创建的对象有什么区别</t>
+  </si>
+  <si>
+    <t>1.Object.cerate() 必须接收一个对象参数，创建的新对象的原型指向接收的参数对象，new Object() 创建的新对象的原型指向的是 Object.prototype. 
+2.可以通过Object.create(null) 创建一个干净的对象，也就是没有原型，而 new Object() 创建的对象是 Object的实例，原型永远指向Object.prototype.</t>
   </si>
   <si>
     <t>const关键字有什么特点</t>
@@ -918,6 +1069,224 @@
       </rPr>
       <t>标签和事件监听函数</t>
     </r>
+  </si>
+  <si>
+    <t>js是一门什么样的语言</t>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解释型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（需要解释器才可以运行，比如Java/python/c#，相对的是编译型语言，比如C/C++）的、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面向对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头等函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（在程序设计语言中，函数被当作头等公民。这意味着，函数可以作为别的函数的参数、函数的返回值，赋值给变量或存储在数据结构中。）语言，其最广为人知的应用是作为网页的脚本语言，但同时它也在很多非浏览器环境下使用。JS是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于原型和多范式的脚本语言，支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面向对象、命令式和函数式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的编程风格。
+JavaScript 既是一个 面向过程的语言 又是一个 面向对象的语言。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">主要的编程范式有三种：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令式编程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：主要思想是关注计算机执行的步骤，即一步一步告诉计算机先做什么再做什么。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明式编程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：以数据结构的形式来表达程序执行的逻辑。它的主要思想是告诉计算机应该做什么，但不指定具体要怎么做
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数式编程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：函数式编程最重要的特点是“函数第一位”，即函数可以出现在任何地方，比如你可以把函数作为参数传递给另一个函数，不仅如此你还可以将函数作为返回值。</t>
+    </r>
+  </si>
+  <si>
+    <t>属性描述符</t>
+  </si>
+  <si>
+    <t>configurable</t>
+  </si>
+  <si>
+    <t>enumerable</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>writable</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>数据描述符</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>存取描述符</t>
+  </si>
+  <si>
+    <t>Object.defineProperty(obj,prop,descriptor)</t>
+  </si>
+  <si>
+    <t>使用该方法定义属性时，拥有bool值类型的字段默认都是false；如果是使用{}定义的对象，属性描述字段默认是true</t>
   </si>
   <si>
     <t>vue</t>
@@ -975,19 +1344,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1002,10 +1364,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="圆体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1029,13 +1405,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1043,18 +1412,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,14 +1437,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1083,7 +1444,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1100,17 +1461,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1123,46 +1527,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1201,7 +1583,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1219,25 +1600,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,13 +1654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,55 +1684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,13 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,31 +1750,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1413,17 +1794,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,44 +1885,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1497,16 +1904,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,183 +1925,198 @@
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2023,8 +2445,8 @@
   <sheetPr/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2037,717 +2459,721 @@
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2772,12 +3198,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2822,16 +3248,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="46.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="85.25" customWidth="1"/>
+    <col min="3" max="3" width="52.375" customWidth="1"/>
     <col min="4" max="4" width="46.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="57.375" customWidth="1"/>
@@ -2841,167 +3268,177 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="159" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="36" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="49" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="106" spans="1:13">
+    <row r="5" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:13">
+    <row r="6" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:13">
+    <row r="7" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" s="4"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
+      <c r="A10" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J10" s="4"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>87</v>
+      <c r="A11" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>89</v>
+      <c r="A12" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="4"/>
       <c r="G12" s="4"/>
@@ -3009,8 +3446,8 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>90</v>
+      <c r="A13" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="4"/>
       <c r="G13" s="4"/>
@@ -3018,47 +3455,117 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>92</v>
+      <c r="A14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="4"/>
       <c r="G14" s="4"/>
       <c r="J14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:13">
-      <c r="A15" s="4"/>
+    <row r="15" s="2" customFormat="1" ht="176.75" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="G15" s="4"/>
       <c r="J15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:13">
-      <c r="A17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="G17" s="4"/>
+    <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
+      <c r="A16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="K16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:13">
-      <c r="A18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="G18" s="4"/>
+    <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:13">
-      <c r="A19" s="4"/>
+    <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="G19" s="4"/>
       <c r="J19" s="4"/>
@@ -4115,6 +4622,9 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:A18"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -4133,7 +4643,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4174,22 +4684,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4252,17 +4762,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -521,6 +521,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">HTTP/1.1 200 OK 
@@ -893,6 +894,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>this 就是你 call 一个函数时，传入的 context,换一句话说: this就是执行环境context.分5种情况：
 1.直接调用函数：foo(),this是全局对象，window/global
 2.方法调用：this是调用这个方法的对象
@@ -939,6 +946,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>use strict'</t>
     </r>
     <r>
@@ -1015,16 +1028,67 @@
     <t>作用域链是什么？</t>
   </si>
   <si>
+    <r>
+      <t>作用域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">就是代码运行时变量与函数的可访问范围，作用域控制着变量与函数的可见性和生命周期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用域链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：声明一个函数时，局部作用域一级一级向上包起来，就是作用域链，作用域链的链尾是全局作用域，即window对象。
+执行函数时，先从函数内部开始查找局部变量，如果没有找到，那么向创建这个函数的作用域查找，沿着作用域链依次向上查找，如果找到了，返回值，停止查找；如果沿着作用域链查找到全局作用域都没有找到的话就返回undefined。</t>
+    </r>
+  </si>
+  <si>
     <t>for...of有什么优点？可以用来遍历哪些类型的对象</t>
   </si>
   <si>
-    <t>闭包是什么</t>
+    <t>闭包是什么？闭包如何产生的？</t>
+  </si>
+  <si>
+    <r>
+      <t>1函数里面定义了内部函数，2并且内部函数引用了外部函数的变量（函数），3当执行外部函数时，就产生了闭包。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭包是包含被引用变量（函数）的对象，存在与内部函数中。</t>
+    </r>
   </si>
   <si>
     <t>结构赋值有什么特点？</t>
   </si>
   <si>
     <t>闭包的作用及应用场景？</t>
+  </si>
+  <si>
+    <t>bilibili.com/video/av82709457?from=search&amp;seid=5159180286124072366</t>
   </si>
   <si>
     <t>闭包有什么缺点？</t>
@@ -1111,7 +1175,7 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>（需要解释器才可以运行，比如Java/python/c#，相对的是编译型语言，比如C/C++）的、</t>
+      <t>的、</t>
     </r>
     <r>
       <rPr>
@@ -1147,7 +1211,7 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>（在程序设计语言中，函数被当作头等公民。这意味着，函数可以作为别的函数的参数、函数的返回值，赋值给变量或存储在数据结构中。）语言，其最广为人知的应用是作为网页的脚本语言，但同时它也在很多非浏览器环境下使用。JS是一种</t>
+      <t>语言，其最广为人知的应用是作为网页的脚本语言，但同时它也在很多非浏览器环境下使用。JS是一种</t>
     </r>
     <r>
       <rPr>
@@ -1174,7 +1238,7 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>面向对象、命令式和函数式</t>
+      <t>命令式和函数式</t>
     </r>
     <r>
       <rPr>
@@ -1246,7 +1310,9 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>：函数式编程最重要的特点是“函数第一位”，即函数可以出现在任何地方，比如你可以把函数作为参数传递给另一个函数，不仅如此你还可以将函数作为返回值。</t>
+      <t>：函数式编程最重要的特点是“函数第一位”，即函数可以出现在任何地方，比如你可以把函数作为参数传递给另一个函数，不仅如此你还可以将函数作为返回值。
+解释型（需要解释器才可以运行，比如Java/python/c#，相对的是编译型语言，比如C/C++）
+头等函数（在程序设计语言中，函数被当作头等公民。这意味着，函数可以作为别的函数的参数、函数的返回值，赋值给变量或存储在数据结构中。）</t>
     </r>
   </si>
   <si>
@@ -1287,6 +1353,9 @@
   </si>
   <si>
     <t>使用该方法定义属性时，拥有bool值类型的字段默认都是false；如果是使用{}定义的对象，属性描述字段默认是true</t>
+  </si>
+  <si>
+    <t>事件冒泡和事件捕获</t>
   </si>
   <si>
     <t>vue</t>
@@ -1344,10 +1413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1398,21 +1467,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1427,6 +1504,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1437,9 +1536,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1452,18 +1551,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1483,7 +1574,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,27 +1590,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,17 +1604,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1618,19 +1687,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,37 +1723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,31 +1759,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,25 +1843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,35 +1889,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,6 +1909,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,10 +1939,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1896,9 +1948,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,157 +1971,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2084,6 +2153,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2459,721 +2531,721 @@
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3198,12 +3270,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3250,15 +3322,15 @@
   <sheetPr/>
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="46.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="85.25" customWidth="1"/>
-    <col min="3" max="3" width="52.375" customWidth="1"/>
+    <col min="2" max="2" width="82.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="58.9196428571429" customWidth="1"/>
     <col min="4" max="4" width="46.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="57.375" customWidth="1"/>
@@ -3362,7 +3434,7 @@
       <c r="B6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="4"/>
@@ -3376,7 +3448,7 @@
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="4"/>
@@ -3414,31 +3486,40 @@
       <c r="J9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:13">
+    <row r="10" s="2" customFormat="1" ht="124" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:13">
+    <row r="11" s="2" customFormat="1" ht="53" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="4"/>
       <c r="G12" s="4"/>
@@ -3447,7 +3528,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4"/>
       <c r="G13" s="4"/>
@@ -3456,25 +3537,25 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="4"/>
       <c r="G14" s="4"/>
       <c r="J14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="176.75" spans="1:13">
+    <row r="15" s="2" customFormat="1" ht="229.75" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D15" s="4"/>
       <c r="G15" s="4"/>
@@ -3482,89 +3563,89 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
-      <c r="A16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="A16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="12"/>
       <c r="K16" s="4"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>111</v>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="J17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>110</v>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="J18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D19" s="4"/>
       <c r="G19" s="4"/>
@@ -3572,7 +3653,9 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="G20" s="4"/>
       <c r="J20" s="4"/>
@@ -4643,7 +4726,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4684,22 +4767,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4737,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4762,17 +4845,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11680" tabRatio="723" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11620" tabRatio="723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="算法" sheetId="10" r:id="rId10"/>
     <sheet name="angular" sheetId="11" r:id="rId11"/>
     <sheet name="rxjs" sheetId="12" r:id="rId12"/>
+    <sheet name="综合" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -731,18 +732,6 @@
     <t>js</t>
   </si>
   <si>
-    <t>es5</t>
-  </si>
-  <si>
-    <t>es6</t>
-  </si>
-  <si>
-    <t>es7</t>
-  </si>
-  <si>
-    <t>es8</t>
-  </si>
-  <si>
     <t>创建一个对象的过程</t>
   </si>
   <si>
@@ -754,40 +743,11 @@
     4.执行构造函数，并返回创建的对象。</t>
   </si>
   <si>
-    <t>ES5做了哪些改变</t>
-  </si>
-  <si>
-    <t>ES6新增了哪些功能</t>
-  </si>
-  <si>
-    <t>1. 增加let，const关键字定义变量
-2.增加class关键字定义类
-3.增加module概念，通过export导出，import导出
-4.增加箭头函数语法（this）
-5.模板语法
-6.增加for...of循环语法
-6.解构赋值
-7.增加第七种数据类型Symbol
-8.增加内置类Promise</t>
-  </si>
-  <si>
-    <t>ES7新增了哪些功能</t>
-  </si>
-  <si>
-    <t>ES8新增了哪些功能</t>
-  </si>
-  <si>
     <t>__proto__和prototype它们之间有什么联系？</t>
   </si>
   <si>
     <t>每个对象都内置一个私有属性__proto__，每个构造函数都有个prototype属性，
 它们都指向一个对象，即原型对象。</t>
-  </si>
-  <si>
-    <t>严格模式和非严格模式有哪些不一样的地方</t>
-  </si>
-  <si>
-    <t>Promise的特性</t>
   </si>
   <si>
     <t>原型链是什么</t>
@@ -812,12 +772,6 @@
       <t>象有一个私有属性__proto__指向构造这个对象的原型对象，而原型对象也是对象，
 也有一个__proto__属性指向构造它的原型对象。以此类推，直到__proto__指向Object的原型对象，而Object的原型对象的__proto__指向null才结束。所有的__proto__形成的链条就叫做原型链</t>
     </r>
-  </si>
-  <si>
-    <t>Array新增了哪些方法？有什么区别？</t>
-  </si>
-  <si>
-    <t>Promise的原理</t>
   </si>
   <si>
     <t>ajax是什么</t>
@@ -836,60 +790,6 @@
 xhr.send();//null,FormData,Blob,ArrayBuffer</t>
   </si>
   <si>
-    <t>如何创建一个Symbol？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="圆体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Symbol是Js的第七种数据类型。
-Symbol函数前</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="圆体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不能使用new运算符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="圆体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，否则会报错。这是因为生成的 Symbol 是一个原始类型的值，不是对象。对象才是使用new生成。
-Symbol类型的值可以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="圆体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="圆体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转为字符串，可以（隐式）转为boolean类型。但是不可以转为数字</t>
-    </r>
-  </si>
-  <si>
     <t>对this关键字的理解</t>
   </si>
   <si>
@@ -993,10 +893,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">-let关键字有什么优点？</t>
-  </si>
-  <si>
     <t>使用new和Object.create创建的对象有什么区别</t>
   </si>
   <si>
@@ -1004,31 +900,28 @@
 2.可以通过Object.create(null) 创建一个干净的对象，也就是没有原型，而 new Object() 创建的对象是 Object的实例，原型永远指向Object.prototype.</t>
   </si>
   <si>
-    <t>const关键字有什么特点</t>
-  </si>
-  <si>
     <t>JS中基本数字类型有哪些？</t>
   </si>
   <si>
     <t>一共6种：Number String  Symbol Boolean null undefined</t>
   </si>
   <si>
-    <t>export和import的用法，有什么要注意的地方</t>
-  </si>
-  <si>
     <t>typeof6种基本类型的值分别是什么</t>
   </si>
   <si>
     <t>Number/String/Symbol/Boolean的值是'function' null-&gt;Object undefined-&gt;undefined</t>
   </si>
   <si>
-    <t>箭头函数中的this有什么特点</t>
-  </si>
-  <si>
     <t>作用域链是什么？</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>作用域</t>
     </r>
     <r>
@@ -1062,14 +955,12 @@
     </r>
   </si>
   <si>
-    <t>for...of有什么优点？可以用来遍历哪些类型的对象</t>
-  </si>
-  <si>
     <t>闭包是什么？闭包如何产生的？</t>
   </si>
   <si>
     <r>
-      <t>1函数里面定义了内部函数，2并且内部函数引用了外部函数的变量（函数），3当执行外部函数时，就产生了闭包。</t>
+      <t xml:space="preserve">1函数里面定义了内部函数，2并且内部函数引用了外部函数的变量（函数），3当执行外部函数时，就产生了闭包。
+</t>
     </r>
     <r>
       <rPr>
@@ -1078,20 +969,95 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>闭包是包含被引用变量（函数）的对象，存在与内部函数中。</t>
-    </r>
-  </si>
-  <si>
-    <t>结构赋值有什么特点？</t>
+      <t>闭包是包含被引用变量（函数）的对象，存在于内部函数中。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有内部函数赋值给外部函数之外，这个闭包才能保留。否则内部函数成为一个垃圾对象时，即没有变量指向这个内部函数，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭包就销毁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了</t>
+    </r>
   </si>
   <si>
     <t>闭包的作用及应用场景？</t>
   </si>
   <si>
-    <t>bilibili.com/video/av82709457?from=search&amp;seid=5159180286124072366</t>
+    <r>
+      <t>作用：
+1.使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数内部的变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在函数执行完之后，仍然存活在内存中
+2.在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数外部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以操作函数内部的数据
+应用场景：
+1.利用闭包封装定义js模块，比如jquery插件。
+2.防抖函数</t>
+    </r>
+  </si>
+  <si>
+    <t>什么是模块？
+1.具有特定功能的js文件
+2.将所有的变量和函数封装在内部
+3.对外暴露一个包含n个方法的对象（函数）
+4.模块的使用者只需通过模块暴露的对象调用方法</t>
   </si>
   <si>
     <t>闭包有什么缺点？</t>
+  </si>
+  <si>
+    <t>闭包一直存在内存中，容易造成内存泄露。</t>
   </si>
   <si>
     <t>为什么内联的脚本和样式不安全</t>
@@ -1139,6 +1105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>JavaScript是一种</t>
     </r>
     <r>
@@ -1253,6 +1225,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">主要的编程范式有三种：
 </t>
     </r>
@@ -1358,6 +1336,281 @@
     <t>事件冒泡和事件捕获</t>
   </si>
   <si>
+    <t>防抖函数？</t>
+  </si>
+  <si>
+    <r>
+      <t>debounce，一个频繁触发的函数，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定时间内，只让最后一次生效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+使用场景：频繁操作，但是只需要最后的结果。比如频繁点赞和取消点赞，输入框电话号码验证
+实现原理：闭包，定时器，闭包对象是定时器</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">function debounce(fn, wait) {
+  var timer = null;
+  return function () {
+      var context = this
+      var args = arguments
+      if (timer) {
+          clearTimeout(timer);
+          timer = null;
+      }
+      timer = setTimeout(function () {
+          fn.apply(context, args)
+      }, wait)
+  }
+}
+var fn = function () {
+  console.log('boom')
+}
+// 第一次在1500ms后触发，之后每1000ms触发一次
+setInterval(debounce(fn,500),1000) 
+// 不会触发一次
+setInterval(debounce(fn,2000),1000) </t>
+  </si>
+  <si>
+    <t>节流函数？</t>
+  </si>
+  <si>
+    <r>
+      <t>throttle，一个频繁触发的函数，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一定时间间隔内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，函数只执行一次
+场景：输入框模糊查询，窗口resize，页面滚动scroll事件
+实现原理：闭包，上一次执行的时间，闭包对象是上一次执行的时间</t>
+    </r>
+  </si>
+  <si>
+    <t>function throttle(fn, gapTime) {
+  let _lastTime = null;
+  return function () {
+    let _nowTime = + new Date()
+    if (_nowTime - _lastTime &gt; gapTime || !_lastTime) {
+      fn();
+      _lastTime = _nowTime
+    }
+  }
+}
+let fn = ()=&gt;{
+  console.log('boom')
+}</t>
+  </si>
+  <si>
+    <t>函数柯里化？</t>
+  </si>
+  <si>
+    <t>es5</t>
+  </si>
+  <si>
+    <t>ES5做了哪些改变</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.增加严格模式，使用方法：1全局使用：在脚本第一行加上‘use strict’ 2.在函数内部使用，函数第一行加上‘use strict’
+2.数组增加一些方法
+</t>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000014100810?utm_source=index-hottest</t>
+  </si>
+  <si>
+    <t>严格模式和非严格模式有哪些不一样的地方</t>
+  </si>
+  <si>
+    <t>1）不使用var声明变量严格模式中将不通过，在循环中如果没有声明变量在非严格模式中很危险，i 会不小心溢出成为全局变量，但在严格模式中会报错，严格模式中变量必须显示声明(var/let/const)
+（2）JS中作用域有两种，全局作用域和函数作用域。严格模式带来了第三种作用域：eval作用域，则任何使用'eval'的操作都会被禁止,(eval() 函数可计算某个字符串，并执行其中的的 JavaScript 代码,不常用容易报错)，在严格模式下，arguments和eval是关键字，不能被修改，不能做变量处理
+（3）with()被禁用:with 语句用于设置代码在特定对象中的作用域。with 语句是运行缓慢的代码块，尤其是在已设置了属性值时。大多数情况下，如果可能，最好避免使用它。
+（4）caller/callee 被禁用
+（5）对禁止扩展的对象添加新属性会报错：Object.preventExtensions(obj)；然后对obj增加属性则会报错
+（6）删除系统内置的属性会报错
+（7）delete使用var声明的变量或挂在window上的变量报错
+（8）delete不可删除属性(isSealed或isFrozen)的对象时报错(Object.isSealed() 方法判断一个对象是否被密封。Object.isFrozen()方法判断一个对象是否被冻结。)
+（9）对一个对象的只读属性进行赋值将报错（Object.defineProperty(obj, 'a', {value: 1, writable: false})然后对obj属性修改则会报错）
+（10）对象有重名的属性将报错
+（11）函数有重名的参数将报错，在严格模式下，函数的形参也不可以同名
+（12）八进制表示法被禁用
+（13）arguments严格定义为参数，不再与形参绑定
+（14）一般函数声明都在最顶层，ES5前的JS宽松，你可以写在if或for内（强烈鄙视这种写法）。当然Firefox的解析方式与其他浏览器不同，而在严格模式中这些写法将直接报错
+（15）ES6里新增的关键字不能当做变量标示符使用，如implements, interface, let, package, private, protected, public, static, yield
+（16）call/apply的第一个参数直接传入不包装为对象
+（17）call/apply/bind的第一个参数为null/undefined时，this为null/undefined
+作者：田野的海螺
+链接：https://www.jianshu.com/p/39e295f4526d
+来源：简书
+著作权归作者所有。商业转载请联系作者获得授权，非商业转载请注明出处。</t>
+  </si>
+  <si>
+    <t>ES5 Array新增了哪些方法？有什么区别？</t>
+  </si>
+  <si>
+    <t>a.索引方法：
+indexOf()：从数组首部开始找
+lastIndexOf ：从数组尾部
+b.迭代方法：
+forEach()：遍历循环
+map()：遍历且返回操作后的数组，需要return
+filter()：只返回符合条件的项组成数组，需要return
+some()：返回bool值，只要有一项满足就为true；空数组时，返回false
+every() ：返回bool值，每一项都满足时才返回true;空数组时，返回true
+c.归并方法：
+reduce()：第一个参数callback，函数接受4个参数分别是（初始值total必选，当前值currentValue必选，索引值currentIndex可选，当前数组arr可选），函数需要返回一个值，这个值会在下一次迭代中作为初始值。
+第二个参数是迭代初始值（initialValue），参数可选，如果缺省，初始值为数组第一项，从数组第一个项开始叠加，缺省参数要比正常传值少一次运算。
+reduceRight</t>
+  </si>
+  <si>
+    <t>es6</t>
+  </si>
+  <si>
+    <t>ES6新增了哪些功能</t>
+  </si>
+  <si>
+    <t>Promise的特性</t>
+  </si>
+  <si>
+    <t>1. 增加let，const关键字定义变量
+2.增加class关键字定义类
+3.增加module概念，通过export导出，import导出
+4.增加箭头函数语法（this）
+5.模板语法
+6.增加for...of循环语法
+6.解构赋值
+7.增加第七种数据类型Symbol
+8.增加内置类Promise
+9.数组增加Array.of()/Array.from();
+10.增加Set/Map数据结构
+11.拓展运算符...</t>
+  </si>
+  <si>
+    <t>Promise的原理</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40566547/article/details/101033299</t>
+  </si>
+  <si>
+    <t>微任务队列/宏任务队列</t>
+  </si>
+  <si>
+    <t>如何创建一个Symbol？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+let关键字有什么优点？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Symbol是Js的第七种数据类型。
+Symbol函数前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能使用new运算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，否则会报错。这是因为生成的 Symbol 是一个原始类型的值，不是对象。对象才是使用new生成。
+Symbol类型的值可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转为字符串，可以（隐式）转为boolean类型。但是不可以转为数字</t>
+    </r>
+  </si>
+  <si>
+    <t>const关键字有什么特点</t>
+  </si>
+  <si>
+    <t>export和import的用法，有什么要注意的地方</t>
+  </si>
+  <si>
+    <t>箭头函数中的this有什么特点</t>
+  </si>
+  <si>
+    <t>for...of有什么优点？可以用来遍历哪些类型的对象</t>
+  </si>
+  <si>
+    <t>结构赋值有什么特点？</t>
+  </si>
+  <si>
+    <t>防抖函数里面的...arg做了哪些动作？</t>
+  </si>
+  <si>
+    <t>es7</t>
+  </si>
+  <si>
+    <t>ES7新增了哪些功能</t>
+  </si>
+  <si>
+    <t>es8</t>
+  </si>
+  <si>
+    <t>ES8新增了哪些功能</t>
+  </si>
+  <si>
     <t>vue</t>
   </si>
   <si>
@@ -1406,6 +1659,12 @@
   </si>
   <si>
     <t>深度优先和广度优先的区别？写个简单的例子</t>
+  </si>
+  <si>
+    <t>从输入url到页面渲染完成，中间发生了什么</t>
+  </si>
+  <si>
+    <t>性能优化？</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1674,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1454,6 +1713,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="圆体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="圆体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="圆体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1467,22 +1743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1496,28 +1757,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1526,17 +1765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,10 +1781,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1565,9 +1795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,9 +1818,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1622,16 +1898,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="圆体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1654,12 +1930,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1675,13 +1957,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,109 +2071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +2095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,31 +2125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,47 +2180,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,6 +2222,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1972,17 +2266,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,152 +2279,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2146,10 +2434,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2158,34 +2458,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2517,8 +2832,8 @@
   <sheetPr/>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2531,721 +2846,721 @@
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3270,12 +3585,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +3621,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
@@ -3317,1397 +3632,1486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="46.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="46.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="82.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="58.9196428571429" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.375" style="7" customWidth="1"/>
     <col min="8" max="8" width="57.375" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="124" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="36" spans="1:13">
+      <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="159" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="J3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="49" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="J4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="J5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="C6" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="36" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="J6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:13">
+      <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="49" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="D8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="124" spans="1:13">
+      <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A5" s="4" t="s">
+      <c r="D10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="88" spans="1:13">
+      <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="D11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A6" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="J12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="D13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="J13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="71" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="229.75" spans="1:13">
+      <c r="A15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
+      <c r="A16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:13">
-      <c r="A9" s="4" t="s">
+      <c r="D16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E16" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="124" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="G16" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="H16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="I16" s="21"/>
+      <c r="K16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="53" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="H17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:13">
-      <c r="A12" s="4" t="s">
+      <c r="C18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
+      <c r="A19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:13">
-      <c r="A13" s="4" t="s">
+      <c r="D19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="J19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:13">
+      <c r="A20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="J20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="370" spans="1:13">
+      <c r="A21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="229.75" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="C21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="J21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="229" spans="1:13">
+      <c r="A22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="J22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:13">
+      <c r="A23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D23" s="16"/>
+      <c r="G23" s="5"/>
+      <c r="J23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:13">
+      <c r="A24" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="D24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="71" spans="1:13">
+      <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="B25" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="D25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="409.5" spans="1:13">
+      <c r="A26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="K16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="B26" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="282" spans="1:13">
+      <c r="A27" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="B27" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="D27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="J27" s="18"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:13">
+      <c r="A28" s="18"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="J28" s="18"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="4:13">
+      <c r="D29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="J29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="1:1">
+      <c r="A30" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:13">
+      <c r="A31" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="D31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="J31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A32" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:13">
-      <c r="A21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:13">
-      <c r="A22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:13">
-      <c r="A24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:13">
-      <c r="A25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:13">
-      <c r="A26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:13">
-      <c r="A27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:13">
-      <c r="A28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:13">
-      <c r="A29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:13">
-      <c r="A30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:13">
-      <c r="A31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:13">
-      <c r="A32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="A33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="J33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:13">
-      <c r="A34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="A34" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="J34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:13">
-      <c r="A35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:13">
-      <c r="A36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="A35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="J35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="88" spans="1:13">
+      <c r="A36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="J36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:13">
-      <c r="A37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="A37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="J37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:13">
-      <c r="A38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="A38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="J38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:13">
-      <c r="A39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="A39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="J39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:13">
-      <c r="A40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="A40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="J40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:13">
-      <c r="A41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="A41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="J41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:13">
-      <c r="A42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:13">
-      <c r="A43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:13">
-      <c r="A44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="A42" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="J42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:13">
+      <c r="A43" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="G43" s="5"/>
+      <c r="J43" s="18"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:13">
+      <c r="A44" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="G44" s="5"/>
+      <c r="J44" s="18"/>
+      <c r="M44" s="18"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:13">
-      <c r="A45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="A45" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="J45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:13">
-      <c r="A46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="A46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="J46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:13">
-      <c r="A47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="A47" s="8"/>
+      <c r="D47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="J47" s="8"/>
+      <c r="M47" s="8"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:13">
-      <c r="A48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="A48" s="8"/>
+      <c r="D48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="J48" s="8"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:13">
-      <c r="A49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="A49" s="8"/>
+      <c r="D49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="J49" s="8"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:13">
-      <c r="A50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="A50" s="8"/>
+      <c r="D50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="J50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:13">
-      <c r="A51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="A51" s="8"/>
+      <c r="D51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="J51" s="8"/>
+      <c r="M51" s="8"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:13">
-      <c r="A52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="M52" s="4"/>
+      <c r="A52" s="8"/>
+      <c r="D52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="J52" s="8"/>
+      <c r="M52" s="8"/>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:13">
-      <c r="A53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="A53" s="8"/>
+      <c r="D53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="J53" s="8"/>
+      <c r="M53" s="8"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:13">
-      <c r="A54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="A54" s="8"/>
+      <c r="D54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="J54" s="8"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:13">
-      <c r="A55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="A55" s="8"/>
+      <c r="D55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="J55" s="8"/>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:13">
-      <c r="A56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="A56" s="8"/>
+      <c r="D56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="J56" s="8"/>
+      <c r="M56" s="8"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:13">
-      <c r="A57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="A57" s="8"/>
+      <c r="D57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="J57" s="8"/>
+      <c r="M57" s="8"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:13">
-      <c r="A58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="A58" s="8"/>
+      <c r="D58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="J58" s="8"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:13">
-      <c r="A59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="A59" s="8"/>
+      <c r="D59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="J59" s="8"/>
+      <c r="M59" s="8"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:13">
-      <c r="A60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="A60" s="8"/>
+      <c r="D60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="J60" s="8"/>
+      <c r="M60" s="8"/>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:13">
-      <c r="A61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="A61" s="8"/>
+      <c r="D61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="J61" s="8"/>
+      <c r="M61" s="8"/>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:13">
-      <c r="A62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="A62" s="8"/>
+      <c r="D62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="J62" s="8"/>
+      <c r="M62" s="8"/>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:13">
-      <c r="A63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="A63" s="8"/>
+      <c r="D63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="J63" s="8"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:13">
-      <c r="A64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="A64" s="8"/>
+      <c r="D64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="J64" s="8"/>
+      <c r="M64" s="8"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:13">
-      <c r="A65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="A65" s="8"/>
+      <c r="D65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="J65" s="8"/>
+      <c r="M65" s="8"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:13">
-      <c r="A66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="A66" s="8"/>
+      <c r="D66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="J66" s="8"/>
+      <c r="M66" s="8"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:13">
-      <c r="A67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="A67" s="8"/>
+      <c r="D67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="J67" s="8"/>
+      <c r="M67" s="8"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:13">
-      <c r="A68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="A68" s="8"/>
+      <c r="D68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="J68" s="8"/>
+      <c r="M68" s="8"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:13">
-      <c r="A69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="A69" s="8"/>
+      <c r="D69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="J69" s="8"/>
+      <c r="M69" s="8"/>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:13">
-      <c r="A70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="A70" s="8"/>
+      <c r="D70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="J70" s="8"/>
+      <c r="M70" s="8"/>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:13">
-      <c r="A71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="A71" s="8"/>
+      <c r="D71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="J71" s="8"/>
+      <c r="M71" s="8"/>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:13">
-      <c r="A72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="A72" s="8"/>
+      <c r="D72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="J72" s="8"/>
+      <c r="M72" s="8"/>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:13">
-      <c r="A73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="A73" s="8"/>
+      <c r="D73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="J73" s="8"/>
+      <c r="M73" s="8"/>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:13">
-      <c r="A74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="A74" s="8"/>
+      <c r="D74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="J74" s="8"/>
+      <c r="M74" s="8"/>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:13">
-      <c r="A75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="A75" s="8"/>
+      <c r="D75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="J75" s="8"/>
+      <c r="M75" s="8"/>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:13">
-      <c r="A76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="A76" s="8"/>
+      <c r="D76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="J76" s="8"/>
+      <c r="M76" s="8"/>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:13">
-      <c r="A77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="A77" s="8"/>
+      <c r="D77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="J77" s="8"/>
+      <c r="M77" s="8"/>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:13">
-      <c r="A78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="M78" s="4"/>
+      <c r="A78" s="8"/>
+      <c r="D78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="J78" s="8"/>
+      <c r="M78" s="8"/>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:13">
-      <c r="A79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="M79" s="4"/>
+      <c r="A79" s="8"/>
+      <c r="D79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="J79" s="8"/>
+      <c r="M79" s="8"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:13">
-      <c r="A80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="A80" s="8"/>
+      <c r="D80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="J80" s="8"/>
+      <c r="M80" s="8"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:13">
-      <c r="A81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="M81" s="4"/>
+      <c r="A81" s="8"/>
+      <c r="D81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="J81" s="8"/>
+      <c r="M81" s="8"/>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:13">
-      <c r="A82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="M82" s="4"/>
+      <c r="A82" s="8"/>
+      <c r="D82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="J82" s="8"/>
+      <c r="M82" s="8"/>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:13">
-      <c r="A83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="A83" s="8"/>
+      <c r="D83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="J83" s="8"/>
+      <c r="M83" s="8"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:13">
-      <c r="A84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="A84" s="8"/>
+      <c r="D84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="J84" s="8"/>
+      <c r="M84" s="8"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:13">
-      <c r="A85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="M85" s="4"/>
+      <c r="A85" s="8"/>
+      <c r="D85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="J85" s="8"/>
+      <c r="M85" s="8"/>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:13">
-      <c r="A86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="A86" s="8"/>
+      <c r="D86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="J86" s="8"/>
+      <c r="M86" s="8"/>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:13">
-      <c r="A87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="M87" s="4"/>
+      <c r="A87" s="8"/>
+      <c r="D87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="J87" s="8"/>
+      <c r="M87" s="8"/>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:13">
-      <c r="A88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="A88" s="8"/>
+      <c r="D88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="J88" s="8"/>
+      <c r="M88" s="8"/>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:13">
-      <c r="A89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="A89" s="8"/>
+      <c r="D89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="J89" s="8"/>
+      <c r="M89" s="8"/>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:13">
-      <c r="A90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="A90" s="8"/>
+      <c r="D90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="J90" s="8"/>
+      <c r="M90" s="8"/>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:13">
-      <c r="A91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="M91" s="4"/>
+      <c r="A91" s="8"/>
+      <c r="D91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="J91" s="8"/>
+      <c r="M91" s="8"/>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:13">
-      <c r="A92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="A92" s="8"/>
+      <c r="D92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="J92" s="8"/>
+      <c r="M92" s="8"/>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:13">
-      <c r="A93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="M93" s="4"/>
+      <c r="A93" s="8"/>
+      <c r="D93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="J93" s="8"/>
+      <c r="M93" s="8"/>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:13">
-      <c r="A94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="M94" s="4"/>
+      <c r="A94" s="8"/>
+      <c r="D94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="J94" s="8"/>
+      <c r="M94" s="8"/>
     </row>
     <row r="95" s="2" customFormat="1" spans="1:13">
-      <c r="A95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="M95" s="4"/>
+      <c r="A95" s="8"/>
+      <c r="D95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="J95" s="8"/>
+      <c r="M95" s="8"/>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:13">
-      <c r="A96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="A96" s="8"/>
+      <c r="D96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="J96" s="8"/>
+      <c r="M96" s="8"/>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:13">
-      <c r="A97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="M97" s="4"/>
+      <c r="A97" s="8"/>
+      <c r="D97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="J97" s="8"/>
+      <c r="M97" s="8"/>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:13">
-      <c r="A98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="M98" s="4"/>
+      <c r="A98" s="8"/>
+      <c r="D98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="J98" s="8"/>
+      <c r="M98" s="8"/>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:13">
-      <c r="A99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="M99" s="4"/>
+      <c r="A99" s="8"/>
+      <c r="D99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="J99" s="8"/>
+      <c r="M99" s="8"/>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:13">
-      <c r="A100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="M100" s="4"/>
+      <c r="A100" s="8"/>
+      <c r="D100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="J100" s="8"/>
+      <c r="M100" s="8"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:13">
-      <c r="A101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="M101" s="4"/>
+      <c r="A101" s="8"/>
+      <c r="D101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="J101" s="8"/>
+      <c r="M101" s="8"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:13">
-      <c r="A102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="M102" s="4"/>
+      <c r="A102" s="8"/>
+      <c r="D102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="J102" s="8"/>
+      <c r="M102" s="8"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:13">
-      <c r="A103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="M103" s="4"/>
+      <c r="A103" s="8"/>
+      <c r="D103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="J103" s="8"/>
+      <c r="M103" s="8"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:13">
-      <c r="A104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="M104" s="4"/>
+      <c r="A104" s="8"/>
+      <c r="D104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="J104" s="8"/>
+      <c r="M104" s="8"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:13">
-      <c r="A105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="M105" s="4"/>
+      <c r="A105" s="8"/>
+      <c r="D105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="J105" s="8"/>
+      <c r="M105" s="8"/>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:13">
-      <c r="A106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="M106" s="4"/>
+      <c r="A106" s="8"/>
+      <c r="D106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="J106" s="8"/>
+      <c r="M106" s="8"/>
     </row>
     <row r="107" s="2" customFormat="1" spans="1:13">
-      <c r="A107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="M107" s="4"/>
+      <c r="A107" s="8"/>
+      <c r="D107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="J107" s="8"/>
+      <c r="M107" s="8"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:13">
-      <c r="A108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="M108" s="4"/>
+      <c r="A108" s="8"/>
+      <c r="D108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="J108" s="8"/>
+      <c r="M108" s="8"/>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:13">
-      <c r="A109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="M109" s="4"/>
+      <c r="A109" s="8"/>
+      <c r="D109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="J109" s="8"/>
+      <c r="M109" s="8"/>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:13">
-      <c r="A110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="M110" s="4"/>
+      <c r="A110" s="8"/>
+      <c r="D110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="J110" s="8"/>
+      <c r="M110" s="8"/>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:13">
-      <c r="A111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="M111" s="4"/>
+      <c r="A111" s="8"/>
+      <c r="D111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="J111" s="8"/>
+      <c r="M111" s="8"/>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:13">
-      <c r="A112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="M112" s="4"/>
+      <c r="A112" s="8"/>
+      <c r="D112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="J112" s="8"/>
+      <c r="M112" s="8"/>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:13">
-      <c r="A113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="M113" s="4"/>
+      <c r="A113" s="8"/>
+      <c r="D113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="J113" s="8"/>
+      <c r="M113" s="8"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:13">
-      <c r="A114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="M114" s="4"/>
+      <c r="A114" s="8"/>
+      <c r="D114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="J114" s="8"/>
+      <c r="M114" s="8"/>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:13">
-      <c r="A115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="M115" s="4"/>
+      <c r="A115" s="8"/>
+      <c r="D115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="J115" s="8"/>
+      <c r="M115" s="8"/>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:13">
-      <c r="A116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="M116" s="4"/>
+      <c r="A116" s="8"/>
+      <c r="D116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="J116" s="8"/>
+      <c r="M116" s="8"/>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:13">
-      <c r="A117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="M117" s="4"/>
+      <c r="A117" s="8"/>
+      <c r="D117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="J117" s="8"/>
+      <c r="M117" s="8"/>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:13">
-      <c r="A118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="M118" s="4"/>
+      <c r="A118" s="8"/>
+      <c r="D118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="J118" s="8"/>
+      <c r="M118" s="8"/>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:13">
-      <c r="A119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="M119" s="4"/>
+      <c r="A119" s="8"/>
+      <c r="D119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="J119" s="8"/>
+      <c r="M119" s="8"/>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:13">
-      <c r="A120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="M120" s="4"/>
+      <c r="A120" s="8"/>
+      <c r="D120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="J120" s="8"/>
+      <c r="M120" s="8"/>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:13">
-      <c r="A121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="M121" s="4"/>
+      <c r="A121" s="8"/>
+      <c r="D121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="J121" s="8"/>
+      <c r="M121" s="8"/>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:13">
-      <c r="A122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="M122" s="4"/>
+      <c r="A122" s="8"/>
+      <c r="D122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="J122" s="8"/>
+      <c r="M122" s="8"/>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:13">
-      <c r="A123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="M123" s="4"/>
+      <c r="A123" s="8"/>
+      <c r="D123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="J123" s="8"/>
+      <c r="M123" s="8"/>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:13">
-      <c r="A124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="M124" s="4"/>
+      <c r="A124" s="8"/>
+      <c r="D124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="J124" s="8"/>
+      <c r="M124" s="8"/>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:13">
-      <c r="A125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="M125" s="4"/>
+      <c r="A125" s="8"/>
+      <c r="D125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="J125" s="8"/>
+      <c r="M125" s="8"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:13">
-      <c r="A126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="M126" s="4"/>
+      <c r="A126" s="8"/>
+      <c r="D126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="J126" s="8"/>
+      <c r="M126" s="8"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:13">
-      <c r="A127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="M127" s="4"/>
+      <c r="A127" s="8"/>
+      <c r="D127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="J127" s="8"/>
+      <c r="M127" s="8"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:13">
-      <c r="A128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="A128" s="8"/>
+      <c r="D128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="J128" s="8"/>
+      <c r="M128" s="8"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:13">
-      <c r="A129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="M129" s="4"/>
+      <c r="A129" s="8"/>
+      <c r="D129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="J129" s="8"/>
+      <c r="M129" s="8"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:13">
-      <c r="A130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="M130" s="4"/>
+      <c r="A130" s="8"/>
+      <c r="D130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="J130" s="8"/>
+      <c r="M130" s="8"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:13">
-      <c r="A131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="M131" s="4"/>
+      <c r="A131" s="8"/>
+      <c r="D131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="J131" s="8"/>
+      <c r="M131" s="8"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:13">
-      <c r="A132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="M132" s="4"/>
+      <c r="A132" s="8"/>
+      <c r="D132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="J132" s="8"/>
+      <c r="M132" s="8"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:13">
-      <c r="A133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="M133" s="4"/>
+      <c r="A133" s="8"/>
+      <c r="D133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="J133" s="8"/>
+      <c r="M133" s="8"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:13">
-      <c r="A134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="M134" s="4"/>
+      <c r="A134" s="8"/>
+      <c r="D134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="J134" s="8"/>
+      <c r="M134" s="8"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:13">
-      <c r="A135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="M135" s="4"/>
+      <c r="A135" s="8"/>
+      <c r="D135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="J135" s="8"/>
+      <c r="M135" s="8"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:13">
-      <c r="A136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="M136" s="4"/>
+      <c r="A136" s="8"/>
+      <c r="D136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="J136" s="8"/>
+      <c r="M136" s="8"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:13">
-      <c r="A137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="M137" s="4"/>
+      <c r="A137" s="8"/>
+      <c r="D137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="J137" s="8"/>
+      <c r="M137" s="8"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:13">
-      <c r="A138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="M138" s="4"/>
+      <c r="A138" s="8"/>
+      <c r="D138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="J138" s="8"/>
+      <c r="M138" s="8"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:13">
-      <c r="A139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="M139" s="4"/>
+      <c r="A139" s="8"/>
+      <c r="D139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="J139" s="8"/>
+      <c r="M139" s="8"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:13">
-      <c r="A140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="M140" s="4"/>
+      <c r="A140" s="8"/>
+      <c r="D140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="J140" s="8"/>
+      <c r="M140" s="8"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:13">
-      <c r="A141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="M141" s="4"/>
+      <c r="A141" s="8"/>
+      <c r="D141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="J141" s="8"/>
+      <c r="M141" s="8"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:13">
-      <c r="A142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="M142" s="4"/>
+      <c r="A142" s="8"/>
+      <c r="D142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="J142" s="8"/>
+      <c r="M142" s="8"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:13">
-      <c r="A143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="M143" s="4"/>
+      <c r="A143" s="8"/>
+      <c r="D143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="J143" s="8"/>
+      <c r="M143" s="8"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:13">
-      <c r="A144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="M144" s="4"/>
+      <c r="A144" s="8"/>
+      <c r="D144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="J144" s="8"/>
+      <c r="M144" s="8"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:13">
-      <c r="A145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="M145" s="4"/>
+      <c r="A145" s="8"/>
+      <c r="D145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="J145" s="8"/>
+      <c r="M145" s="8"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:13">
-      <c r="A146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="M146" s="4"/>
+      <c r="A146" s="8"/>
+      <c r="D146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="J146" s="8"/>
+      <c r="M146" s="8"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:13">
-      <c r="A147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="M147" s="4"/>
+      <c r="A147" s="8"/>
+      <c r="D147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="J147" s="8"/>
+      <c r="M147" s="8"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:13">
-      <c r="A148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="M148" s="4"/>
+      <c r="A148" s="8"/>
+      <c r="D148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="J148" s="8"/>
+      <c r="M148" s="8"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:13">
-      <c r="A149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="M149" s="4"/>
+      <c r="A149" s="8"/>
+      <c r="D149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="J149" s="8"/>
+      <c r="M149" s="8"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:13">
-      <c r="A150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="M150" s="4"/>
+      <c r="A150" s="8"/>
+      <c r="D150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="J150" s="8"/>
+      <c r="M150" s="8"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:13">
-      <c r="A151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="M151" s="4"/>
+      <c r="A151" s="8"/>
+      <c r="D151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="J151" s="8"/>
+      <c r="M151" s="8"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:13">
-      <c r="A152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="M152" s="4"/>
+      <c r="A152" s="8"/>
+      <c r="D152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="J152" s="8"/>
+      <c r="M152" s="8"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:13">
-      <c r="A153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="M153" s="4"/>
+      <c r="A153" s="8"/>
+      <c r="D153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="J153" s="8"/>
+      <c r="M153" s="8"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:13">
-      <c r="A154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="M154" s="4"/>
+      <c r="A154" s="8"/>
+      <c r="D154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="J154" s="8"/>
+      <c r="M154" s="8"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:13">
-      <c r="A155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="M155" s="4"/>
+      <c r="A155" s="8"/>
+      <c r="D155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="J155" s="8"/>
+      <c r="M155" s="8"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:13">
-      <c r="A156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="M156" s="4"/>
+      <c r="A156" s="8"/>
+      <c r="D156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="J156" s="8"/>
+      <c r="M156" s="8"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:13">
-      <c r="A157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="M157" s="4"/>
+      <c r="A157" s="8"/>
+      <c r="D157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="J157" s="8"/>
+      <c r="M157" s="8"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:13">
-      <c r="A158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="M158" s="4"/>
+      <c r="A158" s="8"/>
+      <c r="D158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="J158" s="8"/>
+      <c r="M158" s="8"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:13">
-      <c r="A159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="M159" s="4"/>
+      <c r="A159" s="8"/>
+      <c r="D159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="J159" s="8"/>
+      <c r="M159" s="8"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:13">
-      <c r="A160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="M160" s="4"/>
+      <c r="A160" s="8"/>
+      <c r="D160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="J160" s="8"/>
+      <c r="M160" s="8"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:13">
-      <c r="A161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="M161" s="4"/>
+      <c r="A161" s="8"/>
+      <c r="D161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="J161" s="8"/>
+      <c r="M161" s="8"/>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:13">
-      <c r="A162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="M162" s="4"/>
+      <c r="A162" s="8"/>
+      <c r="D162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="J162" s="8"/>
+      <c r="M162" s="8"/>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:13">
-      <c r="A163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="M163" s="4"/>
+      <c r="A163" s="8"/>
+      <c r="D163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="J163" s="8"/>
+      <c r="M163" s="8"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:13">
-      <c r="A164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="M164" s="4"/>
+      <c r="A164" s="8"/>
+      <c r="D164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="J164" s="8"/>
+      <c r="M164" s="8"/>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:13">
-      <c r="A165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="M165" s="4"/>
+      <c r="A165" s="8"/>
+      <c r="D165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="J165" s="8"/>
+      <c r="M165" s="8"/>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:13">
-      <c r="A166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="M166" s="4"/>
+      <c r="A166" s="8"/>
+      <c r="D166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="J166" s="8"/>
+      <c r="M166" s="8"/>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:13">
-      <c r="A167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="M167" s="4"/>
+      <c r="A167" s="8"/>
+      <c r="D167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="J167" s="8"/>
+      <c r="M167" s="8"/>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:13">
-      <c r="A168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="M168" s="4"/>
+      <c r="A168" s="8"/>
+      <c r="D168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="J168" s="8"/>
+      <c r="M168" s="8"/>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:13">
-      <c r="A169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="M169" s="4"/>
+      <c r="A169" s="8"/>
+      <c r="D169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="J169" s="8"/>
+      <c r="M169" s="8"/>
+    </row>
+    <row r="170" s="2" customFormat="1" spans="1:13">
+      <c r="A170" s="8"/>
+      <c r="D170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="J170" s="8"/>
+      <c r="M170" s="8"/>
+    </row>
+    <row r="171" s="2" customFormat="1" spans="1:13">
+      <c r="A171" s="8"/>
+      <c r="D171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="J171" s="8"/>
+      <c r="M171" s="8"/>
+    </row>
+    <row r="172" s="2" customFormat="1" spans="1:13">
+      <c r="A172" s="8"/>
+      <c r="D172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="J172" s="8"/>
+      <c r="M172" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A16:A18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" display="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest" tooltip="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest"/>
+    <hyperlink ref="B33" r:id="rId2" display="https://blog.csdn.net/qq_40566547/article/details/101033299" tooltip="https://blog.csdn.net/qq_40566547/article/details/101033299"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -4719,14 +5123,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4767,22 +5171,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4845,17 +5249,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620" tabRatio="723" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11680" tabRatio="723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -959,6 +959,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1函数里面定义了内部函数，2并且内部函数引用了外部函数的变量（函数），3当执行外部函数时，就产生了闭包。
 </t>
     </r>
@@ -1002,6 +1008,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>作用：
 1.使</t>
     </r>
@@ -1340,6 +1352,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>debounce，一个频繁触发的函数，在</t>
     </r>
     <r>
@@ -1391,6 +1409,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>throttle，一个频繁触发的函数，在</t>
     </r>
     <r>
@@ -1497,11 +1521,8 @@
     <t>ES6新增了哪些功能</t>
   </si>
   <si>
-    <t>Promise的特性</t>
-  </si>
-  <si>
     <t>1. 增加let，const关键字定义变量
-2.增加class关键字定义类
+2.增加class关键字定义类,增加关键字static/super/constructor/new.target
 3.增加module概念，通过export导出，import导出
 4.增加箭头函数语法（this）
 5.模板语法
@@ -1514,20 +1535,25 @@
 11.拓展运算符...</t>
   </si>
   <si>
+    <t>Promise的特性</t>
+  </si>
+  <si>
+    <t>以同步都表现形式实现异步操作。</t>
+  </si>
+  <si>
     <t>Promise的原理</t>
   </si>
   <si>
-    <t>https://blog.csdn.net/qq_40566547/article/details/101033299</t>
+    <t>promise是一种规范，有promise/A，promise/B，promise/D，promise/A+，ES6实现的是promise/A+规范。
+promise对象有三种状态，pending/fulfilled/rejected, 
+then方法实现了promise的链式调用，需要传人两个参数，分别处理promise的fulfilled和rejected状态时的任务，并且返回新的promise对象
+有race/all/reject/resolve等静态方法，有then/catch/finally三个原型方法。</t>
   </si>
   <si>
     <t>微任务队列/宏任务队列</t>
   </si>
   <si>
     <t>如何创建一个Symbol？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-let关键字有什么优点？</t>
   </si>
   <si>
     <r>
@@ -1581,12 +1607,79 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">+let关键字声明的变量和var有什么不一样？</t>
+  </si>
+  <si>
+    <t>作用域：let声明的变量的作用域是块级的，var声明的变量作用域是全局或者整个函数
+使用let可以创建</t>
+  </si>
+  <si>
+    <t>var x = 'global';
+let y = 'global';
+console.log(this.x); // "global"
+console.log(this.y); // undefined</t>
+  </si>
+  <si>
+    <t>初始化：let声明的变量在执行时才初始化，var声明的变量会变量提升</t>
+  </si>
+  <si>
+    <t>function do_something() {
+  console.log(bar); // undefined
+  console.log(foo); // ReferenceError
+  var bar = 1;
+  let foo = 2;//“暂存死区”
+}
+// prints out 'undefined'
+console.log(typeof undeclaredVariable);
+// results in a 'ReferenceError'
+console.log(typeof i);
+let i = 10;</t>
+  </si>
+  <si>
+    <t>局部变量：
+在处理构造函数的时候，可以通过let声明而不是闭包来创建一个或多个私有成员。
+使用var创建和闭包具有相同隐私模式的局部变量</t>
+  </si>
+  <si>
+    <t>var a = 1;
+var b = 2;
+if (a === 1) {
+  var a = 11; // the scope is global
+  let b = 22; // the scope is inside the if-block
+  console.log(a);  // 11
+  console.log(b);  // 22
+} 
+console.log(a); // 11
+console.log(b); // 2</t>
+  </si>
+  <si>
+    <t>重复声明：let不可以重复声明相同的变量，var可以重复声明相同的变量</t>
+  </si>
+  <si>
     <t>const关键字有什么特点</t>
   </si>
   <si>
+    <t>常量是块级作用域，很像使用 let 语句定义的变量。常量的值不能通过重新赋值来改变，并且不能重新声明。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const a = 1;
+a = 8; //error
+const b = {};
+b.c = 3 ;// ok
+const c = [];
+c.push(1);// ok </t>
+  </si>
+  <si>
     <t>export和import的用法，有什么要注意的地方</t>
   </si>
   <si>
+    <t>静态的import：用于导入由另外一个模块导出的绑定，导入的模块默认运行在严格模式</t>
+  </si>
+  <si>
+    <t>使用require和import有什么区别？</t>
+  </si>
+  <si>
     <t>箭头函数中的this有什么特点</t>
   </si>
   <si>
@@ -1653,6 +1746,9 @@
   </si>
   <si>
     <t>webpack的打包过程</t>
+  </si>
+  <si>
+    <t>tree shaking</t>
   </si>
   <si>
     <t>常见的算法有哪些？时间复杂度及空间复杂度分别是？</t>
@@ -1674,8 +1770,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1743,6 +1839,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1757,18 +1860,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1782,7 +1907,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1795,8 +1927,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1809,37 +1950,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1868,21 +1979,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1930,7 +2026,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1957,19 +2053,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +2107,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,19 +2137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,43 +2161,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,31 +2215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,31 +2227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,8 +2270,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2210,17 +2339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2236,41 +2354,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2279,152 +2369,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2438,9 +2528,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -2458,35 +2545,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2846,721 +2930,721 @@
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3585,12 +3669,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3648,12 +3732,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3665,1444 +3749,1488 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="46.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="46.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="82.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="58.9196428571429" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="48.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="48.375" style="6" customWidth="1"/>
     <col min="8" max="8" width="57.375" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="124" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="36" spans="1:13">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="J3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="49" spans="1:13">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="J4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="J5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="J6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="71" spans="1:13">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="J7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:13">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="J9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="124" spans="1:13">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="J10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="88" spans="1:13">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="106" spans="1:13">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="J12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="D12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="J13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="D13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="D14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="J14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="229.75" spans="1:13">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="D15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="J15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="K16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="I16" s="19"/>
+      <c r="K16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="D19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="J19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:13">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="J20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="D20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="J20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="370" spans="1:13">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="J21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="D21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="J21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="229" spans="1:13">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="J22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="J22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="G23" s="5"/>
-      <c r="J23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:13">
-      <c r="A24" s="17" t="s">
+      <c r="D23" s="14"/>
+      <c r="G23" s="3"/>
+      <c r="J23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:1">
+      <c r="A24" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" s="4" customFormat="1" ht="71" spans="1:13">
-      <c r="A25" s="18" t="s">
+    </row>
+    <row r="25" s="4" customFormat="1" ht="71" spans="1:7">
+      <c r="A25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="J25" s="18"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A26" s="18" t="s">
+      <c r="D25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="409.5" spans="1:7">
+      <c r="A26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="J26" s="18"/>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" s="4" customFormat="1" ht="282" spans="1:13">
-      <c r="A27" s="18" t="s">
+      <c r="D26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="282" spans="1:7">
+      <c r="A27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="J27" s="18"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:13">
-      <c r="A28" s="18"/>
-      <c r="D28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="J28" s="18"/>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="4:13">
-      <c r="D29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="J29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" s="5" customFormat="1" spans="1:1">
-      <c r="A30" s="20" t="s">
+      <c r="D27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="4:7">
+      <c r="D28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="4:7">
+      <c r="D29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:1">
+      <c r="A30" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:13">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="J31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="D31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="J31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="J32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="J32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A33" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="J33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="J33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:13">
-      <c r="A34" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="J34" s="8"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:13">
-      <c r="A35" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="J35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="88" spans="1:13">
-      <c r="A36" s="8" t="s">
+      <c r="D34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="J34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="88" spans="1:13">
+      <c r="A35" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="J36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:13">
-      <c r="A37" s="8" t="s">
+      <c r="D35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="J35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="J37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:13">
-      <c r="A38" s="8" t="s">
+      <c r="B36" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="J38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:13">
-      <c r="A39" s="8" t="s">
+      <c r="C36" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="J39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:13">
-      <c r="A40" s="8" t="s">
+      <c r="D36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="J36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A37" s="7"/>
+      <c r="B37" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="J40" s="8"/>
-      <c r="M40" s="8"/>
+      <c r="C37" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="J37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="176" spans="1:13">
+      <c r="A38" s="7"/>
+      <c r="B38" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="J38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A39" s="7"/>
+      <c r="B39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="J39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="J40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:13">
-      <c r="A41" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="J41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="A41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="J41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:13">
-      <c r="A42" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="J42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:13">
-      <c r="A43" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="J43" s="18"/>
-      <c r="M43" s="18"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:13">
-      <c r="A44" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="J44" s="18"/>
-      <c r="M44" s="18"/>
+      <c r="A42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="J42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:13">
+      <c r="A43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="J43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:13">
+      <c r="A44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:13">
-      <c r="A45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="J45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="A45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:13">
-      <c r="A46" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="J46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:13">
-      <c r="A47" s="8"/>
-      <c r="D47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="J47" s="8"/>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:13">
-      <c r="A48" s="8"/>
-      <c r="D48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="J48" s="8"/>
-      <c r="M48" s="8"/>
+      <c r="A46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="J46" s="7"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:13">
-      <c r="A49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="J49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="A49" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="J49" s="7"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:13">
-      <c r="A50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="J50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="A50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="J50" s="7"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:13">
-      <c r="A51" s="8"/>
-      <c r="D51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="J51" s="8"/>
-      <c r="M51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="D51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="J51" s="7"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:13">
-      <c r="A52" s="8"/>
-      <c r="D52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="J52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="D52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="J52" s="7"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:13">
-      <c r="A53" s="8"/>
-      <c r="D53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="J53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="D53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="J53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:13">
-      <c r="A54" s="8"/>
-      <c r="D54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="J54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="D54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="J54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:13">
-      <c r="A55" s="8"/>
-      <c r="D55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="J55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="D55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="J55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:13">
-      <c r="A56" s="8"/>
-      <c r="D56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="J56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="D56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="J56" s="7"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:13">
-      <c r="A57" s="8"/>
-      <c r="D57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="J57" s="8"/>
-      <c r="M57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="D57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="J57" s="7"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:13">
-      <c r="A58" s="8"/>
-      <c r="D58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="J58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="D58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="J58" s="7"/>
+      <c r="M58" s="7"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:13">
-      <c r="A59" s="8"/>
-      <c r="D59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="J59" s="8"/>
-      <c r="M59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="D59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="J59" s="7"/>
+      <c r="M59" s="7"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:13">
-      <c r="A60" s="8"/>
-      <c r="D60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="J60" s="8"/>
-      <c r="M60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="D60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="J60" s="7"/>
+      <c r="M60" s="7"/>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:13">
-      <c r="A61" s="8"/>
-      <c r="D61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="J61" s="8"/>
-      <c r="M61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="D61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="J61" s="7"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:13">
-      <c r="A62" s="8"/>
-      <c r="D62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="J62" s="8"/>
-      <c r="M62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="D62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="J62" s="7"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:13">
-      <c r="A63" s="8"/>
-      <c r="D63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="J63" s="8"/>
-      <c r="M63" s="8"/>
+      <c r="A63" s="7"/>
+      <c r="D63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="J63" s="7"/>
+      <c r="M63" s="7"/>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:13">
-      <c r="A64" s="8"/>
-      <c r="D64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="J64" s="8"/>
-      <c r="M64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="D64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="J64" s="7"/>
+      <c r="M64" s="7"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:13">
-      <c r="A65" s="8"/>
-      <c r="D65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="J65" s="8"/>
-      <c r="M65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="D65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="J65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:13">
-      <c r="A66" s="8"/>
-      <c r="D66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="J66" s="8"/>
-      <c r="M66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="D66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="J66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:13">
-      <c r="A67" s="8"/>
-      <c r="D67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="J67" s="8"/>
-      <c r="M67" s="8"/>
+      <c r="A67" s="7"/>
+      <c r="D67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="J67" s="7"/>
+      <c r="M67" s="7"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:13">
-      <c r="A68" s="8"/>
-      <c r="D68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="J68" s="8"/>
-      <c r="M68" s="8"/>
+      <c r="A68" s="7"/>
+      <c r="D68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="J68" s="7"/>
+      <c r="M68" s="7"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:13">
-      <c r="A69" s="8"/>
-      <c r="D69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="J69" s="8"/>
-      <c r="M69" s="8"/>
+      <c r="A69" s="7"/>
+      <c r="D69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="J69" s="7"/>
+      <c r="M69" s="7"/>
     </row>
     <row r="70" s="2" customFormat="1" spans="1:13">
-      <c r="A70" s="8"/>
-      <c r="D70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="J70" s="8"/>
-      <c r="M70" s="8"/>
+      <c r="A70" s="7"/>
+      <c r="D70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="J70" s="7"/>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:13">
-      <c r="A71" s="8"/>
-      <c r="D71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="J71" s="8"/>
-      <c r="M71" s="8"/>
+      <c r="A71" s="7"/>
+      <c r="D71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="J71" s="7"/>
+      <c r="M71" s="7"/>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:13">
-      <c r="A72" s="8"/>
-      <c r="D72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="J72" s="8"/>
-      <c r="M72" s="8"/>
+      <c r="A72" s="7"/>
+      <c r="D72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="J72" s="7"/>
+      <c r="M72" s="7"/>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:13">
-      <c r="A73" s="8"/>
-      <c r="D73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="J73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="A73" s="7"/>
+      <c r="D73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="J73" s="7"/>
+      <c r="M73" s="7"/>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:13">
-      <c r="A74" s="8"/>
-      <c r="D74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="J74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="A74" s="7"/>
+      <c r="D74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="J74" s="7"/>
+      <c r="M74" s="7"/>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:13">
-      <c r="A75" s="8"/>
-      <c r="D75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="J75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="D75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="J75" s="7"/>
+      <c r="M75" s="7"/>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:13">
-      <c r="A76" s="8"/>
-      <c r="D76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="J76" s="8"/>
-      <c r="M76" s="8"/>
+      <c r="A76" s="7"/>
+      <c r="D76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="J76" s="7"/>
+      <c r="M76" s="7"/>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:13">
-      <c r="A77" s="8"/>
-      <c r="D77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="J77" s="8"/>
-      <c r="M77" s="8"/>
+      <c r="A77" s="7"/>
+      <c r="D77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="J77" s="7"/>
+      <c r="M77" s="7"/>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:13">
-      <c r="A78" s="8"/>
-      <c r="D78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="J78" s="8"/>
-      <c r="M78" s="8"/>
+      <c r="A78" s="7"/>
+      <c r="D78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="J78" s="7"/>
+      <c r="M78" s="7"/>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:13">
-      <c r="A79" s="8"/>
-      <c r="D79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="J79" s="8"/>
-      <c r="M79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="D79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="J79" s="7"/>
+      <c r="M79" s="7"/>
     </row>
     <row r="80" s="2" customFormat="1" spans="1:13">
-      <c r="A80" s="8"/>
-      <c r="D80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="J80" s="8"/>
-      <c r="M80" s="8"/>
+      <c r="A80" s="7"/>
+      <c r="D80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="J80" s="7"/>
+      <c r="M80" s="7"/>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:13">
-      <c r="A81" s="8"/>
-      <c r="D81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="J81" s="8"/>
-      <c r="M81" s="8"/>
+      <c r="A81" s="7"/>
+      <c r="D81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="J81" s="7"/>
+      <c r="M81" s="7"/>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:13">
-      <c r="A82" s="8"/>
-      <c r="D82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="J82" s="8"/>
-      <c r="M82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="D82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="J82" s="7"/>
+      <c r="M82" s="7"/>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:13">
-      <c r="A83" s="8"/>
-      <c r="D83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="J83" s="8"/>
-      <c r="M83" s="8"/>
+      <c r="A83" s="7"/>
+      <c r="D83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="J83" s="7"/>
+      <c r="M83" s="7"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:13">
-      <c r="A84" s="8"/>
-      <c r="D84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="J84" s="8"/>
-      <c r="M84" s="8"/>
+      <c r="A84" s="7"/>
+      <c r="D84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="J84" s="7"/>
+      <c r="M84" s="7"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:13">
-      <c r="A85" s="8"/>
-      <c r="D85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="J85" s="8"/>
-      <c r="M85" s="8"/>
+      <c r="A85" s="7"/>
+      <c r="D85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="J85" s="7"/>
+      <c r="M85" s="7"/>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:13">
-      <c r="A86" s="8"/>
-      <c r="D86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="J86" s="8"/>
-      <c r="M86" s="8"/>
+      <c r="A86" s="7"/>
+      <c r="D86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="J86" s="7"/>
+      <c r="M86" s="7"/>
     </row>
     <row r="87" s="2" customFormat="1" spans="1:13">
-      <c r="A87" s="8"/>
-      <c r="D87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="J87" s="8"/>
-      <c r="M87" s="8"/>
+      <c r="A87" s="7"/>
+      <c r="D87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="J87" s="7"/>
+      <c r="M87" s="7"/>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:13">
-      <c r="A88" s="8"/>
-      <c r="D88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="J88" s="8"/>
-      <c r="M88" s="8"/>
+      <c r="A88" s="7"/>
+      <c r="D88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="J88" s="7"/>
+      <c r="M88" s="7"/>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:13">
-      <c r="A89" s="8"/>
-      <c r="D89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="J89" s="8"/>
-      <c r="M89" s="8"/>
+      <c r="A89" s="7"/>
+      <c r="D89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="J89" s="7"/>
+      <c r="M89" s="7"/>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:13">
-      <c r="A90" s="8"/>
-      <c r="D90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="J90" s="8"/>
-      <c r="M90" s="8"/>
+      <c r="A90" s="7"/>
+      <c r="D90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="J90" s="7"/>
+      <c r="M90" s="7"/>
     </row>
     <row r="91" s="2" customFormat="1" spans="1:13">
-      <c r="A91" s="8"/>
-      <c r="D91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="J91" s="8"/>
-      <c r="M91" s="8"/>
+      <c r="A91" s="7"/>
+      <c r="D91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="J91" s="7"/>
+      <c r="M91" s="7"/>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:13">
-      <c r="A92" s="8"/>
-      <c r="D92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="J92" s="8"/>
-      <c r="M92" s="8"/>
+      <c r="A92" s="7"/>
+      <c r="D92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="J92" s="7"/>
+      <c r="M92" s="7"/>
     </row>
     <row r="93" s="2" customFormat="1" spans="1:13">
-      <c r="A93" s="8"/>
-      <c r="D93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="J93" s="8"/>
-      <c r="M93" s="8"/>
+      <c r="A93" s="7"/>
+      <c r="D93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="J93" s="7"/>
+      <c r="M93" s="7"/>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:13">
-      <c r="A94" s="8"/>
-      <c r="D94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="J94" s="8"/>
-      <c r="M94" s="8"/>
+      <c r="A94" s="7"/>
+      <c r="D94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="J94" s="7"/>
+      <c r="M94" s="7"/>
     </row>
     <row r="95" s="2" customFormat="1" spans="1:13">
-      <c r="A95" s="8"/>
-      <c r="D95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="J95" s="8"/>
-      <c r="M95" s="8"/>
+      <c r="A95" s="7"/>
+      <c r="D95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="J95" s="7"/>
+      <c r="M95" s="7"/>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:13">
-      <c r="A96" s="8"/>
-      <c r="D96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="J96" s="8"/>
-      <c r="M96" s="8"/>
+      <c r="A96" s="7"/>
+      <c r="D96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="J96" s="7"/>
+      <c r="M96" s="7"/>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:13">
-      <c r="A97" s="8"/>
-      <c r="D97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="J97" s="8"/>
-      <c r="M97" s="8"/>
+      <c r="A97" s="7"/>
+      <c r="D97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="J97" s="7"/>
+      <c r="M97" s="7"/>
     </row>
     <row r="98" s="2" customFormat="1" spans="1:13">
-      <c r="A98" s="8"/>
-      <c r="D98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="J98" s="8"/>
-      <c r="M98" s="8"/>
+      <c r="A98" s="7"/>
+      <c r="D98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="J98" s="7"/>
+      <c r="M98" s="7"/>
     </row>
     <row r="99" s="2" customFormat="1" spans="1:13">
-      <c r="A99" s="8"/>
-      <c r="D99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="J99" s="8"/>
-      <c r="M99" s="8"/>
+      <c r="A99" s="7"/>
+      <c r="D99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="J99" s="7"/>
+      <c r="M99" s="7"/>
     </row>
     <row r="100" s="2" customFormat="1" spans="1:13">
-      <c r="A100" s="8"/>
-      <c r="D100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="J100" s="8"/>
-      <c r="M100" s="8"/>
+      <c r="A100" s="7"/>
+      <c r="D100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="J100" s="7"/>
+      <c r="M100" s="7"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:13">
-      <c r="A101" s="8"/>
-      <c r="D101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="J101" s="8"/>
-      <c r="M101" s="8"/>
+      <c r="A101" s="7"/>
+      <c r="D101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="J101" s="7"/>
+      <c r="M101" s="7"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:13">
-      <c r="A102" s="8"/>
-      <c r="D102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="J102" s="8"/>
-      <c r="M102" s="8"/>
+      <c r="A102" s="7"/>
+      <c r="D102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="J102" s="7"/>
+      <c r="M102" s="7"/>
     </row>
     <row r="103" s="2" customFormat="1" spans="1:13">
-      <c r="A103" s="8"/>
-      <c r="D103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="J103" s="8"/>
-      <c r="M103" s="8"/>
+      <c r="A103" s="7"/>
+      <c r="D103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="J103" s="7"/>
+      <c r="M103" s="7"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="1:13">
-      <c r="A104" s="8"/>
-      <c r="D104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="J104" s="8"/>
-      <c r="M104" s="8"/>
+      <c r="A104" s="7"/>
+      <c r="D104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="J104" s="7"/>
+      <c r="M104" s="7"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="1:13">
-      <c r="A105" s="8"/>
-      <c r="D105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="J105" s="8"/>
-      <c r="M105" s="8"/>
+      <c r="A105" s="7"/>
+      <c r="D105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="J105" s="7"/>
+      <c r="M105" s="7"/>
     </row>
     <row r="106" s="2" customFormat="1" spans="1:13">
-      <c r="A106" s="8"/>
-      <c r="D106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="J106" s="8"/>
-      <c r="M106" s="8"/>
+      <c r="A106" s="7"/>
+      <c r="D106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="J106" s="7"/>
+      <c r="M106" s="7"/>
     </row>
     <row r="107" s="2" customFormat="1" spans="1:13">
-      <c r="A107" s="8"/>
-      <c r="D107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="J107" s="8"/>
-      <c r="M107" s="8"/>
+      <c r="A107" s="7"/>
+      <c r="D107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="J107" s="7"/>
+      <c r="M107" s="7"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:13">
-      <c r="A108" s="8"/>
-      <c r="D108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="J108" s="8"/>
-      <c r="M108" s="8"/>
+      <c r="A108" s="7"/>
+      <c r="D108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="J108" s="7"/>
+      <c r="M108" s="7"/>
     </row>
     <row r="109" s="2" customFormat="1" spans="1:13">
-      <c r="A109" s="8"/>
-      <c r="D109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="J109" s="8"/>
-      <c r="M109" s="8"/>
+      <c r="A109" s="7"/>
+      <c r="D109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="J109" s="7"/>
+      <c r="M109" s="7"/>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:13">
-      <c r="A110" s="8"/>
-      <c r="D110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="J110" s="8"/>
-      <c r="M110" s="8"/>
+      <c r="A110" s="7"/>
+      <c r="D110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="J110" s="7"/>
+      <c r="M110" s="7"/>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:13">
-      <c r="A111" s="8"/>
-      <c r="D111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="J111" s="8"/>
-      <c r="M111" s="8"/>
+      <c r="A111" s="7"/>
+      <c r="D111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="J111" s="7"/>
+      <c r="M111" s="7"/>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:13">
-      <c r="A112" s="8"/>
-      <c r="D112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="J112" s="8"/>
-      <c r="M112" s="8"/>
+      <c r="A112" s="7"/>
+      <c r="D112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="J112" s="7"/>
+      <c r="M112" s="7"/>
     </row>
     <row r="113" s="2" customFormat="1" spans="1:13">
-      <c r="A113" s="8"/>
-      <c r="D113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="J113" s="8"/>
-      <c r="M113" s="8"/>
+      <c r="A113" s="7"/>
+      <c r="D113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="J113" s="7"/>
+      <c r="M113" s="7"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:13">
-      <c r="A114" s="8"/>
-      <c r="D114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="J114" s="8"/>
-      <c r="M114" s="8"/>
+      <c r="A114" s="7"/>
+      <c r="D114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="J114" s="7"/>
+      <c r="M114" s="7"/>
     </row>
     <row r="115" s="2" customFormat="1" spans="1:13">
-      <c r="A115" s="8"/>
-      <c r="D115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="J115" s="8"/>
-      <c r="M115" s="8"/>
+      <c r="A115" s="7"/>
+      <c r="D115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="J115" s="7"/>
+      <c r="M115" s="7"/>
     </row>
     <row r="116" s="2" customFormat="1" spans="1:13">
-      <c r="A116" s="8"/>
-      <c r="D116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="J116" s="8"/>
-      <c r="M116" s="8"/>
+      <c r="A116" s="7"/>
+      <c r="D116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="J116" s="7"/>
+      <c r="M116" s="7"/>
     </row>
     <row r="117" s="2" customFormat="1" spans="1:13">
-      <c r="A117" s="8"/>
-      <c r="D117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="J117" s="8"/>
-      <c r="M117" s="8"/>
+      <c r="A117" s="7"/>
+      <c r="D117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="J117" s="7"/>
+      <c r="M117" s="7"/>
     </row>
     <row r="118" s="2" customFormat="1" spans="1:13">
-      <c r="A118" s="8"/>
-      <c r="D118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="J118" s="8"/>
-      <c r="M118" s="8"/>
+      <c r="A118" s="7"/>
+      <c r="D118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="J118" s="7"/>
+      <c r="M118" s="7"/>
     </row>
     <row r="119" s="2" customFormat="1" spans="1:13">
-      <c r="A119" s="8"/>
-      <c r="D119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="J119" s="8"/>
-      <c r="M119" s="8"/>
+      <c r="A119" s="7"/>
+      <c r="D119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="J119" s="7"/>
+      <c r="M119" s="7"/>
     </row>
     <row r="120" s="2" customFormat="1" spans="1:13">
-      <c r="A120" s="8"/>
-      <c r="D120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="J120" s="8"/>
-      <c r="M120" s="8"/>
+      <c r="A120" s="7"/>
+      <c r="D120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="J120" s="7"/>
+      <c r="M120" s="7"/>
     </row>
     <row r="121" s="2" customFormat="1" spans="1:13">
-      <c r="A121" s="8"/>
-      <c r="D121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="J121" s="8"/>
-      <c r="M121" s="8"/>
+      <c r="A121" s="7"/>
+      <c r="D121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="J121" s="7"/>
+      <c r="M121" s="7"/>
     </row>
     <row r="122" s="2" customFormat="1" spans="1:13">
-      <c r="A122" s="8"/>
-      <c r="D122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="J122" s="8"/>
-      <c r="M122" s="8"/>
+      <c r="A122" s="7"/>
+      <c r="D122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="J122" s="7"/>
+      <c r="M122" s="7"/>
     </row>
     <row r="123" s="2" customFormat="1" spans="1:13">
-      <c r="A123" s="8"/>
-      <c r="D123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="J123" s="8"/>
-      <c r="M123" s="8"/>
+      <c r="A123" s="7"/>
+      <c r="D123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="J123" s="7"/>
+      <c r="M123" s="7"/>
     </row>
     <row r="124" s="2" customFormat="1" spans="1:13">
-      <c r="A124" s="8"/>
-      <c r="D124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="J124" s="8"/>
-      <c r="M124" s="8"/>
+      <c r="A124" s="7"/>
+      <c r="D124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="J124" s="7"/>
+      <c r="M124" s="7"/>
     </row>
     <row r="125" s="2" customFormat="1" spans="1:13">
-      <c r="A125" s="8"/>
-      <c r="D125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="J125" s="8"/>
-      <c r="M125" s="8"/>
+      <c r="A125" s="7"/>
+      <c r="D125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="J125" s="7"/>
+      <c r="M125" s="7"/>
     </row>
     <row r="126" s="2" customFormat="1" spans="1:13">
-      <c r="A126" s="8"/>
-      <c r="D126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="J126" s="8"/>
-      <c r="M126" s="8"/>
+      <c r="A126" s="7"/>
+      <c r="D126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="J126" s="7"/>
+      <c r="M126" s="7"/>
     </row>
     <row r="127" s="2" customFormat="1" spans="1:13">
-      <c r="A127" s="8"/>
-      <c r="D127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="J127" s="8"/>
-      <c r="M127" s="8"/>
+      <c r="A127" s="7"/>
+      <c r="D127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="J127" s="7"/>
+      <c r="M127" s="7"/>
     </row>
     <row r="128" s="2" customFormat="1" spans="1:13">
-      <c r="A128" s="8"/>
-      <c r="D128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="J128" s="8"/>
-      <c r="M128" s="8"/>
+      <c r="A128" s="7"/>
+      <c r="D128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="J128" s="7"/>
+      <c r="M128" s="7"/>
     </row>
     <row r="129" s="2" customFormat="1" spans="1:13">
-      <c r="A129" s="8"/>
-      <c r="D129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="J129" s="8"/>
-      <c r="M129" s="8"/>
+      <c r="A129" s="7"/>
+      <c r="D129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="J129" s="7"/>
+      <c r="M129" s="7"/>
     </row>
     <row r="130" s="2" customFormat="1" spans="1:13">
-      <c r="A130" s="8"/>
-      <c r="D130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="J130" s="8"/>
-      <c r="M130" s="8"/>
+      <c r="A130" s="7"/>
+      <c r="D130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="J130" s="7"/>
+      <c r="M130" s="7"/>
     </row>
     <row r="131" s="2" customFormat="1" spans="1:13">
-      <c r="A131" s="8"/>
-      <c r="D131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="J131" s="8"/>
-      <c r="M131" s="8"/>
+      <c r="A131" s="7"/>
+      <c r="D131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="J131" s="7"/>
+      <c r="M131" s="7"/>
     </row>
     <row r="132" s="2" customFormat="1" spans="1:13">
-      <c r="A132" s="8"/>
-      <c r="D132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="J132" s="8"/>
-      <c r="M132" s="8"/>
+      <c r="A132" s="7"/>
+      <c r="D132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="J132" s="7"/>
+      <c r="M132" s="7"/>
     </row>
     <row r="133" s="2" customFormat="1" spans="1:13">
-      <c r="A133" s="8"/>
-      <c r="D133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="J133" s="8"/>
-      <c r="M133" s="8"/>
+      <c r="A133" s="7"/>
+      <c r="D133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="J133" s="7"/>
+      <c r="M133" s="7"/>
     </row>
     <row r="134" s="2" customFormat="1" spans="1:13">
-      <c r="A134" s="8"/>
-      <c r="D134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="J134" s="8"/>
-      <c r="M134" s="8"/>
+      <c r="A134" s="7"/>
+      <c r="D134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="J134" s="7"/>
+      <c r="M134" s="7"/>
     </row>
     <row r="135" s="2" customFormat="1" spans="1:13">
-      <c r="A135" s="8"/>
-      <c r="D135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="J135" s="8"/>
-      <c r="M135" s="8"/>
+      <c r="A135" s="7"/>
+      <c r="D135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="J135" s="7"/>
+      <c r="M135" s="7"/>
     </row>
     <row r="136" s="2" customFormat="1" spans="1:13">
-      <c r="A136" s="8"/>
-      <c r="D136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="J136" s="8"/>
-      <c r="M136" s="8"/>
+      <c r="A136" s="7"/>
+      <c r="D136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="J136" s="7"/>
+      <c r="M136" s="7"/>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:13">
-      <c r="A137" s="8"/>
-      <c r="D137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="J137" s="8"/>
-      <c r="M137" s="8"/>
+      <c r="A137" s="7"/>
+      <c r="D137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="J137" s="7"/>
+      <c r="M137" s="7"/>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:13">
-      <c r="A138" s="8"/>
-      <c r="D138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="J138" s="8"/>
-      <c r="M138" s="8"/>
+      <c r="A138" s="7"/>
+      <c r="D138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="J138" s="7"/>
+      <c r="M138" s="7"/>
     </row>
     <row r="139" s="2" customFormat="1" spans="1:13">
-      <c r="A139" s="8"/>
-      <c r="D139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="J139" s="8"/>
-      <c r="M139" s="8"/>
+      <c r="A139" s="7"/>
+      <c r="D139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="J139" s="7"/>
+      <c r="M139" s="7"/>
     </row>
     <row r="140" s="2" customFormat="1" spans="1:13">
-      <c r="A140" s="8"/>
-      <c r="D140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="J140" s="8"/>
-      <c r="M140" s="8"/>
+      <c r="A140" s="7"/>
+      <c r="D140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="J140" s="7"/>
+      <c r="M140" s="7"/>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:13">
-      <c r="A141" s="8"/>
-      <c r="D141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="J141" s="8"/>
-      <c r="M141" s="8"/>
+      <c r="A141" s="7"/>
+      <c r="D141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="J141" s="7"/>
+      <c r="M141" s="7"/>
     </row>
     <row r="142" s="2" customFormat="1" spans="1:13">
-      <c r="A142" s="8"/>
-      <c r="D142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="J142" s="8"/>
-      <c r="M142" s="8"/>
+      <c r="A142" s="7"/>
+      <c r="D142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="J142" s="7"/>
+      <c r="M142" s="7"/>
     </row>
     <row r="143" s="2" customFormat="1" spans="1:13">
-      <c r="A143" s="8"/>
-      <c r="D143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="J143" s="8"/>
-      <c r="M143" s="8"/>
+      <c r="A143" s="7"/>
+      <c r="D143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="J143" s="7"/>
+      <c r="M143" s="7"/>
     </row>
     <row r="144" s="2" customFormat="1" spans="1:13">
-      <c r="A144" s="8"/>
-      <c r="D144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="J144" s="8"/>
-      <c r="M144" s="8"/>
+      <c r="A144" s="7"/>
+      <c r="D144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="J144" s="7"/>
+      <c r="M144" s="7"/>
     </row>
     <row r="145" s="2" customFormat="1" spans="1:13">
-      <c r="A145" s="8"/>
-      <c r="D145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="J145" s="8"/>
-      <c r="M145" s="8"/>
+      <c r="A145" s="7"/>
+      <c r="D145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="J145" s="7"/>
+      <c r="M145" s="7"/>
     </row>
     <row r="146" s="2" customFormat="1" spans="1:13">
-      <c r="A146" s="8"/>
-      <c r="D146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="J146" s="8"/>
-      <c r="M146" s="8"/>
+      <c r="A146" s="7"/>
+      <c r="D146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="J146" s="7"/>
+      <c r="M146" s="7"/>
     </row>
     <row r="147" s="2" customFormat="1" spans="1:13">
-      <c r="A147" s="8"/>
-      <c r="D147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="J147" s="8"/>
-      <c r="M147" s="8"/>
+      <c r="A147" s="7"/>
+      <c r="D147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="J147" s="7"/>
+      <c r="M147" s="7"/>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:13">
-      <c r="A148" s="8"/>
-      <c r="D148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="J148" s="8"/>
-      <c r="M148" s="8"/>
+      <c r="A148" s="7"/>
+      <c r="D148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="J148" s="7"/>
+      <c r="M148" s="7"/>
     </row>
     <row r="149" s="2" customFormat="1" spans="1:13">
-      <c r="A149" s="8"/>
-      <c r="D149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="J149" s="8"/>
-      <c r="M149" s="8"/>
+      <c r="A149" s="7"/>
+      <c r="D149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="J149" s="7"/>
+      <c r="M149" s="7"/>
     </row>
     <row r="150" s="2" customFormat="1" spans="1:13">
-      <c r="A150" s="8"/>
-      <c r="D150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="J150" s="8"/>
-      <c r="M150" s="8"/>
+      <c r="A150" s="7"/>
+      <c r="D150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="J150" s="7"/>
+      <c r="M150" s="7"/>
     </row>
     <row r="151" s="2" customFormat="1" spans="1:13">
-      <c r="A151" s="8"/>
-      <c r="D151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="J151" s="8"/>
-      <c r="M151" s="8"/>
+      <c r="A151" s="7"/>
+      <c r="D151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="J151" s="7"/>
+      <c r="M151" s="7"/>
     </row>
     <row r="152" s="2" customFormat="1" spans="1:13">
-      <c r="A152" s="8"/>
-      <c r="D152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="J152" s="8"/>
-      <c r="M152" s="8"/>
+      <c r="A152" s="7"/>
+      <c r="D152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="J152" s="7"/>
+      <c r="M152" s="7"/>
     </row>
     <row r="153" s="2" customFormat="1" spans="1:13">
-      <c r="A153" s="8"/>
-      <c r="D153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="J153" s="8"/>
-      <c r="M153" s="8"/>
+      <c r="A153" s="7"/>
+      <c r="D153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="J153" s="7"/>
+      <c r="M153" s="7"/>
     </row>
     <row r="154" s="2" customFormat="1" spans="1:13">
-      <c r="A154" s="8"/>
-      <c r="D154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="J154" s="8"/>
-      <c r="M154" s="8"/>
+      <c r="A154" s="7"/>
+      <c r="D154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="J154" s="7"/>
+      <c r="M154" s="7"/>
     </row>
     <row r="155" s="2" customFormat="1" spans="1:13">
-      <c r="A155" s="8"/>
-      <c r="D155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="J155" s="8"/>
-      <c r="M155" s="8"/>
+      <c r="A155" s="7"/>
+      <c r="D155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="J155" s="7"/>
+      <c r="M155" s="7"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:13">
-      <c r="A156" s="8"/>
-      <c r="D156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="J156" s="8"/>
-      <c r="M156" s="8"/>
+      <c r="A156" s="7"/>
+      <c r="D156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="J156" s="7"/>
+      <c r="M156" s="7"/>
     </row>
     <row r="157" s="2" customFormat="1" spans="1:13">
-      <c r="A157" s="8"/>
-      <c r="D157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="J157" s="8"/>
-      <c r="M157" s="8"/>
+      <c r="A157" s="7"/>
+      <c r="D157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="J157" s="7"/>
+      <c r="M157" s="7"/>
     </row>
     <row r="158" s="2" customFormat="1" spans="1:13">
-      <c r="A158" s="8"/>
-      <c r="D158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="J158" s="8"/>
-      <c r="M158" s="8"/>
+      <c r="A158" s="7"/>
+      <c r="D158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="J158" s="7"/>
+      <c r="M158" s="7"/>
     </row>
     <row r="159" s="2" customFormat="1" spans="1:13">
-      <c r="A159" s="8"/>
-      <c r="D159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="J159" s="8"/>
-      <c r="M159" s="8"/>
+      <c r="A159" s="7"/>
+      <c r="D159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="J159" s="7"/>
+      <c r="M159" s="7"/>
     </row>
     <row r="160" s="2" customFormat="1" spans="1:13">
-      <c r="A160" s="8"/>
-      <c r="D160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="J160" s="8"/>
-      <c r="M160" s="8"/>
+      <c r="A160" s="7"/>
+      <c r="D160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="J160" s="7"/>
+      <c r="M160" s="7"/>
     </row>
     <row r="161" s="2" customFormat="1" spans="1:13">
-      <c r="A161" s="8"/>
-      <c r="D161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="J161" s="8"/>
-      <c r="M161" s="8"/>
+      <c r="A161" s="7"/>
+      <c r="D161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="J161" s="7"/>
+      <c r="M161" s="7"/>
     </row>
     <row r="162" s="2" customFormat="1" spans="1:13">
-      <c r="A162" s="8"/>
-      <c r="D162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="J162" s="8"/>
-      <c r="M162" s="8"/>
+      <c r="A162" s="7"/>
+      <c r="D162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="J162" s="7"/>
+      <c r="M162" s="7"/>
     </row>
     <row r="163" s="2" customFormat="1" spans="1:13">
-      <c r="A163" s="8"/>
-      <c r="D163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="J163" s="8"/>
-      <c r="M163" s="8"/>
+      <c r="A163" s="7"/>
+      <c r="D163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="J163" s="7"/>
+      <c r="M163" s="7"/>
     </row>
     <row r="164" s="2" customFormat="1" spans="1:13">
-      <c r="A164" s="8"/>
-      <c r="D164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="J164" s="8"/>
-      <c r="M164" s="8"/>
+      <c r="A164" s="7"/>
+      <c r="D164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="J164" s="7"/>
+      <c r="M164" s="7"/>
     </row>
     <row r="165" s="2" customFormat="1" spans="1:13">
-      <c r="A165" s="8"/>
-      <c r="D165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="J165" s="8"/>
-      <c r="M165" s="8"/>
+      <c r="A165" s="7"/>
+      <c r="D165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="J165" s="7"/>
+      <c r="M165" s="7"/>
     </row>
     <row r="166" s="2" customFormat="1" spans="1:13">
-      <c r="A166" s="8"/>
-      <c r="D166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="J166" s="8"/>
-      <c r="M166" s="8"/>
+      <c r="A166" s="7"/>
+      <c r="D166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="J166" s="7"/>
+      <c r="M166" s="7"/>
     </row>
     <row r="167" s="2" customFormat="1" spans="1:13">
-      <c r="A167" s="8"/>
-      <c r="D167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="J167" s="8"/>
-      <c r="M167" s="8"/>
+      <c r="A167" s="7"/>
+      <c r="D167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="J167" s="7"/>
+      <c r="M167" s="7"/>
     </row>
     <row r="168" s="2" customFormat="1" spans="1:13">
-      <c r="A168" s="8"/>
-      <c r="D168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="J168" s="8"/>
-      <c r="M168" s="8"/>
+      <c r="A168" s="7"/>
+      <c r="D168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="J168" s="7"/>
+      <c r="M168" s="7"/>
     </row>
     <row r="169" s="2" customFormat="1" spans="1:13">
-      <c r="A169" s="8"/>
-      <c r="D169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="J169" s="8"/>
-      <c r="M169" s="8"/>
+      <c r="A169" s="7"/>
+      <c r="D169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="J169" s="7"/>
+      <c r="M169" s="7"/>
     </row>
     <row r="170" s="2" customFormat="1" spans="1:13">
-      <c r="A170" s="8"/>
-      <c r="D170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="J170" s="8"/>
-      <c r="M170" s="8"/>
+      <c r="A170" s="7"/>
+      <c r="D170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="J170" s="7"/>
+      <c r="M170" s="7"/>
     </row>
     <row r="171" s="2" customFormat="1" spans="1:13">
-      <c r="A171" s="8"/>
-      <c r="D171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="J171" s="8"/>
-      <c r="M171" s="8"/>
+      <c r="A171" s="7"/>
+      <c r="D171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="J171" s="7"/>
+      <c r="M171" s="7"/>
     </row>
     <row r="172" s="2" customFormat="1" spans="1:13">
-      <c r="A172" s="8"/>
-      <c r="D172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="J172" s="8"/>
-      <c r="M172" s="8"/>
+      <c r="A172" s="7"/>
+      <c r="D172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="J172" s="7"/>
+      <c r="M172" s="7"/>
+    </row>
+    <row r="173" s="2" customFormat="1" spans="1:13">
+      <c r="A173" s="7"/>
+      <c r="D173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="J173" s="7"/>
+      <c r="M173" s="7"/>
+    </row>
+    <row r="174" s="2" customFormat="1" spans="1:13">
+      <c r="A174" s="7"/>
+      <c r="D174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="J174" s="7"/>
+      <c r="M174" s="7"/>
+    </row>
+    <row r="175" s="2" customFormat="1" spans="1:13">
+      <c r="A175" s="7"/>
+      <c r="D175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="J175" s="7"/>
+      <c r="M175" s="7"/>
+    </row>
+    <row r="176" s="2" customFormat="1" spans="1:13">
+      <c r="A176" s="7"/>
+      <c r="D176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="J176" s="7"/>
+      <c r="M176" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5110,7 +5238,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C25" r:id="rId1" display="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest" tooltip="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest"/>
-    <hyperlink ref="B33" r:id="rId2" display="https://blog.csdn.net/qq_40566547/article/details/101033299" tooltip="https://blog.csdn.net/qq_40566547/article/details/101033299"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -5130,7 +5257,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5171,22 +5298,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5224,7 +5351,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5236,30 +5363,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11680" tabRatio="723" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11080" tabRatio="723" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="http" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -1674,13 +1674,382 @@
     <t>export和import的用法，有什么要注意的地方</t>
   </si>
   <si>
-    <t>静态的import：用于导入由另外一个模块导出的绑定，导入的模块默认运行在严格模式</t>
+    <r>
+      <t>静态的import：
+用于导入由另外一个模块导出的绑定，导入的模块默认运行在严格模式.在&lt;script&gt;标签import时，需要增加属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type="module",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化加载。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用静态 import 更容易从代码静态分析工具和 tree shaking 中受益。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+动态import():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态加载模块，返回对象是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">类型的对象，所以可以使用then进行后续处理，也支持await关键字
+export 不能在嵌入式脚本（&lt;script&gt;）中使用,导出的模块处于严格模式，存在两种 exports 导出方式：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（每个模块包含任意数量）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（每个模块包含一个）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default关键字代表在import时可以使用任意变量名并且不需要花括号{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不使用default：导出导入时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都要用花括号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可导出多个对象
+export {Add, abc} 
+import {Add} from './common.js';
+export  {Add}
+import * as A from './common.js';//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+import A from './common.js'; //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>export let a = 1;
+import {a} from './common.js';
+import {b} from './common.js'; //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+使用default:只导出一个对象
+export default Add
+import Add from './common.js';
+import('./common.js').then((module) =&gt; {
+        console.log(module.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">); // class Add
+    });
+import '/modules/my-module.js';运行模块的全局代码，不导入任何对象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能使用 var、let 或 const 用于导出默认值 export default。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+export default function cube(x) {} //ok
+export default let a = 1; //error</t>
+    </r>
   </si>
   <si>
     <t>使用require和import有什么区别？</t>
   </si>
   <si>
+    <t>require语法是commonJs/AMD的规范。
+require是一个node定义的全局方法
+导入时整个模块都导入
+可以在代码的任何地方使用
+运行时动态加载
+本质是赋值过程，普通的值传递或者引用传递,require后值不再变化
+不可以在&lt;script&gt;标签中直接使用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import是ES6的规范。
+是关键字
+使用解构赋值，可以选择导入模块的某一部分对象
+静态import只能在文件顶部使用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析时加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+本质是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解构赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出和导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指向同一个内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。导出的值变了，导入的值也会变化
+可以在&lt;script type="module"&gt;标签中使用</t>
+    </r>
+  </si>
+  <si>
+    <t>export let a = 1
+setTimeout(() =&gt; a += 1, 500)
+import {a} from './common.js';
+    console.log(a); //1
+    setTimeout(function () {
+        console.log(a);//2
+    }, 1000)</t>
+  </si>
+  <si>
     <t>箭头函数中的this有什么特点</t>
+  </si>
+  <si>
+    <r>
+      <t>1丶普通函数this指向调用当前函数的对象，箭头函数的this在定义时就绑定了，指向所在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上级普通（非箭头）函数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(若父级不是普通函数，一直往上找，到window为止)的调用者。
+2丶箭头函数.call()不会改变this的指向</t>
+    </r>
   </si>
   <si>
     <t>for...of有什么优点？可以用来遍历哪些类型的对象</t>
@@ -1769,11 +2138,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1846,21 +2215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1868,15 +2222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1889,8 +2235,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1906,6 +2260,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1913,8 +2275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1922,6 +2285,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1935,11 +2314,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1950,35 +2344,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2003,6 +2372,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="圆体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="圆体-简"/>
       <charset val="134"/>
     </font>
@@ -2053,7 +2428,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,7 +2506,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,103 +2560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,43 +2584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2276,45 +2651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2354,6 +2690,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2369,152 +2744,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,6 +2945,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -2930,721 +3308,721 @@
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3669,12 +4047,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3732,12 +4110,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3751,15 +4129,15 @@
   <sheetPr/>
   <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="46.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="82.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="58.9196428571429" customWidth="1"/>
+    <col min="3" max="3" width="78.125" customWidth="1"/>
     <col min="4" max="4" width="46.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="6" customWidth="1"/>
     <col min="8" max="8" width="57.375" customWidth="1"/>
@@ -3827,7 +4205,7 @@
       <c r="B6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="3"/>
@@ -3971,7 +4349,7 @@
       <c r="H16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="20"/>
       <c r="K16" s="7"/>
       <c r="N16" s="7"/>
     </row>
@@ -4142,7 +4520,7 @@
       <c r="A31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D31" s="3"/>
@@ -4199,10 +4577,10 @@
       <c r="A36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="3"/>
@@ -4212,10 +4590,10 @@
     </row>
     <row r="37" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A37" s="7"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D37" s="3"/>
@@ -4225,10 +4603,10 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="176" spans="1:13">
       <c r="A38" s="7"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D38" s="3"/>
@@ -4238,7 +4616,7 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="18" spans="1:13">
       <c r="A39" s="7"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D39" s="3"/>
@@ -4250,10 +4628,10 @@
       <c r="A40" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="3"/>
@@ -4261,30 +4639,44 @@
       <c r="J40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:13">
+    <row r="41" s="2" customFormat="1" ht="409.5" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="18" t="s">
         <v>137</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
       <c r="J41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:13">
+    <row r="42" s="2" customFormat="1" ht="141" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="J42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:13">
+    <row r="43" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
@@ -4293,7 +4685,7 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
@@ -4302,7 +4694,7 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
@@ -4311,7 +4703,7 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:13">
       <c r="A46" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
@@ -4320,21 +4712,21 @@
     </row>
     <row r="47" s="4" customFormat="1" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D47" s="6"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D48" s="6"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:13">
       <c r="A49" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D49" s="3"/>
       <c r="G49" s="3"/>
@@ -4343,7 +4735,7 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:13">
       <c r="A50" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D50" s="3"/>
       <c r="G50" s="3"/>
@@ -5257,7 +5649,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5298,22 +5690,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5743,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5376,22 +5768,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -726,7 +726,392 @@
     <t>跨域问题有哪些解决方式？</t>
   </si>
   <si>
+    <t>1.jsonp
+原理：创建一个&lt;script&gt;标签的src属性可以加载跨域资源，定义一个全局函数赋值给请求url的callback参数，src的请求结果是一个包含数据的函数调用。
+优点：使用简单
+缺点：只适合get请求</t>
+  </si>
+  <si>
+    <t>2.cors
+原理：利用http
+优点：支持所有类型的请求
+缺点：老浏览器不支持，服务端也要支持cors</t>
+  </si>
+  <si>
     <t>CSP中的nonce是什么？</t>
+  </si>
+  <si>
+    <t>CORS是什么？</t>
+  </si>
+  <si>
+    <r>
+      <t>CORS（跨域资源共享），是W3C的一个标准，它允许浏览器向服务端发起xmlHttpRequest请求。使用它需要浏览器和服务端都支持。目前大部分浏览器都支持该功能，并且浏览器会自动完成，不需要开发者和用户做其他的操作。所以实现cors的关键是服务器。
+服务端把跨域请求分为两类：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单请求和非简单请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。简单请求的条件：1，请求方法是HEAD/GET/POST，2）HTTP的头信息不超出以下几种字段：
+Accept
+Accept-Language
+Content-Language
+Last-Event-ID
+Content-Type：只限于三个值application/x-www-form-urlencoded、multipart/form-data、text/plain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>简单请求流程：
+1.客户端发起跨域请求，浏览器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动加上Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求头。
+2.服务端接收到请求报文，查看Origin的值，决定是否同意这次请求。
+3.如果Origin指定的源，不在许可范围，那么返回一个正常的http响应。响应头不包含Access-Control-Allow-Origin头，被XmlHttpRequest对象的onerror回调捕获。
+4.如何Origin在许可范围内，那么会多出几个头：
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access-Control-Allow-Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: http://api.bob.com --- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也可以是*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access-Control-Allow-Credentials</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: true --- 可选，表示是否允许发送Cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发者必须在AJAX请求中打开withCredentials属性。
+var xhr = new XMLHttpRequest();
+xhr.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>withCredentials</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = true;
+如果要发送Cookie，Access-Control-Allow-Origin就不能设为星号，必须指定明确的、与请求网页一致的域名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access-Control-Expose-Headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: FooBar --- 可选
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>非简单请求：
+非简单请求的CORS请求，会在正式通信之前，增加一次HTTP查询请求，称为"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预检"请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（preflight）。
+1.浏览器发现非简单跨域请求时，会自动发起一个预检请求，请求方法是OPTIONS,自动加上三个属性：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: http://api.bob.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access-Control-Request-Method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: PUT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access-Control-Request-Headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: X-Custom-Header
+2.如果服务端不同意预检请求，返回一个正常的http响应，没有Access-Control-Allow-Origin字段。浏览器通过onerror回调捕获。
+3.如果服务端同意预检请求，那么返回
+Access-Control-Allow-Origin --- 必须
+Access-Control-Allow-Methods: GET, POST, PUT -- 必须
+Access-Control-Allow-Headers: X-Custom-Header -- 如果请求头有Access-Control-Request-Header，那么必须有
+Access-Control-Allow-Credentials: true -- 可选
+Access-Control-Max-Age: 1728000 -- 可选，预检请求的有效期
+4.服务器通过了预检请求，那么后面的非简单请求就和简单请求一样了</t>
+    </r>
+  </si>
+  <si>
+    <t>Sec-Fetch-Dest: document
+Sec-Fetch-Mode: navigate
+Sec-Fetch-Site: none
+Sec-Fetch-User: ?1
+Upgrade-Insecure-Requests: 1</t>
+  </si>
+  <si>
+    <t>六个简单响应首部</t>
+  </si>
+  <si>
+    <t>Cache-Control
+Content-Language
+Content-Type
+Expires
+Last-Modified
+Pragma</t>
+  </si>
+  <si>
+    <t>Access-Control-Expose-Headers有什么用处？</t>
+  </si>
+  <si>
+    <r>
+      <t>CORS请求时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，XMLHttpRequest对象的getResponseHeader()方法只能拿到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6个基本字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：Cache-Control、Content-Language、Content-Type、Expires、Last-Modified、Pragma。如果想拿到其他字段，就必须在Access-Control-Expose-Headers里面指定。</t>
+    </r>
   </si>
   <si>
     <t>js</t>
@@ -1346,6 +1731,20 @@
   </si>
   <si>
     <t>事件冒泡和事件捕获</t>
+  </si>
+  <si>
+    <r>
+      <t>dom事件流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有三个阶段：事件捕获阶段，事件目标阶段，事件冒泡阶段。触发的先后顺序是：捕获/目标/冒泡。使用EventListener(event, function, useCapture)监听,第三个参数默认是false，即默认使用冒泡传播</t>
+    </r>
   </si>
   <si>
     <t>防抖函数？</t>
@@ -1557,12 +1956,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="圆体-简"/>
-        <charset val="134"/>
-      </rPr>
       <t>Symbol是Js的第七种数据类型。
 Symbol函数前</t>
     </r>
@@ -1603,8 +1996,42 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>转为字符串，可以（隐式）转为boolean类型。但是不可以转为数字</t>
-    </r>
+      <t xml:space="preserve">转为字符串，可以（隐式）转为boolean类型。但是不可以转为数字
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Symbol.for()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以生成同一个Symbol值，因为Symbol.for()生成的名字是全局环境的
+Symbor()的值作为属性key时，必须使用方括号，与普通简直区分</t>
+    </r>
+  </si>
+  <si>
+    <t>https://segmentfault.com/a/1190000019234291
+var a = Symbol('a');
+var obj = {
+   a: 'normal key',
+  [a]: 'symbol key'    
+}</t>
+  </si>
+  <si>
+    <t>Symbol有什么作用？</t>
+  </si>
+  <si>
+    <t>定义受保护的私有属性或方法。</t>
   </si>
   <si>
     <t xml:space="preserve">@@ -1675,6 +2102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>静态的import：
 用于导入由另外一个模块导出的绑定，导入的模块默认运行在严格模式.在&lt;script&gt;标签import时，需要增加属性</t>
     </r>
@@ -1808,6 +2241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>不使用default：导出导入时</t>
     </r>
     <r>
@@ -1942,13 +2381,33 @@
     <t>使用require和import有什么区别？</t>
   </si>
   <si>
-    <t>require语法是commonJs/AMD的规范。
+    <r>
+      <t>require语法是commonJs/AMD的规范。
 require是一个node定义的全局方法
 导入时整个模块都导入
 可以在代码的任何地方使用
 运行时动态加载
-本质是赋值过程，普通的值传递或者引用传递,require后值不再变化
+本质是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋值过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，普通的值传递或者引用传递,require后值不再变化
 不可以在&lt;script&gt;标签中直接使用</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1984,7 +2443,7 @@
         <rFont val="圆体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>解构赋值</t>
+      <t>解构赋值，</t>
     </r>
     <r>
       <rPr>
@@ -2029,6 +2488,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>1丶普通函数this指向调用当前函数的对象，箭头函数的this在定义时就绑定了，指向所在</t>
     </r>
     <r>
@@ -2052,9 +2517,40 @@
     </r>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_44623068/article/details/90313951</t>
+  </si>
+  <si>
     <t>for...of有什么优点？可以用来遍历哪些类型的对象</t>
   </si>
   <si>
+    <t>class定义的类和使用function定义的类有什么区别？使用class定义的类的方法，</t>
+  </si>
+  <si>
+    <r>
+      <t>1.使用类实例化出来的对象的方法是不可遍历的（enumerable：false），而使用函数实例化的对象的方法是可遍历的
+2.默认使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严格模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.可以使用访问器(get/set属性保护)；非class使用Object.defineProperty</t>
+    </r>
+  </si>
+  <si>
     <t>结构赋值有什么特点？</t>
   </si>
   <si>
@@ -2073,6 +2569,9 @@
     <t>ES8新增了哪些功能</t>
   </si>
   <si>
+    <t>reduce</t>
+  </si>
+  <si>
     <t>vue</t>
   </si>
   <si>
@@ -2105,6 +2604,9 @@
     <t>服务端渲染SSR？</t>
   </si>
   <si>
+    <t>HTML5 给&lt;script&gt;元素新增了一个 onerror事件处理程序，但目前还没有得到任何浏览器支持</t>
+  </si>
+  <si>
     <t>git</t>
   </si>
   <si>
@@ -2130,6 +2632,9 @@
   </si>
   <si>
     <t>性能优化？</t>
+  </si>
+  <si>
+    <t>自己写一个插件</t>
   </si>
 </sst>
 </file>
@@ -2137,12 +2642,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2207,10 +2712,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2221,6 +2748,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2230,6 +2781,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,14 +2848,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -2275,77 +2855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2382,12 +2893,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -2398,6 +2903,37 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2428,19 +2964,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2452,25 +2988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,31 +3012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,67 +3030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2597,6 +3049,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,8 +3181,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2668,24 +3219,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2706,16 +3253,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2728,168 +3275,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2932,6 +3468,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2944,12 +3483,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2963,6 +3502,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3292,737 +3837,773 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="49.8482142857143" customWidth="1"/>
-    <col min="2" max="2" width="77.3839285714286" customWidth="1"/>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+    <col min="3" max="3" width="77.6785714285714" customWidth="1"/>
+    <col min="4" max="4" width="61.3035714285714" customWidth="1"/>
     <col min="5" max="5" width="69.6339285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="21" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" ht="101" spans="1:5">
+      <c r="A23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="21" t="s">
+      <c r="B23" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" ht="68" spans="1:5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="A26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" ht="353" spans="1:5">
+      <c r="A27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" ht="84" spans="1:5">
+      <c r="A28" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" ht="101" spans="1:5">
+      <c r="A29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" ht="68" spans="1:5">
+      <c r="A30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4047,12 +4628,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4097,25 +4678,30 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="46.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4127,10 +4713,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
@@ -4147,27 +4733,27 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="124" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="36" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" s="3"/>
@@ -4176,10 +4762,10 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="49" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" s="3"/>
@@ -4188,10 +4774,10 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
@@ -4200,13 +4786,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="3"/>
       <c r="G6" s="3"/>
@@ -4215,10 +4801,10 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A7" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
@@ -4227,10 +4813,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3"/>
@@ -4239,10 +4825,10 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
       <c r="A9" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
@@ -4251,10 +4837,10 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="124" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3"/>
       <c r="G10" s="3"/>
@@ -4263,10 +4849,10 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="88" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
@@ -4275,13 +4861,13 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="106" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
@@ -4290,10 +4876,10 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
@@ -4302,25 +4888,25 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3"/>
       <c r="G14" s="3"/>
       <c r="J14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="229.75" spans="1:13">
+    <row r="15" s="2" customFormat="1" ht="212.75" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3"/>
       <c r="G15" s="3"/>
@@ -4329,52 +4915,52 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
       <c r="A16" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="I16" s="21"/>
       <c r="K16" s="7"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J17" s="7"/>
       <c r="M17" s="7"/>
@@ -4382,44 +4968,47 @@
     <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J18" s="7"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D19" s="3"/>
       <c r="G19" s="3"/>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:13">
+    <row r="20" s="2" customFormat="1" ht="53" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D20" s="3"/>
       <c r="G20" s="3"/>
@@ -4428,13 +5017,13 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="370" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
@@ -4443,13 +5032,13 @@
     </row>
     <row r="22" s="2" customFormat="1" ht="229" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
@@ -4458,47 +5047,47 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="1:13">
       <c r="A23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="D23" s="15"/>
       <c r="G23" s="3"/>
       <c r="J23" s="7"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:1">
-      <c r="A24" s="15" t="s">
-        <v>107</v>
+      <c r="A24" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" ht="71" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" s="4" customFormat="1" ht="409.5" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="282" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
@@ -4512,16 +5101,16 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" s="3" customFormat="1" spans="1:1">
-      <c r="A30" s="17" t="s">
-        <v>115</v>
+      <c r="A30" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
@@ -4530,10 +5119,10 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="18" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
@@ -4542,10 +5131,10 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="106" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
@@ -4554,138 +5143,147 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
       <c r="J34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="88" spans="1:13">
+    <row r="35" s="2" customFormat="1" ht="124" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>124</v>
+        <v>136</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
       <c r="J35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="36" s="2" customFormat="1" ht="18" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
       <c r="J36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A37" s="7"/>
+    <row r="37" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A37" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
       <c r="J37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="176" spans="1:13">
+    <row r="38" s="2" customFormat="1" ht="212" spans="1:13">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
       <c r="J38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="39" s="2" customFormat="1" ht="176" spans="1:13">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
       <c r="J39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="106" spans="1:13">
-      <c r="A40" s="7" t="s">
-        <v>133</v>
-      </c>
+    <row r="40" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
       <c r="J40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="41" s="2" customFormat="1" ht="106" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>138</v>
+        <v>148</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
       <c r="J41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="141" spans="1:13">
+    <row r="42" s="2" customFormat="1" ht="409.5" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>142</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="G42" s="3"/>
       <c r="J42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="43" s="2" customFormat="1" ht="141" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="J43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:13">
+    <row r="44" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
       </c>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
@@ -4694,63 +5292,70 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="J45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:13">
+    <row r="46" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A46" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
       <c r="J46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="6"/>
+    <row r="47" s="2" customFormat="1" spans="1:13">
+      <c r="A47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:7">
-      <c r="A48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="6"/>
+      <c r="J47" s="7"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:13">
+      <c r="A48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:13">
-      <c r="A49" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="3"/>
+      <c r="J48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="6"/>
       <c r="G49" s="3"/>
-      <c r="J49" s="7"/>
-      <c r="M49" s="7"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:13">
-      <c r="A50" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="3"/>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="G50" s="3"/>
-      <c r="J50" s="7"/>
-      <c r="M50" s="7"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:13">
-      <c r="A51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="G51" s="3"/>
       <c r="J51" s="7"/>
       <c r="M51" s="7"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:13">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="G52" s="3"/>
       <c r="J52" s="7"/>
@@ -4764,7 +5369,9 @@
       <c r="M53" s="7"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:13">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="G54" s="3"/>
       <c r="J54" s="7"/>
@@ -5623,6 +6230,20 @@
       <c r="G176" s="3"/>
       <c r="J176" s="7"/>
       <c r="M176" s="7"/>
+    </row>
+    <row r="177" s="2" customFormat="1" spans="1:13">
+      <c r="A177" s="7"/>
+      <c r="D177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="J177" s="7"/>
+      <c r="M177" s="7"/>
+    </row>
+    <row r="178" s="2" customFormat="1" spans="1:13">
+      <c r="A178" s="7"/>
+      <c r="D178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="J178" s="7"/>
+      <c r="M178" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5642,14 +6263,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5677,35 +6298,40 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5743,7 +6369,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5768,22 +6394,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -20,13 +20,14 @@
     <sheet name="angular" sheetId="11" r:id="rId11"/>
     <sheet name="rxjs" sheetId="12" r:id="rId12"/>
     <sheet name="综合" sheetId="13" r:id="rId13"/>
+    <sheet name="设计模式" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -745,6 +746,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>CORS（跨域资源共享），是W3C的一个标准，它允许浏览器向服务端发起xmlHttpRequest请求。使用它需要浏览器和服务端都支持。目前大部分浏览器都支持该功能，并且浏览器会自动完成，不需要开发者和用户做其他的操作。所以实现cors的关键是服务器。
 服务端把跨域请求分为两类：</t>
     </r>
@@ -774,6 +781,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>简单请求流程：
 1.客户端发起跨域请求，浏览器</t>
     </r>
@@ -972,6 +985,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>非简单请求：
 非简单请求的CORS请求，会在正式通信之前，增加一次HTTP查询请求，称为"</t>
     </r>
@@ -1083,6 +1102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>CORS请求时</t>
     </r>
     <r>
@@ -1440,7 +1465,10 @@
       <t>可以操作函数内部的数据
 应用场景：
 1.利用闭包封装定义js模块，比如jquery插件。
-2.防抖函数</t>
+2.防抖函数
+3.柯里化
+4.bind
+5.promise</t>
     </r>
   </si>
   <si>
@@ -1734,6 +1762,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>dom事件流</t>
     </r>
     <r>
@@ -1914,6 +1948,27 @@
 reduceRight</t>
   </si>
   <si>
+    <t>蹦床函数</t>
+  </si>
+  <si>
+    <t>蹦床函数可以将递归转换成循环执行
+function trampoline(f){
+  while(f &amp;&amp; f instanceof Function){
+    f = f();
+  }
+  return f;
+}</t>
+  </si>
+  <si>
+    <t>in运算符</t>
+  </si>
+  <si>
+    <t>是一个二元运算符，左边是一个字符串或者可以转换成字符串的值，右边要求是一个对象或者数组</t>
+  </si>
+  <si>
+    <t>instanceof运算符</t>
+  </si>
+  <si>
     <t>es6</t>
   </si>
   <si>
@@ -1924,14 +1979,20 @@
 2.增加class关键字定义类,增加关键字static/super/constructor/new.target
 3.增加module概念，通过export导出，import导出
 4.增加箭头函数语法（this）
-5.模板语法
+5.模板字符串：
 6.增加for...of循环语法
 6.解构赋值
 7.增加第七种数据类型Symbol
 8.增加内置类Promise
 9.数组增加Array.of()/Array.from();
 10.增加Set/Map数据结构
-11.拓展运算符...</t>
+11.扩展运算符...</t>
+  </si>
+  <si>
+    <t>模板字符串</t>
+  </si>
+  <si>
+    <t>反引号，${vars},可以换行，空格和缩进会保留，大括号内部可以放入任意的 JavaScript 表达式，也可以调用函数。可以嵌套</t>
   </si>
   <si>
     <t>Promise的特性</t>
@@ -1956,6 +2017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>Symbol是Js的第七种数据类型。
 Symbol函数前</t>
     </r>
@@ -2031,7 +2098,18 @@
     <t>Symbol有什么作用？</t>
   </si>
   <si>
-    <t>定义受保护的私有属性或方法。</t>
+    <t>定义受保护的私有属性或方法。
+ES5 的对象属性名都是字符串，这容易造成属性名的冲突。比如，你使用了一个他人提供的对象，但又想为这个对象添加新的方法（mixin 模式），新方法的名字就有可能与现有方法产生冲突。如果有一种机制，保证每个属性的名字都是独一无二的就好了，这样就从根本上防止属性名的冲突。这就是 ES6 引入Symbol的原因</t>
+  </si>
+  <si>
+    <t>如果 Symbol 的参数是一个对象，就会调用该对象的toString方法，将其转为字符串，然后才生成一个 Symbol 值。
+const obj = {
+  toString() {
+    return 'abc';
+  }
+};
+const sym = Symbol(obj);
+sym // Symbol(abc)</t>
   </si>
   <si>
     <t xml:space="preserve">@@ -2064,6 +2142,9 @@
 let i = 10;</t>
   </si>
   <si>
+    <t>暂时性死区:在代码块内，使用let/const命令声明变量之前，该变量都是不可用的。</t>
+  </si>
+  <si>
     <t>局部变量：
 在处理构造函数的时候，可以通过let声明而不是闭包来创建一个或多个私有成员。
 使用var创建和闭包具有相同隐私模式的局部变量</t>
@@ -2382,6 +2463,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>require语法是commonJs/AMD的规范。
 require是一个node定义的全局方法
 导入时整个模块都导入
@@ -2411,6 +2498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">import是ES6的规范。
 是关键字
 使用解构赋值，可以选择导入模块的某一部分对象
@@ -2520,6 +2613,21 @@
     <t>https://blog.csdn.net/qq_44623068/article/details/90313951</t>
   </si>
   <si>
+    <t>为什么需要块级作用域？</t>
+  </si>
+  <si>
+    <t>1.变量提升导致不可预测的结果 2.用于计数的for循环变量泄露为全局变量</t>
+  </si>
+  <si>
+    <t>if (true) let x = 1;// 错，没有大括号，所以不存在块级作用域，而let只能出现在当前作用域的顶层</t>
+  </si>
+  <si>
+    <t>// 对
+if (true) {
+  let x = 1;
+}</t>
+  </si>
+  <si>
     <t>for...of有什么优点？可以用来遍历哪些类型的对象</t>
   </si>
   <si>
@@ -2527,6 +2635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.使用类实例化出来的对象的方法是不可遍历的（enumerable：false），而使用函数实例化的对象的方法是可遍历的
 2.默认使用</t>
     </r>
@@ -2551,28 +2665,630 @@
     </r>
   </si>
   <si>
-    <t>结构赋值有什么特点？</t>
-  </si>
-  <si>
-    <t>防抖函数里面的...arg做了哪些动作？</t>
-  </si>
-  <si>
-    <t>es7</t>
-  </si>
-  <si>
-    <t>ES7新增了哪些功能</t>
-  </si>
-  <si>
-    <t>es8</t>
-  </si>
-  <si>
-    <t>ES8新增了哪些功能</t>
+    <t>结构赋值的用途</t>
+  </si>
+  <si>
+    <t>1.交换变量
+2.函数返回多个值
+3.函数参数的定义，解构赋值可以方便地将一组参数与变量名对应起来。
+4.提取json数据
+5.给函数参数提供默认值
+6.遍历 Map 结构,for(let [key, value] of map)
+7.require加载模块时指定方法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新的 API，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Proxy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Reflect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Promise</t>
+    </r>
+  </si>
+  <si>
+    <t>Babel 默认只转换新的 JavaScript 句法（syntax），而不转换新的 API</t>
+  </si>
+  <si>
+    <t>尾调用</t>
+  </si>
+  <si>
+    <t>function f(x){
+  return g(x);
+}</t>
+  </si>
+  <si>
+    <t>尾递归调用</t>
+  </si>
+  <si>
+    <t>函数调用自身，称为递归。如果尾调用自身，就称为尾递归。只能在严格模式下运行
+递归改写成尾递归的方法：
+把所有用到的内部变量改写成函数的参数</t>
+  </si>
+  <si>
+    <t>ES6 为字符串添加了遍历器接口</t>
+  </si>
+  <si>
+    <t>1.字符串可以使用for。。。of遍历
+2.可以识别大于0xFFFF的码点</t>
+  </si>
+  <si>
+    <t>扩展运算符有什么作用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数调用：替代函数的 apply 方法(Math.max/Array:push/new Date()), 
+解构赋值等号的右边
+复制数组
+数组合并
+把字符串转换成数组
+正确识别字符串：x\uD83D\uDE80y'.length // 4
+[...'x\uD83D\uDE80y'].length // 3，四个字节的unicode
+任何定义了Iterator接口的对象都可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用扩展运算符转换为真正的数组</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展运算符内部调用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据结构的 Iterator 接口,
+&lt;作业&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Array.from</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将两类对象转为真正的数组：
+1.类似数组的对象（array-like object）:常见的有DOM操作返回的NodeList和arguments.所谓类似数组的对象，本质特征只有一点，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须有length属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.可遍历（iterable）的对象（包括 ES6 新增的数据结构 Set 和 Map）
+第二个参数，提供map方法
+返回字符串的长度Array.from(str).length,能正确处理各种Unicode字符。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于还没有部署该方法的浏览器，可以用Array.prototype.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法替代。</t>
+    </r>
+  </si>
+  <si>
+    <t>Array.of</t>
+  </si>
+  <si>
+    <t>将一组值转换为数组，为了弥补Array()构造函数的不足，可以使用：
+function ArrayOf(){
+  return [].slice.call(arguments);
+}</t>
+  </si>
+  <si>
+    <t>Array() // []
+Array(3) // [, , ,]
+Array(3, 11, 8) // [3, 11, 8] 参数个数不一样时，行为不一样，
+Array.of()//总是返回参数值组成的数组</t>
+  </si>
+  <si>
+    <t>Array.property.find/findIndex(fn, thisArg)</t>
+  </si>
+  <si>
+    <t>返回符合条件的第一个成员/下标，如果都不符合，返回-1</t>
+  </si>
+  <si>
+    <t>NaN].indexOf(NaN)
+// -1
+[NaN].findIndex(y =&gt; Object.is(NaN, y))
+// 0</t>
+  </si>
+  <si>
+    <t>Object.is</t>
+  </si>
+  <si>
+    <t>用于两个值比较：
+Object.is(+0, -0) // fale
+Object.is(NaN, NaN) // true</t>
+  </si>
+  <si>
+    <t>Array.property.fill(value,start,end)</t>
+  </si>
+  <si>
+    <t>如果填充的类型为对象，那么被赋值的是同一个内存地址的对象(浅拷贝)</t>
+  </si>
+  <si>
+    <t>Array.property.keys/values/entries</t>
+  </si>
+  <si>
+    <t>对数组对空位处理</t>
+  </si>
+  <si>
+    <t>ES6对数组空位都处理为undefined，ES5不同数组方法处理不一致：
+forEach(), filter(), reduce(), every() 和some()都会跳过空位。
+map()会跳过空位，但会保留这个值
+join()和toString()会将空位视为undefined，而undefined和null会被处理成空字符串。</t>
+  </si>
+  <si>
+    <t>Array.from(['a',,'b'])
+// [ "a", undefined, "b" ]</t>
+  </si>
+  <si>
+    <t>Array.property.sort</t>
+  </si>
+  <si>
+    <t>要求必须稳定排序。常见的排序算法之中，插入排序、合并排序、冒泡排序等都是稳定的，堆排序、快速排序等是不稳定的。</t>
+  </si>
+  <si>
+    <t>新增的Proxy有哪些应用场景？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Proxy注意点</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>has方法拦截hasProperty操作，in运算符会触发Proxy的has方法。虽然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for...in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环也用到了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算符，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拦截对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>for...in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>循环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不生效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="圆体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(ownKeys拦截for in)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="圆体-繁"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Iterator（遍历器）接口的作用</t>
+  </si>
+  <si>
+    <t>Iterator 的作用有三个：一是为各种数据结构，提供一个统一的、简便的访问接口；二是使得数据结构的成员能够按某种次序排列；三是 ES6 创造了一种新的遍历命令for...of循环，Iterator 接口主要供for...of消费。</t>
+  </si>
+  <si>
+    <t>原生具备 Iterator 接口的数据结构如下。
+Array
+Map
+Set
+String
+TypedArray
+函数的 arguments 对象
+NodeList 对象</t>
+  </si>
+  <si>
+    <t>为什么Object类型的对象不可以遍历</t>
+  </si>
+  <si>
+    <t>对象（Object）之所以没有默认部署 Iterator 接口，是因为对象的哪个属性先遍历，哪个属性后遍历是不确定的，需要开发者手动指定。本质上，遍历器是一种线性处理，对于任何非线性的数据结构，部署遍历器接口，就等于部署一种线性转换。</t>
+  </si>
+  <si>
+    <t>es7/ES2016</t>
+  </si>
+  <si>
+    <t>Array.property.includes</t>
+  </si>
+  <si>
+    <t>类似于indexOf,但是返回值是bool值，并且[NaN].includes(NaN)//true</t>
+  </si>
+  <si>
+    <t>遍历对象一共有哪几种方法？按什么方式排序？</t>
+  </si>
+  <si>
+    <t>属性的遍历
+ES6 一共有 5 种方法可以遍历对象的属性。
+（1）for...in
+for...in循环遍历对象自身的和继承的可枚举属性（不含 Symbol 属性）。
+（2）Object.keys(obj)
+Object.keys返回一个数组，包括对象自身的（不含继承的）所有可枚举属性（不含 Symbol 属性）的键名。
+（3）Object.getOwnPropertyNames(obj)
+Object.getOwnPropertyNames返回一个数组，包含对象自身的所有属性（不含 Symbol 属性，但是包括不可枚举属性）的键名。
+（4）Object.getOwnPropertySymbols(obj)
+Object.getOwnPropertySymbols返回一个数组，包含对象自身的所有 Symbol 属性的键名。
+（5）Reflect.ownKeys(obj)
+Reflect.ownKeys返回一个数组，包含对象自身的所有键名，不管键名是 Symbol 或字符串，也不管是否可枚举。</t>
+  </si>
+  <si>
+    <t>以上的 5 种方法遍历对象的键名，都遵守同样的属性遍历的次序规则。
+首先遍历所有数值键，按照数值升序排列。
+其次遍历所有字符串键，按照加入时间升序排列。
+最后遍历所有 Symbol 键，按照加入时间升序排列。</t>
+  </si>
+  <si>
+    <t>es8/ES2019</t>
+  </si>
+  <si>
+    <t>Array.property.flat
+Array.property.flatMap(fn, thisArg)</t>
+  </si>
+  <si>
+    <t>[1, 2, [3, [4, 5]]].flat()
+// [1, 2, 3, [4, 5]]
+[1, 2, [3, [4, 5]]].flat(2)
+// [1, 2, 3, 4, 5]
+[1, [2, [3]]].flat(Infinity)
+// [1, 2, 3]</t>
+  </si>
+  <si>
+    <t>flatMap只能展开一层</t>
+  </si>
+  <si>
+    <t>symbol.property.description</t>
+  </si>
+  <si>
+    <t>ES2019 提供了一个实例属性description，直接返回 Symbol 的描述。</t>
   </si>
   <si>
     <t>reduce</t>
   </si>
   <si>
-    <t>vue</t>
+    <t>ES2020</t>
+  </si>
+  <si>
+    <t>链判断运算符/Null判断运算符??</t>
+  </si>
+  <si>
+    <t>js包括解释阶段和运行阶段，解释阶段是什么时候发生？</t>
+  </si>
+  <si>
+    <t>es6 圆括号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES2019 </t>
+  </si>
+  <si>
+    <t>对函数实例的toString()方法做出了修改。</t>
+  </si>
+  <si>
+    <t>之前返回函数本身，但是会忽略注释和空格，修改后返回和源代码一模一样的代码</t>
+  </si>
+  <si>
+    <t>允许catch语句省略参数</t>
+  </si>
+  <si>
+    <t>try {
+  // ...
+} catch {
+  // ...
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES2020 </t>
+  </si>
+  <si>
+    <t>引入了一种新的数据类型 BigInt（大整数）</t>
+  </si>
+  <si>
+    <t>引入了“链判断运算符”（optional chaining operator）?.，简化上面的写法。
+const firstName = message?.body?.user?.firstName || 'default';
+const fooValue = myForm.querySelector('input[name=foo]')?.value</t>
+  </si>
+  <si>
+    <t>函数式编程：柯里化</t>
+  </si>
+  <si>
+    <t>将多参数的函数改成单参数的形式。使用闭包</t>
+  </si>
+  <si>
+    <t>什么是钩子函数？</t>
+  </si>
+  <si>
+    <t>是一种回调函数</t>
   </si>
   <si>
     <t>移动端如何实现自适应/相应式布局</t>
@@ -2622,12 +3338,24 @@
     <t>tree shaking</t>
   </si>
   <si>
+    <t>npx</t>
+  </si>
+  <si>
+    <t>REPL</t>
+  </si>
+  <si>
+    <t>Read Eval Print Loop:交互式解释器</t>
+  </si>
+  <si>
     <t>常见的算法有哪些？时间复杂度及空间复杂度分别是？</t>
   </si>
   <si>
     <t>深度优先和广度优先的区别？写个简单的例子</t>
   </si>
   <si>
+    <t>常见的排序算法之中，插入排序、合并排序、冒泡排序等都是稳定的，堆排序、快速排序等是不稳定的。</t>
+  </si>
+  <si>
     <t>从输入url到页面渲染完成，中间发生了什么</t>
   </si>
   <si>
@@ -2635,6 +3363,15 @@
   </si>
   <si>
     <t>自己写一个插件</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>函数式编程</t>
+  </si>
+  <si>
+    <t>垃圾回收机制</t>
   </si>
 </sst>
 </file>
@@ -2643,11 +3380,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2699,6 +3436,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -2719,30 +3463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2750,7 +3471,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2765,14 +3502,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2780,59 +3509,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2855,8 +3539,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2889,6 +3633,48 @@
     <font>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="圆体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC7254E"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF333333"/>
+      <name val="圆体-繁"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC7254E"/>
+      <name val="圆体-繁"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="圆体-繁"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
       <name val="圆体-简"/>
       <charset val="134"/>
     </font>
@@ -2964,7 +3750,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,79 +3888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3060,61 +3900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3132,13 +3924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3181,6 +3967,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3188,16 +3992,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3217,61 +4047,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3280,152 +4066,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3468,9 +4254,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3483,31 +4266,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -3839,8 +4628,8 @@
   <sheetPr/>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -3853,757 +4642,757 @@
   </cols>
   <sheetData>
     <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="152" spans="1:5">
-      <c r="A2" s="22" t="s">
+    <row r="2" ht="118" spans="1:5">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" ht="152" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" ht="168" spans="1:5">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="202" spans="1:5">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" ht="236" spans="1:5">
+      <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" ht="320" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" ht="404" spans="1:5">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="185" spans="1:5">
-      <c r="A9" s="22" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="202" spans="1:5">
+      <c r="A9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="219" spans="1:5">
-      <c r="A11" s="22" t="s">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" ht="236" spans="1:5">
+      <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" ht="118" spans="1:5">
-      <c r="A13" s="22" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" ht="152" spans="1:5">
+      <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" ht="68" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" ht="101" spans="1:5">
+      <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" ht="88" spans="1:5">
-      <c r="A17" s="22" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" ht="84" spans="1:5">
+      <c r="A17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" ht="219" spans="1:5">
-      <c r="A19" s="22" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" ht="252" spans="1:5">
+      <c r="A19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" ht="51" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" ht="84" spans="1:5">
+      <c r="A21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" ht="101" spans="1:5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" ht="68" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="22"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" ht="353" spans="1:5">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" ht="84" spans="1:5">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" ht="101" spans="1:5">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" ht="68" spans="1:5">
-      <c r="A30" s="22" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" ht="84" spans="1:5">
+      <c r="A30" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4615,25 +5404,30 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4678,33 +5472,64 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="46.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -4713,10 +5538,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
@@ -4791,7 +5616,7 @@
       <c r="B6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="3"/>
@@ -4859,7 +5684,7 @@
       <c r="J11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="106" spans="1:13">
+    <row r="12" s="2" customFormat="1" ht="159" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>87</v>
       </c>
@@ -5007,7 +5832,7 @@
       <c r="A20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="3"/>
@@ -5049,13 +5874,13 @@
       <c r="A23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="14"/>
       <c r="G23" s="3"/>
       <c r="J23" s="7"/>
       <c r="M23" s="7"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5063,7 +5888,7 @@
       <c r="A25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C25" t="s">
@@ -5076,7 +5901,7 @@
       <c r="A26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="3"/>
@@ -5086,7 +5911,7 @@
       <c r="A27" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="3"/>
@@ -5100,260 +5925,263 @@
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:1">
-      <c r="A30" s="18" t="s">
+    <row r="30" s="4" customFormat="1" ht="124" spans="1:7">
+      <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A31" s="7" t="s">
+      <c r="B30" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="D30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="36" spans="1:7">
+      <c r="A31" s="4" t="s">
         <v>129</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="J31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="18" spans="1:13">
-      <c r="A32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="8" t="s">
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:7">
+      <c r="A32" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="B32" s="16"/>
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="J32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="106" spans="1:13">
-      <c r="A33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>133</v>
-      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="2:7">
+      <c r="B33" s="16"/>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="J33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:13">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:1">
+      <c r="A34" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="J34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="124" spans="1:13">
-      <c r="A35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
       <c r="J35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="36" s="2" customFormat="1" ht="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
       <c r="J36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="37" s="2" customFormat="1" ht="18" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
       <c r="J37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="212" spans="1:13">
-      <c r="A38" s="7"/>
+    <row r="38" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A38" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
       <c r="J38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="176" spans="1:13">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>146</v>
+    <row r="39" s="2" customFormat="1" spans="1:13">
+      <c r="A39" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
       <c r="J39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="18" spans="1:13">
-      <c r="A40" s="7"/>
+    <row r="40" s="2" customFormat="1" ht="124" spans="1:13">
+      <c r="A40" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B40" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
       <c r="J40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="106" spans="1:13">
+    <row r="41" s="2" customFormat="1" ht="176" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
       <c r="J41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A42" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>153</v>
-      </c>
+    <row r="42" s="2" customFormat="1" spans="1:13">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
       <c r="J42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="141" spans="1:13">
-      <c r="A43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>157</v>
-      </c>
+    <row r="43" s="2" customFormat="1" spans="2:13">
+      <c r="B43" s="8"/>
+      <c r="D43" s="3"/>
       <c r="G43" s="3"/>
       <c r="J43" s="7"/>
       <c r="M43" s="7"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
       <c r="J44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:13">
-      <c r="A45" s="7" t="s">
-        <v>161</v>
+    <row r="45" s="2" customFormat="1" ht="212" spans="1:13">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="J45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="71" spans="1:13">
-      <c r="A46" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>163</v>
-      </c>
+    <row r="46" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
       <c r="J46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:13">
-      <c r="A47" s="7" t="s">
-        <v>164</v>
+    <row r="47" s="2" customFormat="1" ht="176" spans="1:13">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D47" s="3"/>
       <c r="G47" s="3"/>
       <c r="J47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:13">
-      <c r="A48" s="7" t="s">
-        <v>165</v>
+    <row r="48" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="D48" s="3"/>
       <c r="G48" s="3"/>
       <c r="J48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:7">
-      <c r="A49" s="4" t="s">
+    <row r="49" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="J49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="409.5" spans="1:13">
+      <c r="A50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="J50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="141" spans="1:13">
+      <c r="A51" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" s="4" customFormat="1" spans="1:7">
-      <c r="A50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:13">
-      <c r="A51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="3"/>
       <c r="G51" s="3"/>
       <c r="J51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:13">
+    <row r="52" s="2" customFormat="1" ht="71" spans="1:13">
       <c r="A52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
         <v>169</v>
       </c>
       <c r="D52" s="3"/>
@@ -5361,38 +6189,60 @@
       <c r="J52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:13">
-      <c r="A53" s="7"/>
+    <row r="53" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A53" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53"/>
       <c r="D53" s="3"/>
       <c r="G53" s="3"/>
       <c r="J53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:13">
-      <c r="A54" s="7" t="s">
-        <v>170</v>
-      </c>
+    <row r="54" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A54" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54"/>
       <c r="D54" s="3"/>
       <c r="G54" s="3"/>
       <c r="J54" s="7"/>
       <c r="M54" s="7"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:13">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="G55" s="3"/>
       <c r="J55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:13">
-      <c r="A56" s="7"/>
+    <row r="56" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="G56" s="3"/>
       <c r="J56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:13">
-      <c r="A57" s="7"/>
+    <row r="57" s="2" customFormat="1" ht="124" spans="1:13">
+      <c r="A57" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="G57" s="3"/>
       <c r="J57" s="7"/>
@@ -5400,258 +6250,376 @@
     </row>
     <row r="58" s="2" customFormat="1" spans="1:13">
       <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
       <c r="D58" s="3"/>
       <c r="G58" s="3"/>
       <c r="J58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" s="2" customFormat="1" spans="1:13">
-      <c r="A59" s="7"/>
+    <row r="59" s="2" customFormat="1" ht="46" spans="1:13">
+      <c r="A59" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="G59" s="3"/>
       <c r="J59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:13">
-      <c r="A60" s="7"/>
+    <row r="60" s="2" customFormat="1" ht="53" spans="1:13">
+      <c r="A60" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="G60" s="3"/>
       <c r="J60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:13">
-      <c r="A61" s="7"/>
+    <row r="61" s="2" customFormat="1" ht="53" spans="1:13">
+      <c r="A61" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="G61" s="3"/>
       <c r="J61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:13">
-      <c r="A62" s="7"/>
+    <row r="62" s="2" customFormat="1" ht="36" spans="1:13">
+      <c r="A62" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="G62" s="3"/>
       <c r="J62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" s="2" customFormat="1" spans="1:13">
-      <c r="A63" s="7"/>
+    <row r="63" s="2" customFormat="1" ht="141" spans="1:13">
+      <c r="A63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="G63" s="3"/>
       <c r="J63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" s="2" customFormat="1" spans="1:13">
-      <c r="A64" s="7"/>
+    <row r="64" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A64" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="J64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" s="2" customFormat="1" spans="1:13">
-      <c r="A65" s="7"/>
+    <row r="65" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A65" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="G65" s="3"/>
       <c r="J65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" s="2" customFormat="1" spans="1:13">
-      <c r="A66" s="7"/>
+    <row r="66" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A66" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="G66" s="3"/>
       <c r="J66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" s="2" customFormat="1" spans="1:13">
-      <c r="A67" s="7"/>
+    <row r="67" s="2" customFormat="1" ht="53" spans="1:13">
+      <c r="A67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="G67" s="3"/>
       <c r="J67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" s="2" customFormat="1" spans="1:13">
-      <c r="A68" s="7"/>
+    <row r="68" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A68" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="G68" s="3"/>
       <c r="J68" s="7"/>
       <c r="M68" s="7"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:13">
-      <c r="A69" s="7"/>
+      <c r="A69" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="8"/>
       <c r="D69" s="3"/>
       <c r="G69" s="3"/>
       <c r="J69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" s="2" customFormat="1" spans="1:13">
-      <c r="A70" s="7"/>
+    <row r="70" s="2" customFormat="1" ht="71" spans="1:13">
+      <c r="A70" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="G70" s="3"/>
       <c r="J70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:13">
-      <c r="A71" s="7"/>
+    <row r="71" s="2" customFormat="1" ht="36" spans="1:13">
+      <c r="A71" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="G71" s="3"/>
       <c r="J71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:13">
-      <c r="A72" s="7"/>
+    <row r="72" s="2" customFormat="1" ht="18" spans="1:13">
+      <c r="A72" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="G72" s="3"/>
       <c r="J72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:13">
-      <c r="A73" s="7"/>
+    <row r="73" s="2" customFormat="1" ht="36" spans="1:13">
+      <c r="A73" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="G73" s="3"/>
       <c r="J73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" s="2" customFormat="1" spans="1:13">
-      <c r="A74" s="7"/>
+    <row r="74" s="2" customFormat="1" ht="141" spans="1:13">
+      <c r="A74" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>215</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="G74" s="3"/>
       <c r="J74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" s="2" customFormat="1" spans="1:13">
-      <c r="A75" s="7"/>
+    <row r="75" s="2" customFormat="1" ht="53" spans="1:13">
+      <c r="A75" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="22"/>
       <c r="D75" s="3"/>
       <c r="G75" s="3"/>
       <c r="J75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" s="2" customFormat="1" spans="1:13">
-      <c r="A76" s="7"/>
-      <c r="D76" s="3"/>
+    <row r="76" s="4" customFormat="1" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="6"/>
       <c r="G76" s="3"/>
-      <c r="J76" s="7"/>
-      <c r="M76" s="7"/>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:13">
-      <c r="A77" s="7"/>
-      <c r="D77" s="3"/>
+    </row>
+    <row r="77" s="4" customFormat="1" spans="1:7">
+      <c r="A77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="G77" s="3"/>
-      <c r="J77" s="7"/>
-      <c r="M77" s="7"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="1:13">
-      <c r="A78" s="7"/>
-      <c r="D78" s="3"/>
+    </row>
+    <row r="78" s="4" customFormat="1" ht="282" spans="1:7">
+      <c r="A78" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="6"/>
       <c r="G78" s="3"/>
-      <c r="J78" s="7"/>
-      <c r="M78" s="7"/>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="1:13">
-      <c r="A79" s="7"/>
-      <c r="D79" s="3"/>
+    </row>
+    <row r="79" s="4" customFormat="1" spans="4:7">
+      <c r="D79" s="6"/>
       <c r="G79" s="3"/>
-      <c r="J79" s="7"/>
-      <c r="M79" s="7"/>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="1:13">
-      <c r="A80" s="7"/>
-      <c r="D80" s="3"/>
+    </row>
+    <row r="80" s="4" customFormat="1" spans="4:7">
+      <c r="D80" s="6"/>
       <c r="G80" s="3"/>
-      <c r="J80" s="7"/>
-      <c r="M80" s="7"/>
-    </row>
-    <row r="81" s="2" customFormat="1" spans="1:13">
-      <c r="A81" s="7"/>
-      <c r="D81" s="3"/>
+    </row>
+    <row r="81" s="4" customFormat="1" spans="4:7">
+      <c r="D81" s="6"/>
       <c r="G81" s="3"/>
-      <c r="J81" s="7"/>
-      <c r="M81" s="7"/>
-    </row>
-    <row r="82" s="2" customFormat="1" spans="1:13">
-      <c r="A82" s="7"/>
-      <c r="D82" s="3"/>
+    </row>
+    <row r="82" s="4" customFormat="1" spans="4:7">
+      <c r="D82" s="6"/>
       <c r="G82" s="3"/>
-      <c r="J82" s="7"/>
-      <c r="M82" s="7"/>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="1:13">
-      <c r="A83" s="7"/>
-      <c r="D83" s="3"/>
+    </row>
+    <row r="83" s="4" customFormat="1" spans="4:7">
+      <c r="D83" s="6"/>
       <c r="G83" s="3"/>
-      <c r="J83" s="7"/>
-      <c r="M83" s="7"/>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="1:13">
-      <c r="A84" s="7"/>
-      <c r="D84" s="3"/>
+    </row>
+    <row r="84" s="4" customFormat="1" spans="4:7">
+      <c r="D84" s="6"/>
       <c r="G84" s="3"/>
-      <c r="J84" s="7"/>
-      <c r="M84" s="7"/>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="1:13">
-      <c r="A85" s="7"/>
-      <c r="D85" s="3"/>
+    </row>
+    <row r="85" s="4" customFormat="1" spans="4:7">
+      <c r="D85" s="6"/>
       <c r="G85" s="3"/>
-      <c r="J85" s="7"/>
-      <c r="M85" s="7"/>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:13">
-      <c r="A86" s="7"/>
+      <c r="A86" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="G86" s="3"/>
       <c r="J86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:13">
-      <c r="A87" s="7"/>
+    <row r="87" s="2" customFormat="1" ht="106" spans="1:13">
+      <c r="A87" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="G87" s="3"/>
       <c r="J87" s="7"/>
       <c r="M87" s="7"/>
     </row>
     <row r="88" s="2" customFormat="1" spans="1:13">
-      <c r="A88" s="7"/>
+      <c r="A88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="G88" s="3"/>
       <c r="J88" s="7"/>
       <c r="M88" s="7"/>
     </row>
     <row r="89" s="2" customFormat="1" spans="1:13">
-      <c r="A89" s="7"/>
+      <c r="A89" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="G89" s="3"/>
       <c r="J89" s="7"/>
       <c r="M89" s="7"/>
     </row>
     <row r="90" s="2" customFormat="1" spans="1:13">
-      <c r="A90" s="7"/>
+      <c r="A90" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="G90" s="3"/>
       <c r="J90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" s="2" customFormat="1" spans="1:13">
-      <c r="A91" s="7"/>
+    <row r="91" s="2" customFormat="1" ht="36" spans="1:13">
+      <c r="A91" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="G91" s="3"/>
       <c r="J91" s="7"/>
       <c r="M91" s="7"/>
     </row>
     <row r="92" s="2" customFormat="1" spans="1:13">
-      <c r="A92" s="7"/>
+      <c r="A92" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="G92" s="3"/>
       <c r="J92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" s="2" customFormat="1" spans="1:13">
-      <c r="A93" s="7"/>
+    <row r="93" s="2" customFormat="1" spans="4:13">
       <c r="D93" s="3"/>
       <c r="G93" s="3"/>
       <c r="J93" s="7"/>
       <c r="M93" s="7"/>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:13">
-      <c r="A94" s="7"/>
+      <c r="A94" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="G94" s="3"/>
       <c r="J94" s="7"/>
@@ -5665,21 +6633,33 @@
       <c r="M95" s="7"/>
     </row>
     <row r="96" s="2" customFormat="1" spans="1:13">
-      <c r="A96" s="7"/>
+      <c r="A96" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="G96" s="3"/>
       <c r="J96" s="7"/>
       <c r="M96" s="7"/>
     </row>
     <row r="97" s="2" customFormat="1" spans="1:13">
-      <c r="A97" s="7"/>
+      <c r="A97" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="G97" s="3"/>
       <c r="J97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" s="2" customFormat="1" spans="1:13">
-      <c r="A98" s="7"/>
+    <row r="98" s="2" customFormat="1" ht="88" spans="1:13">
+      <c r="A98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="G98" s="3"/>
       <c r="J98" s="7"/>
@@ -5700,21 +6680,27 @@
       <c r="M100" s="7"/>
     </row>
     <row r="101" s="2" customFormat="1" spans="1:13">
-      <c r="A101" s="7"/>
+      <c r="A101" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="G101" s="3"/>
       <c r="J101" s="7"/>
       <c r="M101" s="7"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:13">
-      <c r="A102" s="7"/>
+      <c r="A102" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="G102" s="3"/>
       <c r="J102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" s="2" customFormat="1" spans="1:13">
-      <c r="A103" s="7"/>
+    <row r="103" s="2" customFormat="1" ht="124" spans="1:13">
+      <c r="A103" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="G103" s="3"/>
       <c r="J103" s="7"/>
@@ -5749,7 +6735,12 @@
       <c r="M107" s="7"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="1:13">
-      <c r="A108" s="7"/>
+      <c r="A108" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="G108" s="3"/>
       <c r="J108" s="7"/>
@@ -6244,6 +7235,251 @@
       <c r="G178" s="3"/>
       <c r="J178" s="7"/>
       <c r="M178" s="7"/>
+    </row>
+    <row r="179" s="2" customFormat="1" spans="1:13">
+      <c r="A179" s="7"/>
+      <c r="D179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="J179" s="7"/>
+      <c r="M179" s="7"/>
+    </row>
+    <row r="180" s="2" customFormat="1" spans="1:13">
+      <c r="A180" s="7"/>
+      <c r="D180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="J180" s="7"/>
+      <c r="M180" s="7"/>
+    </row>
+    <row r="181" s="2" customFormat="1" spans="1:13">
+      <c r="A181" s="7"/>
+      <c r="D181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="J181" s="7"/>
+      <c r="M181" s="7"/>
+    </row>
+    <row r="182" s="2" customFormat="1" spans="1:13">
+      <c r="A182" s="7"/>
+      <c r="D182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="J182" s="7"/>
+      <c r="M182" s="7"/>
+    </row>
+    <row r="183" s="2" customFormat="1" spans="1:13">
+      <c r="A183" s="7"/>
+      <c r="D183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="J183" s="7"/>
+      <c r="M183" s="7"/>
+    </row>
+    <row r="184" s="2" customFormat="1" spans="1:13">
+      <c r="A184" s="7"/>
+      <c r="D184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="J184" s="7"/>
+      <c r="M184" s="7"/>
+    </row>
+    <row r="185" s="2" customFormat="1" spans="1:13">
+      <c r="A185" s="7"/>
+      <c r="D185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="J185" s="7"/>
+      <c r="M185" s="7"/>
+    </row>
+    <row r="186" s="2" customFormat="1" spans="1:13">
+      <c r="A186" s="7"/>
+      <c r="D186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="J186" s="7"/>
+      <c r="M186" s="7"/>
+    </row>
+    <row r="187" s="2" customFormat="1" spans="1:13">
+      <c r="A187" s="7"/>
+      <c r="D187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="J187" s="7"/>
+      <c r="M187" s="7"/>
+    </row>
+    <row r="188" s="2" customFormat="1" spans="1:13">
+      <c r="A188" s="7"/>
+      <c r="D188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="J188" s="7"/>
+      <c r="M188" s="7"/>
+    </row>
+    <row r="189" s="2" customFormat="1" spans="1:13">
+      <c r="A189" s="7"/>
+      <c r="D189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="J189" s="7"/>
+      <c r="M189" s="7"/>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:13">
+      <c r="A190" s="7"/>
+      <c r="D190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="J190" s="7"/>
+      <c r="M190" s="7"/>
+    </row>
+    <row r="191" s="2" customFormat="1" spans="1:13">
+      <c r="A191" s="7"/>
+      <c r="D191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="J191" s="7"/>
+      <c r="M191" s="7"/>
+    </row>
+    <row r="192" s="2" customFormat="1" spans="1:13">
+      <c r="A192" s="7"/>
+      <c r="D192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="J192" s="7"/>
+      <c r="M192" s="7"/>
+    </row>
+    <row r="193" s="2" customFormat="1" spans="1:13">
+      <c r="A193" s="7"/>
+      <c r="D193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="J193" s="7"/>
+      <c r="M193" s="7"/>
+    </row>
+    <row r="194" s="2" customFormat="1" spans="1:13">
+      <c r="A194" s="7"/>
+      <c r="D194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="J194" s="7"/>
+      <c r="M194" s="7"/>
+    </row>
+    <row r="195" s="2" customFormat="1" spans="1:13">
+      <c r="A195" s="7"/>
+      <c r="D195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="J195" s="7"/>
+      <c r="M195" s="7"/>
+    </row>
+    <row r="196" s="2" customFormat="1" spans="1:13">
+      <c r="A196" s="7"/>
+      <c r="D196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="J196" s="7"/>
+      <c r="M196" s="7"/>
+    </row>
+    <row r="197" s="2" customFormat="1" spans="1:13">
+      <c r="A197" s="7"/>
+      <c r="D197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="J197" s="7"/>
+      <c r="M197" s="7"/>
+    </row>
+    <row r="198" s="2" customFormat="1" spans="1:13">
+      <c r="A198" s="7"/>
+      <c r="D198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="J198" s="7"/>
+      <c r="M198" s="7"/>
+    </row>
+    <row r="199" s="2" customFormat="1" spans="1:13">
+      <c r="A199" s="7"/>
+      <c r="D199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="J199" s="7"/>
+      <c r="M199" s="7"/>
+    </row>
+    <row r="200" s="2" customFormat="1" spans="1:13">
+      <c r="A200" s="7"/>
+      <c r="D200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="J200" s="7"/>
+      <c r="M200" s="7"/>
+    </row>
+    <row r="201" s="2" customFormat="1" spans="1:13">
+      <c r="A201" s="7"/>
+      <c r="D201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="J201" s="7"/>
+      <c r="M201" s="7"/>
+    </row>
+    <row r="202" s="2" customFormat="1" spans="1:13">
+      <c r="A202" s="7"/>
+      <c r="D202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="J202" s="7"/>
+      <c r="M202" s="7"/>
+    </row>
+    <row r="203" s="2" customFormat="1" spans="1:13">
+      <c r="A203" s="7"/>
+      <c r="D203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="J203" s="7"/>
+      <c r="M203" s="7"/>
+    </row>
+    <row r="204" s="2" customFormat="1" spans="1:13">
+      <c r="A204" s="7"/>
+      <c r="D204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="J204" s="7"/>
+      <c r="M204" s="7"/>
+    </row>
+    <row r="205" s="2" customFormat="1" spans="1:13">
+      <c r="A205" s="7"/>
+      <c r="D205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="J205" s="7"/>
+      <c r="M205" s="7"/>
+    </row>
+    <row r="206" s="2" customFormat="1" spans="1:13">
+      <c r="A206" s="7"/>
+      <c r="D206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="J206" s="7"/>
+      <c r="M206" s="7"/>
+    </row>
+    <row r="207" s="2" customFormat="1" spans="1:13">
+      <c r="A207" s="7"/>
+      <c r="D207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="J207" s="7"/>
+      <c r="M207" s="7"/>
+    </row>
+    <row r="208" s="2" customFormat="1" spans="1:13">
+      <c r="A208" s="7"/>
+      <c r="D208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="J208" s="7"/>
+      <c r="M208" s="7"/>
+    </row>
+    <row r="209" s="2" customFormat="1" spans="1:13">
+      <c r="A209" s="7"/>
+      <c r="D209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="J209" s="7"/>
+      <c r="M209" s="7"/>
+    </row>
+    <row r="210" s="2" customFormat="1" spans="1:13">
+      <c r="A210" s="7"/>
+      <c r="D210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="J210" s="7"/>
+      <c r="M210" s="7"/>
+    </row>
+    <row r="211" s="2" customFormat="1" spans="1:13">
+      <c r="A211" s="7"/>
+      <c r="D211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="J211" s="7"/>
+      <c r="M211" s="7"/>
+    </row>
+    <row r="212" s="2" customFormat="1" spans="1:13">
+      <c r="A212" s="7"/>
+      <c r="D212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="J212" s="7"/>
+      <c r="M212" s="7"/>
+    </row>
+    <row r="213" s="2" customFormat="1" spans="1:13">
+      <c r="A213" s="7"/>
+      <c r="D213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="J213" s="7"/>
+      <c r="M213" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6260,17 +7496,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="17.3571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6311,27 +7554,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6369,7 +7612,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6394,22 +7637,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6421,14 +7664,31 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="36.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/frontend.xlsx
+++ b/frontend.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11080" tabRatio="723" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11085" tabRatio="723" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="http" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="277">
   <si>
     <t>http常见消息头？消息头可以分为哪几类？</t>
   </si>
@@ -55,6 +55,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>响应头：
@@ -69,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>缓存服务器</t>
@@ -78,6 +80,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，当客户端</t>
@@ -88,6 +91,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>第二次</t>
@@ -97,6 +101,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请求同一个资源时，请求头和Vary中列出的请求头的值也一样时，才可以读缓存，否则要从原始服务器中请求资源。常常用在内容协商机制。常用的值：Accept-Language、User-Agent、Cookie。
@@ -109,6 +114,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通用头：
@@ -122,6 +128,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>代理服务器</t>
@@ -131,6 +138,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>添加，列出请求或者响应经过哪里代理服务器，用来追踪消息转发情况，防止循环请求
@@ -148,6 +156,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>特点：
@@ -158,6 +167,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>响应-请求</t>
@@ -167,6 +177,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">模式
@@ -177,6 +188,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>无状态</t>
@@ -186,6 +198,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：对于发送过的请求或响应都不做持久化处理
@@ -197,6 +210,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可扩展</t>
@@ -206,6 +220,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">，只要客户端和服务端达成语义一致，非常容易拓展。
@@ -276,6 +291,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>定义：一个url请求常常代表若干个不同的资源，而服务器根据请求头的信息，选择合适的资源且返回，这个机制叫做HTTP的内容协商机制。
@@ -291,6 +307,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如何实现？</t>
@@ -300,6 +317,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -312,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>q机制</t>
@@ -321,6 +340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，允许服务器近似匹配，还提供了vary首部供服务器告知下游的设备（如代理服务器）如何对请求估值；
@@ -333,6 +353,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Vary</t>
@@ -342,6 +363,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>实现
@@ -371,6 +393,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">简称CSP，用来防止跨站脚本攻击（XSS-Cross Site Scripting）.开发者配置网站的哪些外部资源可以加载和执行，实质就是给网站配置白名单。也可以通过meta标签实现。
@@ -384,6 +407,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（2）script-src不能使用unsafe-inline关键字（除非伴随一个nonce值），也不能允许设置data:URL。
@@ -417,6 +441,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>WebSocket是html5推出的协议。
@@ -434,6 +459,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>没有同源限制</t>
@@ -443,6 +469,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，客户端可以与任意服务器通信。
@@ -464,6 +491,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>TCP协议是面向连接的，可靠的，基于字节流的运输层协议，是全双工通信模式
@@ -475,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>服务端还可以发送消息（可能手头还有事情没处理完）</t>
@@ -484,6 +513,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -524,6 +554,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">HTTP/1.1 200 OK 
@@ -535,6 +566,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Transfer-Encoding: chunked
@@ -545,6 +577,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -562,6 +595,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Expires: Wed, 21 Oct 2015 07:28:00 GMT\r\n</t>
@@ -571,6 +605,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -606,6 +641,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>If-Modified-Since：日期，用来判断缓存是否可用，
@@ -616,6 +652,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：Etag值。
@@ -627,6 +664,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>If-Match:</t>
@@ -636,6 +674,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -649,6 +688,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>If-Range</t>
@@ -658,6 +698,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：Etag值/日期
@@ -669,6 +710,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>wiki应用</t>
@@ -678,6 +720,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">中的做法：假如在原始副本获取之后，服务器上所存储的文档已经被修改，那么对其作出的编辑会被拒绝提交。
@@ -688,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>If-Range</t>
@@ -697,6 +741,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 消息头的范围请求搭配使用，用来确保新的请求片段来自于未经修改的文档。</t>
@@ -750,6 +795,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CORS（跨域资源共享），是W3C的一个标准，它允许浏览器向服务端发起xmlHttpRequest请求。使用它需要浏览器和服务端都支持。目前大部分浏览器都支持该功能，并且浏览器会自动完成，不需要开发者和用户做其他的操作。所以实现cors的关键是服务器。
@@ -760,6 +806,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>简单请求和非简单请求</t>
@@ -769,6 +816,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。简单请求的条件：1，请求方法是HEAD/GET/POST，2）HTTP的头信息不超出以下几种字段：
@@ -785,6 +833,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>简单请求流程：
@@ -795,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动加上Origin</t>
@@ -804,6 +854,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请求头。
@@ -817,7 +868,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>⃣</t>
     </r>
@@ -826,6 +877,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Access-Control-Allow-Origin</t>
@@ -835,6 +887,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: http://api.bob.com --- </t>
@@ -844,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>必须</t>
@@ -852,6 +906,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，也可以是*</t>
@@ -861,6 +916,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -871,7 +927,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>⃣</t>
     </r>
@@ -880,6 +936,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>️</t>
@@ -889,6 +946,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Access-Control-Allow-Credentials</t>
@@ -898,6 +956,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>: true --- 可选，表示是否允许发送Cookie</t>
@@ -908,6 +967,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>开发者必须在AJAX请求中打开withCredentials属性。
@@ -920,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>withCredentials</t>
@@ -930,6 +991,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> = true;
@@ -940,6 +1002,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -950,7 +1013,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>⃣</t>
     </r>
@@ -959,6 +1022,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>️</t>
@@ -968,6 +1032,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Access-Control-Expose-Headers</t>
@@ -977,6 +1042,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: FooBar --- 可选
@@ -989,6 +1055,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非简单请求：
@@ -999,6 +1066,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>预检"请求</t>
@@ -1008,6 +1076,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（preflight）。
@@ -1019,6 +1088,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Origin</t>
@@ -1028,6 +1098,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: http://api.bob.com
@@ -1038,6 +1109,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Access-Control-Request-Method</t>
@@ -1047,6 +1119,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">: PUT
@@ -1057,6 +1130,7 @@
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Access-Control-Request-Headers</t>
@@ -1066,6 +1140,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>: X-Custom-Header
@@ -1106,6 +1181,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CORS请求时</t>
@@ -1115,6 +1191,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，XMLHttpRequest对象的getResponseHeader()方法只能拿到</t>
@@ -1124,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6个基本字段</t>
@@ -1133,6 +1211,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：Cache-Control、Content-Language、Content-Type、Expires、Last-Modified、Pragma。如果想拿到其他字段，就必须在Access-Control-Expose-Headers里面指定。</t>
@@ -1493,6 +1572,7 @@
         <sz val="10"/>
         <color rgb="FF111111"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>'unsafe-inline'</t>
@@ -1502,7 +1582,7 @@
         <sz val="12"/>
         <color rgb="FF111111"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>：允许执行页面内嵌的</t>
     </r>
@@ -1511,6 +1591,7 @@
         <sz val="10"/>
         <color rgb="FF111111"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>&amp;lt;script&gt;</t>
@@ -1520,7 +1601,7 @@
         <sz val="12"/>
         <color rgb="FF111111"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>标签和事件监听函数</t>
     </r>
@@ -2112,8 +2193,7 @@
 sym // Symbol(abc)</t>
   </si>
   <si>
-    <t xml:space="preserve">-let关键字声明的变量和var有什么不一样？</t>
+    <t>_x000D_let关键字声明的变量和var有什么不一样？</t>
   </si>
   <si>
     <t>作用域：let声明的变量的作用域是块级的，var声明的变量作用域是全局或者整个函数
@@ -2682,6 +2762,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新的 API，比如</t>
@@ -2691,7 +2772,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Iterator</t>
     </r>
@@ -2700,7 +2781,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2709,7 +2790,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Generator</t>
     </r>
@@ -2718,7 +2799,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2727,7 +2808,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Set</t>
     </r>
@@ -2736,7 +2817,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2745,7 +2826,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Map</t>
     </r>
@@ -2754,7 +2835,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2763,7 +2844,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Proxy</t>
     </r>
@@ -2772,7 +2853,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2781,7 +2862,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Reflect</t>
     </r>
@@ -2790,7 +2871,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2799,7 +2880,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Symbol</t>
     </r>
@@ -2808,7 +2889,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>、</t>
     </r>
@@ -2817,7 +2898,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>Promise</t>
     </r>
@@ -3051,7 +3132,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>for...in</t>
     </r>
@@ -3060,6 +3141,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>循环也用到了</t>
@@ -3069,7 +3151,7 @@
         <sz val="12"/>
         <color rgb="FFC7254E"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>in</t>
     </r>
@@ -3078,6 +3160,7 @@
         <sz val="11.5"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>运算符，</t>
@@ -3285,12 +3368,6 @@
     <t>将多参数的函数改成单参数的形式。使用闭包</t>
   </si>
   <si>
-    <t>什么是钩子函数？</t>
-  </si>
-  <si>
-    <t>是一种回调函数</t>
-  </si>
-  <si>
     <t>移动端如何实现自适应/相应式布局</t>
   </si>
   <si>
@@ -3299,6 +3376,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>html</t>
@@ -3308,6 +3386,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5有哪些新特性</t>
@@ -3372,19 +3451,67 @@
   </si>
   <si>
     <t>垃圾回收机制</t>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.v-for中为什么要使用key？</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为vue的虚拟dom的diff算法是同级节点比较，只要key和标签一样，就认为是同一个节点，可以直接复用。所以，v-for中使用key，有利于diff算法快速比对和复用节点；v-for指令产生的元素的结构是类似的，如果不使用key,还容易出现不可意料的错误。Key不要使用索引。</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">diff算法，同级比较
+key和标签，就近复用
+使用key,快
+不使用key,出错
+不能使用index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>patch</t>
+    </r>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.描述组件渲染过程</t>
+  </si>
+  <si>
+    <t>1.执行根组件的render方法，_x000D_
+2.如果是普通标签，渲染为Vnode；如果是组件，则调用createComponent方法创建一个组件_x000D_
+3.递归重复第二步，直到所有的组件都转换为Vnode，构成一颗虚拟dom树</t>
+  </si>
+  <si>
+    <t>3.父子组件的钩子函数的执行顺序</t>
+  </si>
+  <si>
+    <t>1.渲染顺序：父beforeCreate-&gt;父created-&gt;父beforeMount-&gt;子beforeCreate-&gt;子created-&gt;子beforeMount-&gt;子mounted-&gt;父-&gt;mounted_x000D_
+2.子组件更新顺序:父beforeUpdate-&gt;子beforeUpdate-&gt;子updated-&gt;父updated</t>
+  </si>
+  <si>
+    <t>4.父子组件通信方法有哪些</t>
+  </si>
+  <si>
+    <t>5.vue的生命周期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="50">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3408,6 +3535,7 @@
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3415,6 +3543,7 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3439,6 +3568,7 @@
       <sz val="11.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3446,6 +3576,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3453,162 +3584,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3621,7 +3611,7 @@
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -3640,19 +3630,20 @@
       <sz val="11.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC7254E"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.5"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -3683,29 +3674,33 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3713,6 +3708,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3720,10 +3716,18 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3732,13 +3736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3748,188 +3752,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3963,255 +3787,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4244,9 +3826,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4299,65 +3878,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFC00"/>
+      <color rgb="FFFFFC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4620,934 +4155,929 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.8482142857143" customWidth="1"/>
+    <col min="1" max="1" width="49.875" customWidth="1"/>
     <col min="2" max="2" width="64.875" customWidth="1"/>
-    <col min="3" max="3" width="77.6785714285714" customWidth="1"/>
-    <col min="4" max="4" width="61.3035714285714" customWidth="1"/>
-    <col min="5" max="5" width="69.6339285714286" customWidth="1"/>
+    <col min="3" max="3" width="77.625" customWidth="1"/>
+    <col min="4" max="4" width="61.25" customWidth="1"/>
+    <col min="5" max="5" width="69.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="219" spans="1:5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="224.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="118" spans="1:5">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:5" ht="120.75">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="168" spans="1:5">
-      <c r="A3" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="172.5">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" ht="84" spans="1:5">
-      <c r="A4" s="24" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="86.25">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="24" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" ht="236" spans="1:5">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="241.5">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" ht="404" spans="1:5">
-      <c r="A8" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="362.25">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="202" spans="1:5">
-      <c r="A9" s="24" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="189.75">
+      <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" ht="269" spans="1:5">
-      <c r="A10" s="24" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="276">
+      <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" ht="236" spans="1:5">
-      <c r="A11" s="24" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="224.25">
+      <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" ht="34" spans="1:5">
-      <c r="A12" s="24" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" ht="34.5">
+      <c r="A12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" ht="152" spans="1:5">
-      <c r="A13" s="24" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="138">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" ht="101" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="103.5">
+      <c r="A14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="68" spans="1:5">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="69">
+      <c r="A15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" ht="247" spans="1:5">
-      <c r="A16" s="24" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="199.5">
+      <c r="A16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" ht="84" spans="1:5">
-      <c r="A17" s="24" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="86.25">
+      <c r="A17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="24" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25">
+      <c r="A18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" ht="252" spans="1:5">
-      <c r="A19" s="24" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="244.5">
+      <c r="A19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" ht="51" spans="1:5">
-      <c r="A20" s="24" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="51.75">
+      <c r="A20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" ht="84" spans="1:5">
-      <c r="A21" s="24" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="51.75">
+      <c r="A21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="24" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25">
+      <c r="A22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" ht="101" spans="1:5">
-      <c r="A23" s="24" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="103.5">
+      <c r="A23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" ht="68" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="69">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="24" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25">
+      <c r="A26" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" ht="353" spans="1:5">
-      <c r="A27" s="24" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" ht="327.75">
+      <c r="A27" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" ht="84" spans="1:5">
-      <c r="A28" s="25" t="s">
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" ht="86.25">
+      <c r="A28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" ht="101" spans="1:5">
-      <c r="A29" s="24" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="103.5">
+      <c r="A29" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" ht="84" spans="1:5">
-      <c r="A30" s="24" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" ht="69">
+      <c r="A30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" ht="17.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:5" ht="17.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:5" ht="17.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" ht="17.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:5" ht="17.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="1:5" ht="17.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+    </row>
+    <row r="82" spans="1:5" ht="17.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+    </row>
+    <row r="86" spans="1:5" ht="17.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="87" spans="1:5" ht="17.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" ht="17.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="46.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="82.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="82.25" customWidth="1"/>
     <col min="3" max="3" width="78.125" customWidth="1"/>
     <col min="4" max="4" width="46.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="48.375" style="6" customWidth="1"/>
@@ -5556,14 +5086,14 @@
     <col min="13" max="13" width="21.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:7">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="124" spans="1:7">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="85.5">
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
@@ -5573,7 +5103,7 @@
       <c r="D2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="36" spans="1:13">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="28.5">
       <c r="A3" s="7" t="s">
         <v>68</v>
       </c>
@@ -5585,7 +5115,7 @@
       <c r="J3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="49" spans="1:13">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="39.75">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -5597,7 +5127,7 @@
       <c r="J4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="212" spans="1:13">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="171">
       <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
@@ -5609,14 +5139,14 @@
       <c r="J5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="212" spans="1:13">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="171">
       <c r="A6" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="3"/>
@@ -5624,7 +5154,7 @@
       <c r="J6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="57">
       <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
@@ -5636,7 +5166,7 @@
       <c r="J7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
+    <row r="8" spans="1:14" s="2" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>79</v>
       </c>
@@ -5648,7 +5178,7 @@
       <c r="J8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:13">
+    <row r="9" spans="1:14" s="2" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
@@ -5660,7 +5190,7 @@
       <c r="J9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="124" spans="1:13">
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="99.75">
       <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
@@ -5672,7 +5202,7 @@
       <c r="J10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="88" spans="1:13">
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="71.25">
       <c r="A11" s="7" t="s">
         <v>85</v>
       </c>
@@ -5684,7 +5214,7 @@
       <c r="J11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="159" spans="1:13">
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="128.25">
       <c r="A12" s="7" t="s">
         <v>87</v>
       </c>
@@ -5699,7 +5229,7 @@
       <c r="J12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:13">
+    <row r="13" spans="1:14" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>90</v>
       </c>
@@ -5711,7 +5241,7 @@
       <c r="J13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="15.75">
       <c r="A14" s="7" t="s">
         <v>92</v>
       </c>
@@ -5723,7 +5253,7 @@
       <c r="J14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="212.75" spans="1:13">
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="171">
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
@@ -5738,85 +5268,85 @@
       <c r="J15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="19.5" spans="1:14">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:14" s="2" customFormat="1" ht="28.5">
+      <c r="A16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
       <c r="K16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:13" s="2" customFormat="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>106</v>
       </c>
       <c r="J17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="19.5" spans="1:13">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:13" s="2" customFormat="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>105</v>
       </c>
       <c r="J18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="36.75" spans="1:13">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.5">
       <c r="A19" s="7" t="s">
         <v>108</v>
       </c>
@@ -5828,7 +5358,7 @@
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="53" spans="1:13">
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="42.75">
       <c r="A20" s="7" t="s">
         <v>110</v>
       </c>
@@ -5840,7 +5370,7 @@
       <c r="J20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="370" spans="1:13">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="299.25">
       <c r="A21" s="7" t="s">
         <v>112</v>
       </c>
@@ -5855,7 +5385,7 @@
       <c r="J21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="229" spans="1:13">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="185.25">
       <c r="A22" s="7" t="s">
         <v>115</v>
       </c>
@@ -5870,25 +5400,25 @@
       <c r="J22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:13">
+    <row r="23" spans="1:13" s="2" customFormat="1">
       <c r="A23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="G23" s="3"/>
       <c r="J23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:1">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:13" s="3" customFormat="1">
+      <c r="A24" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="71" spans="1:7">
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="57">
       <c r="A25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C25" t="s">
@@ -5897,73 +5427,73 @@
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" s="4" customFormat="1" ht="409.5" spans="1:7">
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="409.5">
       <c r="A26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" s="4" customFormat="1" ht="282" spans="1:7">
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="228">
       <c r="A27" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" s="4" customFormat="1" spans="4:7">
+    <row r="28" spans="1:13" s="4" customFormat="1">
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="4" customFormat="1" spans="4:7">
+    <row r="29" spans="1:13" s="4" customFormat="1">
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" s="4" customFormat="1" ht="124" spans="1:7">
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="99.75">
       <c r="A30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>128</v>
       </c>
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" s="4" customFormat="1" ht="36" spans="1:7">
+    <row r="31" spans="1:13" s="4" customFormat="1" ht="28.5">
       <c r="A31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:7">
+    <row r="32" spans="1:13" s="4" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" s="4" customFormat="1" spans="2:7">
-      <c r="B33" s="16"/>
+    <row r="33" spans="1:13" s="4" customFormat="1">
+      <c r="B33" s="15"/>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:1">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:13" s="3" customFormat="1">
+      <c r="A34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="212" spans="1:13">
+    <row r="35" spans="1:13" s="2" customFormat="1" ht="171">
       <c r="A35" s="7" t="s">
         <v>133</v>
       </c>
@@ -5975,7 +5505,7 @@
       <c r="J35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="36" spans="1:13">
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="28.5">
       <c r="A36" s="7" t="s">
         <v>135</v>
       </c>
@@ -5987,7 +5517,7 @@
       <c r="J36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="37" spans="1:13" s="2" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>137</v>
       </c>
@@ -5999,7 +5529,7 @@
       <c r="J37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="106" spans="1:13">
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="85.5">
       <c r="A38" s="7" t="s">
         <v>139</v>
       </c>
@@ -6011,7 +5541,7 @@
       <c r="J38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:13">
+    <row r="39" spans="1:13" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>141</v>
       </c>
@@ -6020,7 +5550,7 @@
       <c r="J39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="124" spans="1:13">
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="85.5">
       <c r="A40" s="7" t="s">
         <v>142</v>
       </c>
@@ -6035,14 +5565,14 @@
       <c r="J40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="176" spans="1:13">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="142.5">
       <c r="A41" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D41" s="3"/>
@@ -6050,7 +5580,7 @@
       <c r="J41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:13">
+    <row r="42" spans="1:13" s="2" customFormat="1">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="D42" s="3"/>
@@ -6058,14 +5588,14 @@
       <c r="J42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="2:13">
+    <row r="43" spans="1:13" s="2" customFormat="1">
       <c r="B43" s="8"/>
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
       <c r="J43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="44" spans="1:13" s="2" customFormat="1" ht="57">
       <c r="A44" s="7" t="s">
         <v>148</v>
       </c>
@@ -6080,7 +5610,7 @@
       <c r="J44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="212" spans="1:13">
+    <row r="45" spans="1:13" s="2" customFormat="1" ht="171">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
         <v>151</v>
@@ -6093,7 +5623,7 @@
       <c r="J45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="46" spans="1:13" s="2" customFormat="1">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
         <v>153</v>
@@ -6104,7 +5634,7 @@
       <c r="J46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="176" spans="1:13">
+    <row r="47" spans="1:13" s="2" customFormat="1" ht="142.5">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
         <v>154</v>
@@ -6117,7 +5647,7 @@
       <c r="J47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="48" spans="1:13" s="2" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
         <v>156</v>
@@ -6127,7 +5657,7 @@
       <c r="J48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="106" spans="1:13">
+    <row r="49" spans="1:13" s="2" customFormat="1" ht="85.5">
       <c r="A49" s="7" t="s">
         <v>157</v>
       </c>
@@ -6142,7 +5672,7 @@
       <c r="J49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="50" spans="1:13" s="2" customFormat="1" ht="342">
       <c r="A50" s="7" t="s">
         <v>160</v>
       </c>
@@ -6157,7 +5687,7 @@
       <c r="J50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="141" spans="1:13">
+    <row r="51" spans="1:13" s="2" customFormat="1" ht="114">
       <c r="A51" s="7" t="s">
         <v>163</v>
       </c>
@@ -6167,14 +5697,14 @@
       <c r="C51" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="18" t="s">
         <v>166</v>
       </c>
       <c r="G51" s="3"/>
       <c r="J51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="52" spans="1:13" s="2" customFormat="1" ht="42.75">
       <c r="A52" s="7" t="s">
         <v>167</v>
       </c>
@@ -6189,7 +5719,7 @@
       <c r="J52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="53" spans="1:13" s="2" customFormat="1">
       <c r="A53" s="7" t="s">
         <v>170</v>
       </c>
@@ -6202,8 +5732,8 @@
       <c r="J53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="71" spans="1:13">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:13" s="2" customFormat="1" ht="57">
+      <c r="A54" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -6215,7 +5745,7 @@
       <c r="J54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" s="2" customFormat="1" spans="1:13">
+    <row r="55" spans="1:13" s="2" customFormat="1">
       <c r="A55" s="7" t="s">
         <v>174</v>
       </c>
@@ -6224,7 +5754,7 @@
       <c r="J55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="56" spans="1:13" s="2" customFormat="1" ht="57">
       <c r="A56" s="7" t="s">
         <v>175</v>
       </c>
@@ -6236,7 +5766,7 @@
       <c r="J56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" s="2" customFormat="1" ht="124" spans="1:13">
+    <row r="57" spans="1:13" s="2" customFormat="1" ht="99.75">
       <c r="A57" s="7" t="s">
         <v>177</v>
       </c>
@@ -6248,7 +5778,7 @@
       <c r="J57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" s="2" customFormat="1" spans="1:13">
+    <row r="58" spans="1:13" s="2" customFormat="1">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="D58" s="3"/>
@@ -6256,8 +5786,8 @@
       <c r="J58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="46" spans="1:13">
-      <c r="A59" s="20" t="s">
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="31.5">
+      <c r="A59" s="19" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -6268,8 +5798,8 @@
       <c r="J59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="53" spans="1:13">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:13" s="2" customFormat="1" ht="42.75">
+      <c r="A60" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -6280,8 +5810,8 @@
       <c r="J60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="53" spans="1:13">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="42.75">
+      <c r="A61" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -6292,8 +5822,8 @@
       <c r="J61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="36" spans="1:13">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:13" s="2" customFormat="1" ht="28.5">
+      <c r="A62" s="19" t="s">
         <v>185</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -6304,7 +5834,7 @@
       <c r="J62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="141" spans="1:13">
+    <row r="63" spans="1:13" s="2" customFormat="1" ht="114">
       <c r="A63" s="7" t="s">
         <v>187</v>
       </c>
@@ -6319,7 +5849,7 @@
       <c r="J63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="106" spans="1:13">
+    <row r="64" spans="1:13" s="2" customFormat="1" ht="85.5">
       <c r="A64" s="7" t="s">
         <v>190</v>
       </c>
@@ -6334,7 +5864,7 @@
       <c r="J64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="65" spans="1:13" s="2" customFormat="1" ht="57">
       <c r="A65" s="7" t="s">
         <v>193</v>
       </c>
@@ -6349,7 +5879,7 @@
       <c r="J65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="66" spans="1:13" s="2" customFormat="1" ht="57">
       <c r="A66" s="7" t="s">
         <v>196</v>
       </c>
@@ -6364,7 +5894,7 @@
       <c r="J66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" s="2" customFormat="1" ht="53" spans="1:13">
+    <row r="67" spans="1:13" s="2" customFormat="1" ht="42.75">
       <c r="A67" s="7" t="s">
         <v>199</v>
       </c>
@@ -6376,7 +5906,7 @@
       <c r="J67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="68" spans="1:13" s="2" customFormat="1">
       <c r="A68" s="7" t="s">
         <v>201</v>
       </c>
@@ -6388,7 +5918,7 @@
       <c r="J68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" s="2" customFormat="1" spans="1:13">
+    <row r="69" spans="1:13" s="2" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>203</v>
       </c>
@@ -6398,7 +5928,7 @@
       <c r="J69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="71" spans="1:13">
+    <row r="70" spans="1:13" s="2" customFormat="1" ht="57">
       <c r="A70" s="7" t="s">
         <v>204</v>
       </c>
@@ -6413,7 +5943,7 @@
       <c r="J70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" s="2" customFormat="1" ht="36" spans="1:13">
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="28.5">
       <c r="A71" s="7" t="s">
         <v>207</v>
       </c>
@@ -6425,7 +5955,7 @@
       <c r="J71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" s="2" customFormat="1" ht="18" spans="1:13">
+    <row r="72" spans="1:13" s="2" customFormat="1">
       <c r="A72" s="7" t="s">
         <v>209</v>
       </c>
@@ -6437,7 +5967,7 @@
       <c r="J72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" s="2" customFormat="1" ht="36" spans="1:13">
+    <row r="73" spans="1:13" s="2" customFormat="1" ht="31.5">
       <c r="A73" s="7" t="s">
         <v>211</v>
       </c>
@@ -6449,14 +5979,14 @@
       <c r="J73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" s="2" customFormat="1" ht="141" spans="1:13">
+    <row r="74" spans="1:13" s="2" customFormat="1" ht="114">
       <c r="A74" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>215</v>
       </c>
       <c r="D74" s="3"/>
@@ -6464,27 +5994,27 @@
       <c r="J74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="53" spans="1:13">
+    <row r="75" spans="1:13" s="2" customFormat="1" ht="42.75">
       <c r="A75" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="22"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="3"/>
       <c r="G75" s="3"/>
       <c r="J75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:7">
+    <row r="76" spans="1:13" s="4" customFormat="1">
       <c r="A76" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D76" s="6"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" s="4" customFormat="1" spans="1:7">
+    <row r="77" spans="1:13" s="4" customFormat="1">
       <c r="A77" s="4" t="s">
         <v>219</v>
       </c>
@@ -6494,48 +6024,48 @@
       <c r="D77" s="6"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" s="4" customFormat="1" ht="282" spans="1:7">
+    <row r="78" spans="1:13" s="4" customFormat="1" ht="213.75">
       <c r="A78" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>223</v>
       </c>
       <c r="D78" s="6"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" s="4" customFormat="1" spans="4:7">
+    <row r="79" spans="1:13" s="4" customFormat="1">
       <c r="D79" s="6"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" s="4" customFormat="1" spans="4:7">
+    <row r="80" spans="1:13" s="4" customFormat="1">
       <c r="D80" s="6"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" s="4" customFormat="1" spans="4:7">
+    <row r="81" spans="1:13" s="4" customFormat="1">
       <c r="D81" s="6"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" s="4" customFormat="1" spans="4:7">
+    <row r="82" spans="1:13" s="4" customFormat="1">
       <c r="D82" s="6"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" s="4" customFormat="1" spans="4:7">
+    <row r="83" spans="1:13" s="4" customFormat="1">
       <c r="D83" s="6"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" s="4" customFormat="1" spans="4:7">
+    <row r="84" spans="1:13" s="4" customFormat="1">
       <c r="D84" s="6"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" s="4" customFormat="1" spans="4:7">
+    <row r="85" spans="1:13" s="4" customFormat="1">
       <c r="D85" s="6"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:13">
+    <row r="86" spans="1:13" s="2" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>224</v>
       </c>
@@ -6544,8 +6074,8 @@
       <c r="J86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" s="2" customFormat="1" ht="106" spans="1:13">
-      <c r="A87" s="18" t="s">
+    <row r="87" spans="1:13" s="2" customFormat="1" ht="85.5">
+      <c r="A87" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -6559,7 +6089,7 @@
       <c r="J87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" s="2" customFormat="1" spans="1:13">
+    <row r="88" spans="1:13" s="2" customFormat="1">
       <c r="A88" s="2" t="s">
         <v>228</v>
       </c>
@@ -6571,7 +6101,7 @@
       <c r="J88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" s="2" customFormat="1" spans="1:13">
+    <row r="89" spans="1:13" s="2" customFormat="1">
       <c r="A89" s="7" t="s">
         <v>230</v>
       </c>
@@ -6580,7 +6110,7 @@
       <c r="J89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" s="2" customFormat="1" spans="1:13">
+    <row r="90" spans="1:13" s="2" customFormat="1">
       <c r="A90" s="7" t="s">
         <v>231</v>
       </c>
@@ -6592,8 +6122,8 @@
       <c r="J90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="36" spans="1:13">
-      <c r="A91" s="18" t="s">
+    <row r="91" spans="1:13" s="2" customFormat="1" ht="28.5">
+      <c r="A91" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D91" s="3"/>
@@ -6601,7 +6131,7 @@
       <c r="J91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" s="2" customFormat="1" spans="1:13">
+    <row r="92" spans="1:13" s="2" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>234</v>
       </c>
@@ -6610,13 +6140,13 @@
       <c r="J92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" s="2" customFormat="1" spans="4:13">
+    <row r="93" spans="1:13" s="2" customFormat="1">
       <c r="D93" s="3"/>
       <c r="G93" s="3"/>
       <c r="J93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:13">
+    <row r="94" spans="1:13" s="2" customFormat="1">
       <c r="A94" s="7" t="s">
         <v>199</v>
       </c>
@@ -6625,14 +6155,14 @@
       <c r="J94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:13">
+    <row r="95" spans="1:13" s="2" customFormat="1">
       <c r="A95" s="7"/>
       <c r="D95" s="3"/>
       <c r="G95" s="3"/>
       <c r="J95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" s="2" customFormat="1" spans="1:13">
+    <row r="96" spans="1:13" s="2" customFormat="1">
       <c r="A96" s="7" t="s">
         <v>235</v>
       </c>
@@ -6641,7 +6171,7 @@
       <c r="J96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" s="2" customFormat="1" spans="1:13">
+    <row r="97" spans="1:13" s="2" customFormat="1">
       <c r="A97" s="2" t="s">
         <v>236</v>
       </c>
@@ -6653,7 +6183,7 @@
       <c r="J97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" s="2" customFormat="1" ht="88" spans="1:13">
+    <row r="98" spans="1:13" s="2" customFormat="1" ht="71.25">
       <c r="A98" s="2" t="s">
         <v>238</v>
       </c>
@@ -6665,21 +6195,21 @@
       <c r="J98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" s="2" customFormat="1" spans="1:13">
+    <row r="99" spans="1:13" s="2" customFormat="1">
       <c r="A99" s="7"/>
       <c r="D99" s="3"/>
       <c r="G99" s="3"/>
       <c r="J99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:13">
+    <row r="100" spans="1:13" s="2" customFormat="1">
       <c r="A100" s="7"/>
       <c r="D100" s="3"/>
       <c r="G100" s="3"/>
       <c r="J100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:13">
+    <row r="101" spans="1:13" s="2" customFormat="1">
       <c r="A101" s="7" t="s">
         <v>240</v>
       </c>
@@ -6688,7 +6218,7 @@
       <c r="J101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" s="2" customFormat="1" spans="1:13">
+    <row r="102" spans="1:13" s="2" customFormat="1">
       <c r="A102" s="7" t="s">
         <v>241</v>
       </c>
@@ -6697,8 +6227,8 @@
       <c r="J102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" s="2" customFormat="1" ht="124" spans="1:13">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:13" s="2" customFormat="1" ht="85.5">
+      <c r="A103" s="17" t="s">
         <v>242</v>
       </c>
       <c r="D103" s="3"/>
@@ -6706,35 +6236,35 @@
       <c r="J103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" s="2" customFormat="1" spans="1:13">
+    <row r="104" spans="1:13" s="2" customFormat="1">
       <c r="A104" s="7"/>
       <c r="D104" s="3"/>
       <c r="G104" s="3"/>
       <c r="J104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" s="2" customFormat="1" spans="1:13">
+    <row r="105" spans="1:13" s="2" customFormat="1">
       <c r="A105" s="7"/>
       <c r="D105" s="3"/>
       <c r="G105" s="3"/>
       <c r="J105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" s="2" customFormat="1" spans="1:13">
+    <row r="106" spans="1:13" s="2" customFormat="1">
       <c r="A106" s="7"/>
       <c r="D106" s="3"/>
       <c r="G106" s="3"/>
       <c r="J106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" s="2" customFormat="1" spans="1:13">
+    <row r="107" spans="1:13" s="2" customFormat="1">
       <c r="A107" s="7"/>
       <c r="D107" s="3"/>
       <c r="G107" s="3"/>
       <c r="J107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" s="2" customFormat="1" spans="1:13">
+    <row r="108" spans="1:13" s="2" customFormat="1">
       <c r="A108" s="7" t="s">
         <v>243</v>
       </c>
@@ -6746,735 +6276,735 @@
       <c r="J108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" s="2" customFormat="1" spans="1:13">
+    <row r="109" spans="1:13" s="2" customFormat="1">
       <c r="A109" s="7"/>
       <c r="D109" s="3"/>
       <c r="G109" s="3"/>
       <c r="J109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:13">
+    <row r="110" spans="1:13" s="2" customFormat="1">
       <c r="A110" s="7"/>
       <c r="D110" s="3"/>
       <c r="G110" s="3"/>
       <c r="J110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:13">
+    <row r="111" spans="1:13" s="2" customFormat="1">
       <c r="A111" s="7"/>
       <c r="D111" s="3"/>
       <c r="G111" s="3"/>
       <c r="J111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:13">
+    <row r="112" spans="1:13" s="2" customFormat="1">
       <c r="A112" s="7"/>
       <c r="D112" s="3"/>
       <c r="G112" s="3"/>
       <c r="J112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:13">
+    <row r="113" spans="1:13" s="2" customFormat="1">
       <c r="A113" s="7"/>
       <c r="D113" s="3"/>
       <c r="G113" s="3"/>
       <c r="J113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:13">
+    <row r="114" spans="1:13" s="2" customFormat="1">
       <c r="A114" s="7"/>
       <c r="D114" s="3"/>
       <c r="G114" s="3"/>
       <c r="J114" s="7"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" s="2" customFormat="1" spans="1:13">
+    <row r="115" spans="1:13" s="2" customFormat="1">
       <c r="A115" s="7"/>
       <c r="D115" s="3"/>
       <c r="G115" s="3"/>
       <c r="J115" s="7"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" s="2" customFormat="1" spans="1:13">
+    <row r="116" spans="1:13" s="2" customFormat="1">
       <c r="A116" s="7"/>
       <c r="D116" s="3"/>
       <c r="G116" s="3"/>
       <c r="J116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" s="2" customFormat="1" spans="1:13">
+    <row r="117" spans="1:13" s="2" customFormat="1">
       <c r="A117" s="7"/>
       <c r="D117" s="3"/>
       <c r="G117" s="3"/>
       <c r="J117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" s="2" customFormat="1" spans="1:13">
+    <row r="118" spans="1:13" s="2" customFormat="1">
       <c r="A118" s="7"/>
       <c r="D118" s="3"/>
       <c r="G118" s="3"/>
       <c r="J118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:13">
+    <row r="119" spans="1:13" s="2" customFormat="1">
       <c r="A119" s="7"/>
       <c r="D119" s="3"/>
       <c r="G119" s="3"/>
       <c r="J119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" s="2" customFormat="1" spans="1:13">
+    <row r="120" spans="1:13" s="2" customFormat="1">
       <c r="A120" s="7"/>
       <c r="D120" s="3"/>
       <c r="G120" s="3"/>
       <c r="J120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:13">
+    <row r="121" spans="1:13" s="2" customFormat="1">
       <c r="A121" s="7"/>
       <c r="D121" s="3"/>
       <c r="G121" s="3"/>
       <c r="J121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" s="2" customFormat="1" spans="1:13">
+    <row r="122" spans="1:13" s="2" customFormat="1">
       <c r="A122" s="7"/>
       <c r="D122" s="3"/>
       <c r="G122" s="3"/>
       <c r="J122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" s="2" customFormat="1" spans="1:13">
+    <row r="123" spans="1:13" s="2" customFormat="1">
       <c r="A123" s="7"/>
       <c r="D123" s="3"/>
       <c r="G123" s="3"/>
       <c r="J123" s="7"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" s="2" customFormat="1" spans="1:13">
+    <row r="124" spans="1:13" s="2" customFormat="1">
       <c r="A124" s="7"/>
       <c r="D124" s="3"/>
       <c r="G124" s="3"/>
       <c r="J124" s="7"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:13">
+    <row r="125" spans="1:13" s="2" customFormat="1">
       <c r="A125" s="7"/>
       <c r="D125" s="3"/>
       <c r="G125" s="3"/>
       <c r="J125" s="7"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" s="2" customFormat="1" spans="1:13">
+    <row r="126" spans="1:13" s="2" customFormat="1">
       <c r="A126" s="7"/>
       <c r="D126" s="3"/>
       <c r="G126" s="3"/>
       <c r="J126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" s="2" customFormat="1" spans="1:13">
+    <row r="127" spans="1:13" s="2" customFormat="1">
       <c r="A127" s="7"/>
       <c r="D127" s="3"/>
       <c r="G127" s="3"/>
       <c r="J127" s="7"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:13">
+    <row r="128" spans="1:13" s="2" customFormat="1">
       <c r="A128" s="7"/>
       <c r="D128" s="3"/>
       <c r="G128" s="3"/>
       <c r="J128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:13">
+    <row r="129" spans="1:13" s="2" customFormat="1">
       <c r="A129" s="7"/>
       <c r="D129" s="3"/>
       <c r="G129" s="3"/>
       <c r="J129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:13">
+    <row r="130" spans="1:13" s="2" customFormat="1">
       <c r="A130" s="7"/>
       <c r="D130" s="3"/>
       <c r="G130" s="3"/>
       <c r="J130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:13">
+    <row r="131" spans="1:13" s="2" customFormat="1">
       <c r="A131" s="7"/>
       <c r="D131" s="3"/>
       <c r="G131" s="3"/>
       <c r="J131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:13">
+    <row r="132" spans="1:13" s="2" customFormat="1">
       <c r="A132" s="7"/>
       <c r="D132" s="3"/>
       <c r="G132" s="3"/>
       <c r="J132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:13">
+    <row r="133" spans="1:13" s="2" customFormat="1">
       <c r="A133" s="7"/>
       <c r="D133" s="3"/>
       <c r="G133" s="3"/>
       <c r="J133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:13">
+    <row r="134" spans="1:13" s="2" customFormat="1">
       <c r="A134" s="7"/>
       <c r="D134" s="3"/>
       <c r="G134" s="3"/>
       <c r="J134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:13">
+    <row r="135" spans="1:13" s="2" customFormat="1">
       <c r="A135" s="7"/>
       <c r="D135" s="3"/>
       <c r="G135" s="3"/>
       <c r="J135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:13">
+    <row r="136" spans="1:13" s="2" customFormat="1">
       <c r="A136" s="7"/>
       <c r="D136" s="3"/>
       <c r="G136" s="3"/>
       <c r="J136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:13">
+    <row r="137" spans="1:13" s="2" customFormat="1">
       <c r="A137" s="7"/>
       <c r="D137" s="3"/>
       <c r="G137" s="3"/>
       <c r="J137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:13">
+    <row r="138" spans="1:13" s="2" customFormat="1">
       <c r="A138" s="7"/>
       <c r="D138" s="3"/>
       <c r="G138" s="3"/>
       <c r="J138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" s="2" customFormat="1" spans="1:13">
+    <row r="139" spans="1:13" s="2" customFormat="1">
       <c r="A139" s="7"/>
       <c r="D139" s="3"/>
       <c r="G139" s="3"/>
       <c r="J139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" s="2" customFormat="1" spans="1:13">
+    <row r="140" spans="1:13" s="2" customFormat="1">
       <c r="A140" s="7"/>
       <c r="D140" s="3"/>
       <c r="G140" s="3"/>
       <c r="J140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" s="2" customFormat="1" spans="1:13">
+    <row r="141" spans="1:13" s="2" customFormat="1">
       <c r="A141" s="7"/>
       <c r="D141" s="3"/>
       <c r="G141" s="3"/>
       <c r="J141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:13">
+    <row r="142" spans="1:13" s="2" customFormat="1">
       <c r="A142" s="7"/>
       <c r="D142" s="3"/>
       <c r="G142" s="3"/>
       <c r="J142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" s="2" customFormat="1" spans="1:13">
+    <row r="143" spans="1:13" s="2" customFormat="1">
       <c r="A143" s="7"/>
       <c r="D143" s="3"/>
       <c r="G143" s="3"/>
       <c r="J143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" s="2" customFormat="1" spans="1:13">
+    <row r="144" spans="1:13" s="2" customFormat="1">
       <c r="A144" s="7"/>
       <c r="D144" s="3"/>
       <c r="G144" s="3"/>
       <c r="J144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" s="2" customFormat="1" spans="1:13">
+    <row r="145" spans="1:13" s="2" customFormat="1">
       <c r="A145" s="7"/>
       <c r="D145" s="3"/>
       <c r="G145" s="3"/>
       <c r="J145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" s="2" customFormat="1" spans="1:13">
+    <row r="146" spans="1:13" s="2" customFormat="1">
       <c r="A146" s="7"/>
       <c r="D146" s="3"/>
       <c r="G146" s="3"/>
       <c r="J146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" s="2" customFormat="1" spans="1:13">
+    <row r="147" spans="1:13" s="2" customFormat="1">
       <c r="A147" s="7"/>
       <c r="D147" s="3"/>
       <c r="G147" s="3"/>
       <c r="J147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" s="2" customFormat="1" spans="1:13">
+    <row r="148" spans="1:13" s="2" customFormat="1">
       <c r="A148" s="7"/>
       <c r="D148" s="3"/>
       <c r="G148" s="3"/>
       <c r="J148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:13">
+    <row r="149" spans="1:13" s="2" customFormat="1">
       <c r="A149" s="7"/>
       <c r="D149" s="3"/>
       <c r="G149" s="3"/>
       <c r="J149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" s="2" customFormat="1" spans="1:13">
+    <row r="150" spans="1:13" s="2" customFormat="1">
       <c r="A150" s="7"/>
       <c r="D150" s="3"/>
       <c r="G150" s="3"/>
       <c r="J150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:13">
+    <row r="151" spans="1:13" s="2" customFormat="1">
       <c r="A151" s="7"/>
       <c r="D151" s="3"/>
       <c r="G151" s="3"/>
       <c r="J151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" s="2" customFormat="1" spans="1:13">
+    <row r="152" spans="1:13" s="2" customFormat="1">
       <c r="A152" s="7"/>
       <c r="D152" s="3"/>
       <c r="G152" s="3"/>
       <c r="J152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:13">
+    <row r="153" spans="1:13" s="2" customFormat="1">
       <c r="A153" s="7"/>
       <c r="D153" s="3"/>
       <c r="G153" s="3"/>
       <c r="J153" s="7"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:13">
+    <row r="154" spans="1:13" s="2" customFormat="1">
       <c r="A154" s="7"/>
       <c r="D154" s="3"/>
       <c r="G154" s="3"/>
       <c r="J154" s="7"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:13">
+    <row r="155" spans="1:13" s="2" customFormat="1">
       <c r="A155" s="7"/>
       <c r="D155" s="3"/>
       <c r="G155" s="3"/>
       <c r="J155" s="7"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:13">
+    <row r="156" spans="1:13" s="2" customFormat="1">
       <c r="A156" s="7"/>
       <c r="D156" s="3"/>
       <c r="G156" s="3"/>
       <c r="J156" s="7"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:13">
+    <row r="157" spans="1:13" s="2" customFormat="1">
       <c r="A157" s="7"/>
       <c r="D157" s="3"/>
       <c r="G157" s="3"/>
       <c r="J157" s="7"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:13">
+    <row r="158" spans="1:13" s="2" customFormat="1">
       <c r="A158" s="7"/>
       <c r="D158" s="3"/>
       <c r="G158" s="3"/>
       <c r="J158" s="7"/>
       <c r="M158" s="7"/>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:13">
+    <row r="159" spans="1:13" s="2" customFormat="1">
       <c r="A159" s="7"/>
       <c r="D159" s="3"/>
       <c r="G159" s="3"/>
       <c r="J159" s="7"/>
       <c r="M159" s="7"/>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:13">
+    <row r="160" spans="1:13" s="2" customFormat="1">
       <c r="A160" s="7"/>
       <c r="D160" s="3"/>
       <c r="G160" s="3"/>
       <c r="J160" s="7"/>
       <c r="M160" s="7"/>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:13">
+    <row r="161" spans="1:13" s="2" customFormat="1">
       <c r="A161" s="7"/>
       <c r="D161" s="3"/>
       <c r="G161" s="3"/>
       <c r="J161" s="7"/>
       <c r="M161" s="7"/>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:13">
+    <row r="162" spans="1:13" s="2" customFormat="1">
       <c r="A162" s="7"/>
       <c r="D162" s="3"/>
       <c r="G162" s="3"/>
       <c r="J162" s="7"/>
       <c r="M162" s="7"/>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:13">
+    <row r="163" spans="1:13" s="2" customFormat="1">
       <c r="A163" s="7"/>
       <c r="D163" s="3"/>
       <c r="G163" s="3"/>
       <c r="J163" s="7"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:13">
+    <row r="164" spans="1:13" s="2" customFormat="1">
       <c r="A164" s="7"/>
       <c r="D164" s="3"/>
       <c r="G164" s="3"/>
       <c r="J164" s="7"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:13">
+    <row r="165" spans="1:13" s="2" customFormat="1">
       <c r="A165" s="7"/>
       <c r="D165" s="3"/>
       <c r="G165" s="3"/>
       <c r="J165" s="7"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:13">
+    <row r="166" spans="1:13" s="2" customFormat="1">
       <c r="A166" s="7"/>
       <c r="D166" s="3"/>
       <c r="G166" s="3"/>
       <c r="J166" s="7"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:13">
+    <row r="167" spans="1:13" s="2" customFormat="1">
       <c r="A167" s="7"/>
       <c r="D167" s="3"/>
       <c r="G167" s="3"/>
       <c r="J167" s="7"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:13">
+    <row r="168" spans="1:13" s="2" customFormat="1">
       <c r="A168" s="7"/>
       <c r="D168" s="3"/>
       <c r="G168" s="3"/>
       <c r="J168" s="7"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" s="2" customFormat="1" spans="1:13">
+    <row r="169" spans="1:13" s="2" customFormat="1">
       <c r="A169" s="7"/>
       <c r="D169" s="3"/>
       <c r="G169" s="3"/>
       <c r="J169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:13">
+    <row r="170" spans="1:13" s="2" customFormat="1">
       <c r="A170" s="7"/>
       <c r="D170" s="3"/>
       <c r="G170" s="3"/>
       <c r="J170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" s="2" customFormat="1" spans="1:13">
+    <row r="171" spans="1:13" s="2" customFormat="1">
       <c r="A171" s="7"/>
       <c r="D171" s="3"/>
       <c r="G171" s="3"/>
       <c r="J171" s="7"/>
       <c r="M171" s="7"/>
     </row>
-    <row r="172" s="2" customFormat="1" spans="1:13">
+    <row r="172" spans="1:13" s="2" customFormat="1">
       <c r="A172" s="7"/>
       <c r="D172" s="3"/>
       <c r="G172" s="3"/>
       <c r="J172" s="7"/>
       <c r="M172" s="7"/>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:13">
+    <row r="173" spans="1:13" s="2" customFormat="1">
       <c r="A173" s="7"/>
       <c r="D173" s="3"/>
       <c r="G173" s="3"/>
       <c r="J173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:13">
+    <row r="174" spans="1:13" s="2" customFormat="1">
       <c r="A174" s="7"/>
       <c r="D174" s="3"/>
       <c r="G174" s="3"/>
       <c r="J174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:13">
+    <row r="175" spans="1:13" s="2" customFormat="1">
       <c r="A175" s="7"/>
       <c r="D175" s="3"/>
       <c r="G175" s="3"/>
       <c r="J175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:13">
+    <row r="176" spans="1:13" s="2" customFormat="1">
       <c r="A176" s="7"/>
       <c r="D176" s="3"/>
       <c r="G176" s="3"/>
       <c r="J176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:13">
+    <row r="177" spans="1:13" s="2" customFormat="1">
       <c r="A177" s="7"/>
       <c r="D177" s="3"/>
       <c r="G177" s="3"/>
       <c r="J177" s="7"/>
       <c r="M177" s="7"/>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:13">
+    <row r="178" spans="1:13" s="2" customFormat="1">
       <c r="A178" s="7"/>
       <c r="D178" s="3"/>
       <c r="G178" s="3"/>
       <c r="J178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:13">
+    <row r="179" spans="1:13" s="2" customFormat="1">
       <c r="A179" s="7"/>
       <c r="D179" s="3"/>
       <c r="G179" s="3"/>
       <c r="J179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:13">
+    <row r="180" spans="1:13" s="2" customFormat="1">
       <c r="A180" s="7"/>
       <c r="D180" s="3"/>
       <c r="G180" s="3"/>
       <c r="J180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:13">
+    <row r="181" spans="1:13" s="2" customFormat="1">
       <c r="A181" s="7"/>
       <c r="D181" s="3"/>
       <c r="G181" s="3"/>
       <c r="J181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:13">
+    <row r="182" spans="1:13" s="2" customFormat="1">
       <c r="A182" s="7"/>
       <c r="D182" s="3"/>
       <c r="G182" s="3"/>
       <c r="J182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" s="2" customFormat="1" spans="1:13">
+    <row r="183" spans="1:13" s="2" customFormat="1">
       <c r="A183" s="7"/>
       <c r="D183" s="3"/>
       <c r="G183" s="3"/>
       <c r="J183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:13">
+    <row r="184" spans="1:13" s="2" customFormat="1">
       <c r="A184" s="7"/>
       <c r="D184" s="3"/>
       <c r="G184" s="3"/>
       <c r="J184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" s="2" customFormat="1" spans="1:13">
+    <row r="185" spans="1:13" s="2" customFormat="1">
       <c r="A185" s="7"/>
       <c r="D185" s="3"/>
       <c r="G185" s="3"/>
       <c r="J185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" s="2" customFormat="1" spans="1:13">
+    <row r="186" spans="1:13" s="2" customFormat="1">
       <c r="A186" s="7"/>
       <c r="D186" s="3"/>
       <c r="G186" s="3"/>
       <c r="J186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" s="2" customFormat="1" spans="1:13">
+    <row r="187" spans="1:13" s="2" customFormat="1">
       <c r="A187" s="7"/>
       <c r="D187" s="3"/>
       <c r="G187" s="3"/>
       <c r="J187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" s="2" customFormat="1" spans="1:13">
+    <row r="188" spans="1:13" s="2" customFormat="1">
       <c r="A188" s="7"/>
       <c r="D188" s="3"/>
       <c r="G188" s="3"/>
       <c r="J188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" s="2" customFormat="1" spans="1:13">
+    <row r="189" spans="1:13" s="2" customFormat="1">
       <c r="A189" s="7"/>
       <c r="D189" s="3"/>
       <c r="G189" s="3"/>
       <c r="J189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" s="2" customFormat="1" spans="1:13">
+    <row r="190" spans="1:13" s="2" customFormat="1">
       <c r="A190" s="7"/>
       <c r="D190" s="3"/>
       <c r="G190" s="3"/>
       <c r="J190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:13">
+    <row r="191" spans="1:13" s="2" customFormat="1">
       <c r="A191" s="7"/>
       <c r="D191" s="3"/>
       <c r="G191" s="3"/>
       <c r="J191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" s="2" customFormat="1" spans="1:13">
+    <row r="192" spans="1:13" s="2" customFormat="1">
       <c r="A192" s="7"/>
       <c r="D192" s="3"/>
       <c r="G192" s="3"/>
       <c r="J192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" s="2" customFormat="1" spans="1:13">
+    <row r="193" spans="1:13" s="2" customFormat="1">
       <c r="A193" s="7"/>
       <c r="D193" s="3"/>
       <c r="G193" s="3"/>
       <c r="J193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" s="2" customFormat="1" spans="1:13">
+    <row r="194" spans="1:13" s="2" customFormat="1">
       <c r="A194" s="7"/>
       <c r="D194" s="3"/>
       <c r="G194" s="3"/>
       <c r="J194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" s="2" customFormat="1" spans="1:13">
+    <row r="195" spans="1:13" s="2" customFormat="1">
       <c r="A195" s="7"/>
       <c r="D195" s="3"/>
       <c r="G195" s="3"/>
       <c r="J195" s="7"/>
       <c r="M195" s="7"/>
     </row>
-    <row r="196" s="2" customFormat="1" spans="1:13">
+    <row r="196" spans="1:13" s="2" customFormat="1">
       <c r="A196" s="7"/>
       <c r="D196" s="3"/>
       <c r="G196" s="3"/>
       <c r="J196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" s="2" customFormat="1" spans="1:13">
+    <row r="197" spans="1:13" s="2" customFormat="1">
       <c r="A197" s="7"/>
       <c r="D197" s="3"/>
       <c r="G197" s="3"/>
       <c r="J197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:13">
+    <row r="198" spans="1:13" s="2" customFormat="1">
       <c r="A198" s="7"/>
       <c r="D198" s="3"/>
       <c r="G198" s="3"/>
       <c r="J198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" s="2" customFormat="1" spans="1:13">
+    <row r="199" spans="1:13" s="2" customFormat="1">
       <c r="A199" s="7"/>
       <c r="D199" s="3"/>
       <c r="G199" s="3"/>
       <c r="J199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" s="2" customFormat="1" spans="1:13">
+    <row r="200" spans="1:13" s="2" customFormat="1">
       <c r="A200" s="7"/>
       <c r="D200" s="3"/>
       <c r="G200" s="3"/>
       <c r="J200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" s="2" customFormat="1" spans="1:13">
+    <row r="201" spans="1:13" s="2" customFormat="1">
       <c r="A201" s="7"/>
       <c r="D201" s="3"/>
       <c r="G201" s="3"/>
       <c r="J201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" s="2" customFormat="1" spans="1:13">
+    <row r="202" spans="1:13" s="2" customFormat="1">
       <c r="A202" s="7"/>
       <c r="D202" s="3"/>
       <c r="G202" s="3"/>
       <c r="J202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" s="2" customFormat="1" spans="1:13">
+    <row r="203" spans="1:13" s="2" customFormat="1">
       <c r="A203" s="7"/>
       <c r="D203" s="3"/>
       <c r="G203" s="3"/>
       <c r="J203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" s="2" customFormat="1" spans="1:13">
+    <row r="204" spans="1:13" s="2" customFormat="1">
       <c r="A204" s="7"/>
       <c r="D204" s="3"/>
       <c r="G204" s="3"/>
       <c r="J204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" s="2" customFormat="1" spans="1:13">
+    <row r="205" spans="1:13" s="2" customFormat="1">
       <c r="A205" s="7"/>
       <c r="D205" s="3"/>
       <c r="G205" s="3"/>
       <c r="J205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" s="2" customFormat="1" spans="1:13">
+    <row r="206" spans="1:13" s="2" customFormat="1">
       <c r="A206" s="7"/>
       <c r="D206" s="3"/>
       <c r="G206" s="3"/>
       <c r="J206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" s="2" customFormat="1" spans="1:13">
+    <row r="207" spans="1:13" s="2" customFormat="1">
       <c r="A207" s="7"/>
       <c r="D207" s="3"/>
       <c r="G207" s="3"/>
       <c r="J207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:13">
+    <row r="208" spans="1:13" s="2" customFormat="1">
       <c r="A208" s="7"/>
       <c r="D208" s="3"/>
       <c r="G208" s="3"/>
       <c r="J208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" s="2" customFormat="1" spans="1:13">
+    <row r="209" spans="1:13" s="2" customFormat="1">
       <c r="A209" s="7"/>
       <c r="D209" s="3"/>
       <c r="G209" s="3"/>
       <c r="J209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:13">
+    <row r="210" spans="1:13" s="2" customFormat="1">
       <c r="A210" s="7"/>
       <c r="D210" s="3"/>
       <c r="G210" s="3"/>
       <c r="J210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" s="2" customFormat="1" spans="1:13">
+    <row r="211" spans="1:13" s="2" customFormat="1">
       <c r="A211" s="7"/>
       <c r="D211" s="3"/>
       <c r="G211" s="3"/>
       <c r="J211" s="7"/>
       <c r="M211" s="7"/>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:13">
+    <row r="212" spans="1:13" s="2" customFormat="1">
       <c r="A212" s="7"/>
       <c r="D212" s="3"/>
       <c r="G212" s="3"/>
       <c r="J212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" s="2" customFormat="1" spans="1:13">
+    <row r="213" spans="1:13" s="2" customFormat="1">
       <c r="A213" s="7"/>
       <c r="D213" s="3"/>
       <c r="G213" s="3"/>
@@ -7485,211 +7015,240 @@
   <mergeCells count="1">
     <mergeCell ref="A16:A18"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" display="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest" tooltip="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest"/>
+    <hyperlink ref="C25" r:id="rId1" tooltip="https://segmentfault.com/a/1190000014100810?utm_source=index-hottest"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="17.3571428571429" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>246</v>
+    <row r="1" spans="1:3">
+      <c r="C1" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="103.5">
+      <c r="A2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="86.25">
+      <c r="A3" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.25">
+      <c r="A4" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="24" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" ht="18" spans="1:1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="36.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="31" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>